--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="A G O S T O    2 0 2 1     " sheetId="1" r:id="rId1"/>
     <sheet name="REMISIONES  AGOSTO 2021    " sheetId="2" r:id="rId2"/>
     <sheet name="SEPTIEMBRE    2 0 2 1   " sheetId="3" r:id="rId3"/>
     <sheet name="REMISIONES  SEPTIEMBRE  2021  " sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="7" r:id="rId5"/>
-    <sheet name="CANCELACIONES         " sheetId="6" r:id="rId6"/>
+    <sheet name="OCTUBRE   2 0 2 1             " sheetId="7" r:id="rId5"/>
+    <sheet name="REMISIONES OCTUBRE  2021     " sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="9" r:id="rId7"/>
+    <sheet name="CANCELACIONES         " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -144,8 +146,66 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="197">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -633,12 +693,6 @@
     <t>CECINA-QUESOS-VEERDURA</t>
   </si>
   <si>
-    <t># 4775</t>
-  </si>
-  <si>
-    <t>#  4778</t>
-  </si>
-  <si>
     <t>ALITAS-QUESOS-LONGANIZA-JAMON</t>
   </si>
   <si>
@@ -706,6 +760,42 @@
   </si>
   <si>
     <t>ADT</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A     OCTUBRE            2 0 2 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONDO DE CAJA </t>
+  </si>
+  <si>
+    <t>TOSTADAS--JAMON-TOTOPOS</t>
+  </si>
+  <si>
+    <t>HAMBURGUESA-QUESO-CECINA-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINA # 41</t>
+  </si>
+  <si>
+    <t>QUESO-PAPA-JAMON-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># </t>
+  </si>
+  <si>
+    <t>SALCHICHA</t>
+  </si>
+  <si>
+    <t># 6153</t>
+  </si>
+  <si>
+    <t>#  6154</t>
+  </si>
+  <si>
+    <t>TOCINO-RETAZO-MAIZ-QUESO-JAMON</t>
+  </si>
+  <si>
+    <t>NOMINA # 42</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -2268,6 +2358,11 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2403,10 +2498,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF9933FF"/>
-      <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3272,6 +3367,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5105400" y="11010899"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="10515600"/>
+          <a:ext cx="533400" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5105400" y="11010899"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="10496550"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7677151" y="9629772"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="11322800"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5029200" y="11344275"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3541,7 +4062,7 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,23 +4084,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="241"/>
-      <c r="C1" s="250" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="253" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="242"/>
+      <c r="B2" s="245"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -3589,17 +4110,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="247"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="248"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -3615,14 +4136,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="246" t="s">
+      <c r="E4" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="H4" s="248" t="s">
+      <c r="F4" s="250"/>
+      <c r="H4" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="252"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -3632,10 +4153,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="235" t="s">
+      <c r="P4" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="236"/>
+      <c r="Q4" s="239"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5130,11 +5651,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="237">
+      <c r="M39" s="240">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="239">
+      <c r="N39" s="242">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -5166,8 +5687,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="238"/>
-      <c r="N40" s="240"/>
+      <c r="M40" s="241"/>
+      <c r="N40" s="243"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5400,29 +5921,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="225" t="s">
+      <c r="H52" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="226"/>
+      <c r="I52" s="229"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="227">
+      <c r="K52" s="230">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="228"/>
-      <c r="M52" s="216">
+      <c r="L52" s="231"/>
+      <c r="M52" s="219">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="217"/>
+      <c r="N52" s="220"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="229" t="s">
+      <c r="D53" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="229"/>
+      <c r="E53" s="232"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -5433,22 +5954,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="230" t="s">
+      <c r="D54" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="230"/>
+      <c r="E54" s="233"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="231" t="s">
+      <c r="I54" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="232"/>
-      <c r="K54" s="233">
+      <c r="J54" s="235"/>
+      <c r="K54" s="236">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="234"/>
+      <c r="L54" s="237"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -5479,10 +6000,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="218">
-        <v>0</v>
-      </c>
-      <c r="L56" s="219"/>
+      <c r="K56" s="221">
+        <v>0</v>
+      </c>
+      <c r="L56" s="222"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -5499,22 +6020,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="220" t="s">
+      <c r="D58" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="221"/>
+      <c r="E58" s="224"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="222" t="s">
+      <c r="I58" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="223"/>
-      <c r="K58" s="224">
+      <c r="J58" s="226"/>
+      <c r="K58" s="227">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="224"/>
+      <c r="L58" s="227"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -5749,7 +6270,7 @@
       <c r="C3" s="35">
         <v>3015.96</v>
       </c>
-      <c r="D3" s="252" t="s">
+      <c r="D3" s="255" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="9"/>
@@ -5768,7 +6289,7 @@
       <c r="C4" s="35">
         <v>10281</v>
       </c>
-      <c r="D4" s="253"/>
+      <c r="D4" s="256"/>
       <c r="E4" s="181"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
@@ -5786,7 +6307,7 @@
       <c r="C5" s="35">
         <v>12746.2</v>
       </c>
-      <c r="D5" s="253"/>
+      <c r="D5" s="256"/>
       <c r="E5" s="181"/>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
@@ -5803,7 +6324,7 @@
       <c r="C6" s="35">
         <v>28974.78</v>
       </c>
-      <c r="D6" s="253"/>
+      <c r="D6" s="256"/>
       <c r="E6" s="181"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
@@ -5820,7 +6341,7 @@
       <c r="C7" s="35">
         <v>44758.6</v>
       </c>
-      <c r="D7" s="253"/>
+      <c r="D7" s="256"/>
       <c r="E7" s="181"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
@@ -5837,7 +6358,7 @@
       <c r="C8" s="35">
         <v>12841.78</v>
       </c>
-      <c r="D8" s="253"/>
+      <c r="D8" s="256"/>
       <c r="E8" s="181"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
@@ -5854,7 +6375,7 @@
       <c r="C9" s="35">
         <v>3898.05</v>
       </c>
-      <c r="D9" s="253"/>
+      <c r="D9" s="256"/>
       <c r="E9" s="181"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
@@ -5871,7 +6392,7 @@
       <c r="C10" s="35">
         <v>1429</v>
       </c>
-      <c r="D10" s="254"/>
+      <c r="D10" s="257"/>
       <c r="E10" s="181"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
@@ -7368,8 +7889,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I31" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7391,23 +7912,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="241"/>
-      <c r="C1" s="250" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="253" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="242"/>
+      <c r="B2" s="245"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -7417,17 +7938,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="247"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="248"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -7443,14 +7964,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="246" t="s">
+      <c r="E4" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="H4" s="248" t="s">
+      <c r="F4" s="250"/>
+      <c r="H4" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="252"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -7460,10 +7981,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="235" t="s">
+      <c r="P4" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="236"/>
+      <c r="Q4" s="239"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -7542,7 +8063,7 @@
         <v>170</v>
       </c>
       <c r="P6" s="83">
-        <f t="shared" ref="P6:P36" si="0">N6+M6+L6+I6+C6</f>
+        <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
         <v>37318</v>
       </c>
       <c r="Q6" s="136">
@@ -7554,7 +8075,7 @@
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21">
-        <v>44416</v>
+        <v>44447</v>
       </c>
       <c r="C7" s="22">
         <v>697</v>
@@ -7598,7 +8119,7 @@
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="21">
-        <v>44417</v>
+        <v>44448</v>
       </c>
       <c r="C8" s="22">
         <v>1344</v>
@@ -7643,7 +8164,7 @@
     <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21">
-        <v>44418</v>
+        <v>44449</v>
       </c>
       <c r="C9" s="22">
         <v>0</v>
@@ -7685,7 +8206,7 @@
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="21">
-        <v>44419</v>
+        <v>44450</v>
       </c>
       <c r="C10" s="22">
         <v>2725</v>
@@ -7735,7 +8256,7 @@
     <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="21">
-        <v>44420</v>
+        <v>44451</v>
       </c>
       <c r="C11" s="22">
         <v>0</v>
@@ -7777,7 +8298,7 @@
     <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="21">
-        <v>44421</v>
+        <v>44452</v>
       </c>
       <c r="C12" s="22">
         <v>6078</v>
@@ -7822,7 +8343,7 @@
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="21">
-        <v>44422</v>
+        <v>44453</v>
       </c>
       <c r="C13" s="22">
         <v>3282</v>
@@ -7866,7 +8387,7 @@
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21">
-        <v>44423</v>
+        <v>44454</v>
       </c>
       <c r="C14" s="22">
         <v>4078</v>
@@ -7910,7 +8431,7 @@
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21">
-        <v>44424</v>
+        <v>44455</v>
       </c>
       <c r="C15" s="22">
         <v>0</v>
@@ -7952,7 +8473,7 @@
     <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21">
-        <v>44425</v>
+        <v>44456</v>
       </c>
       <c r="C16" s="22">
         <v>0</v>
@@ -7994,7 +8515,7 @@
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="21">
-        <v>44426</v>
+        <v>44457</v>
       </c>
       <c r="C17" s="22">
         <v>3060</v>
@@ -8044,7 +8565,7 @@
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="21">
-        <v>44427</v>
+        <v>44458</v>
       </c>
       <c r="C18" s="22">
         <v>27</v>
@@ -8088,7 +8609,7 @@
     <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21">
-        <v>44428</v>
+        <v>44459</v>
       </c>
       <c r="C19" s="22">
         <v>2067</v>
@@ -8132,7 +8653,7 @@
     <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="21">
-        <v>44429</v>
+        <v>44460</v>
       </c>
       <c r="C20" s="22">
         <v>340</v>
@@ -8176,7 +8697,7 @@
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="21">
-        <v>44430</v>
+        <v>44461</v>
       </c>
       <c r="C21" s="22">
         <v>0</v>
@@ -8218,7 +8739,7 @@
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21">
-        <v>44431</v>
+        <v>44462</v>
       </c>
       <c r="C22" s="22">
         <v>5051</v>
@@ -8262,7 +8783,7 @@
     <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21">
-        <v>44432</v>
+        <v>44463</v>
       </c>
       <c r="C23" s="22">
         <v>8999</v>
@@ -8306,7 +8827,7 @@
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="21">
-        <v>44433</v>
+        <v>44464</v>
       </c>
       <c r="C24" s="22">
         <v>1265</v>
@@ -8356,7 +8877,7 @@
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="21">
-        <v>44434</v>
+        <v>44465</v>
       </c>
       <c r="C25" s="22">
         <v>132</v>
@@ -8405,7 +8926,7 @@
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="21">
-        <v>44435</v>
+        <v>44466</v>
       </c>
       <c r="C26" s="22">
         <v>3613.5</v>
@@ -8449,7 +8970,7 @@
     <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="21">
-        <v>44436</v>
+        <v>44467</v>
       </c>
       <c r="C27" s="22">
         <v>0</v>
@@ -8491,7 +9012,7 @@
     <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="21">
-        <v>44437</v>
+        <v>44468</v>
       </c>
       <c r="C28" s="22">
         <v>1949</v>
@@ -8535,7 +9056,7 @@
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="21">
-        <v>44438</v>
+        <v>44469</v>
       </c>
       <c r="C29" s="22">
         <v>1132</v>
@@ -8579,7 +9100,7 @@
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="21">
-        <v>44439</v>
+        <v>44470</v>
       </c>
       <c r="C30" s="22">
         <v>1812</v>
@@ -8623,13 +9144,13 @@
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="21">
-        <v>44440</v>
+        <v>44471</v>
       </c>
       <c r="C31" s="22">
         <v>4573</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E31" s="24">
         <v>44471</v>
@@ -8648,7 +9169,7 @@
         <v>44471</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L31" s="72">
         <v>10300</v>
@@ -8673,7 +9194,7 @@
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="21">
-        <v>44441</v>
+        <v>44472</v>
       </c>
       <c r="C32" s="22">
         <v>0</v>
@@ -8714,9 +9235,7 @@
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
-      <c r="B33" s="21">
-        <v>44442</v>
-      </c>
+      <c r="B33" s="21"/>
       <c r="C33" s="22">
         <v>0</v>
       </c>
@@ -8727,10 +9246,10 @@
       <c r="H33" s="32"/>
       <c r="I33" s="28"/>
       <c r="J33" s="67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L33" s="75">
         <v>3422</v>
@@ -8767,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="K34" s="214" t="s">
         <v>183</v>
-      </c>
-      <c r="K34" s="214" t="s">
-        <v>185</v>
       </c>
       <c r="L34" s="76">
         <v>4999.6000000000004</v>
@@ -8807,10 +9326,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="K35" s="215" t="s">
         <v>183</v>
-      </c>
-      <c r="K35" s="215" t="s">
-        <v>185</v>
       </c>
       <c r="L35" s="75">
         <v>1195.68</v>
@@ -8847,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K36" s="78" t="s">
         <v>110</v>
@@ -8887,10 +9406,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K37" s="185" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L37" s="76">
         <v>836.84</v>
@@ -8955,11 +9474,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="237">
+      <c r="M39" s="240">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="239">
+      <c r="N39" s="242">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -8985,8 +9504,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="238"/>
-      <c r="N40" s="240"/>
+      <c r="M40" s="241"/>
+      <c r="N40" s="243"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9201,29 +9720,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="225" t="s">
+      <c r="H52" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="226"/>
+      <c r="I52" s="229"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="227">
+      <c r="K52" s="230">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="228"/>
-      <c r="M52" s="216">
+      <c r="L52" s="231"/>
+      <c r="M52" s="219">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="217"/>
+      <c r="N52" s="220"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="229" t="s">
+      <c r="D53" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="229"/>
+      <c r="E53" s="232"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -9234,22 +9753,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="230" t="s">
+      <c r="D54" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="230"/>
+      <c r="E54" s="233"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="231" t="s">
+      <c r="I54" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="232"/>
-      <c r="K54" s="233">
+      <c r="J54" s="235"/>
+      <c r="K54" s="236">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="234"/>
+      <c r="L54" s="237"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9280,10 +9799,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="218">
-        <v>0</v>
-      </c>
-      <c r="L56" s="219"/>
+      <c r="K56" s="221">
+        <f>-C4</f>
+        <v>-136234.76999999999</v>
+      </c>
+      <c r="L56" s="222"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -9300,22 +9820,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="220" t="s">
+      <c r="D58" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="221"/>
+      <c r="E58" s="224"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="222" t="s">
+      <c r="I58" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="223"/>
-      <c r="K58" s="224">
+      <c r="J58" s="226"/>
+      <c r="K58" s="227">
         <f>K54+K56</f>
-        <v>222140.17000000004</v>
-      </c>
-      <c r="L58" s="224"/>
+        <v>85905.400000000052</v>
+      </c>
+      <c r="L58" s="227"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -9495,7 +10015,7 @@
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9977,7 +10497,7 @@
         <v>44459</v>
       </c>
       <c r="B28" s="142" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C28" s="79">
         <v>31885.45</v>
@@ -9998,7 +10518,7 @@
         <v>44460</v>
       </c>
       <c r="B29" s="142" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" s="79">
         <v>36425.199999999997</v>
@@ -10015,7 +10535,7 @@
         <v>44461</v>
       </c>
       <c r="B30" s="142" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C30" s="79">
         <v>50568.800000000003</v>
@@ -10033,7 +10553,7 @@
         <v>44462</v>
       </c>
       <c r="B31" s="142" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C31" s="79">
         <v>59040.6</v>
@@ -10050,7 +10570,7 @@
         <v>44463</v>
       </c>
       <c r="B32" s="142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" s="79">
         <v>79386.06</v>
@@ -10067,7 +10587,7 @@
         <v>44463</v>
       </c>
       <c r="B33" s="142" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C33" s="79">
         <v>975</v>
@@ -10084,7 +10604,7 @@
         <v>44464</v>
       </c>
       <c r="B34" s="142" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" s="79">
         <v>26659.84</v>
@@ -10101,7 +10621,7 @@
         <v>44464</v>
       </c>
       <c r="B35" s="142" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C35" s="79">
         <v>63162.2</v>
@@ -10118,7 +10638,7 @@
         <v>44466</v>
       </c>
       <c r="B36" s="142" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C36" s="79">
         <v>42269.1</v>
@@ -10135,7 +10655,7 @@
         <v>44466</v>
       </c>
       <c r="B37" s="142" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" s="79">
         <v>3041</v>
@@ -10152,7 +10672,7 @@
         <v>44467</v>
       </c>
       <c r="B38" s="186" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C38" s="187">
         <v>59570.38</v>
@@ -10173,7 +10693,7 @@
         <v>44467</v>
       </c>
       <c r="B39" s="186" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C39" s="187">
         <v>7939.6</v>
@@ -10190,7 +10710,7 @@
         <v>44468</v>
       </c>
       <c r="B40" s="186" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C40" s="187">
         <v>38874.400000000001</v>
@@ -10207,7 +10727,7 @@
         <v>44469</v>
       </c>
       <c r="B41" s="186" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C41" s="187">
         <v>92182.8</v>
@@ -10224,7 +10744,7 @@
         <v>44470</v>
       </c>
       <c r="B42" s="186" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C42" s="187">
         <v>66246</v>
@@ -10241,7 +10761,7 @@
         <v>44471</v>
       </c>
       <c r="B43" s="186" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C43" s="187">
         <v>85535.7</v>
@@ -10258,7 +10778,7 @@
         <v>44471</v>
       </c>
       <c r="B44" s="186" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C44" s="187">
         <v>1725</v>
@@ -11069,6 +11589,3337 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6600"/>
+  </sheetPr>
+  <dimension ref="A1:S80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="103" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="244"/>
+      <c r="C1" s="253" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="245"/>
+      <c r="C2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="247"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="248" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="248"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15">
+        <v>134848.89000000001</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44472</v>
+      </c>
+      <c r="E4" s="249" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="250"/>
+      <c r="H4" s="251" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="252"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="159" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="238" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="239"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44473</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24">
+        <v>44473</v>
+      </c>
+      <c r="F5" s="25">
+        <v>45417</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27">
+        <v>44473</v>
+      </c>
+      <c r="I5" s="28">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="138">
+        <f>23000+24867</f>
+        <v>47867</v>
+      </c>
+      <c r="N5" s="30">
+        <v>0</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="83">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>47877</v>
+      </c>
+      <c r="Q5" s="217">
+        <f>P5-F5</f>
+        <v>2460</v>
+      </c>
+      <c r="R5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21">
+        <v>44474</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="24">
+        <v>44474</v>
+      </c>
+      <c r="F6" s="25">
+        <v>39717</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="32">
+        <v>44474</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="33">
+        <v>44474</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="35">
+        <v>2000</v>
+      </c>
+      <c r="M6" s="138">
+        <f>17261+23000</f>
+        <v>40261</v>
+      </c>
+      <c r="N6" s="30">
+        <v>700</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="83">
+        <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
+        <v>42961</v>
+      </c>
+      <c r="Q6" s="217">
+        <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
+        <v>3244</v>
+      </c>
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21">
+        <v>44475</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1148</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="24">
+        <v>44475</v>
+      </c>
+      <c r="F7" s="25">
+        <v>33467</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="32">
+        <v>44475</v>
+      </c>
+      <c r="I7" s="28">
+        <v>8</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="138">
+        <f>15000+16393</f>
+        <v>31393</v>
+      </c>
+      <c r="N7" s="30">
+        <v>918</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="83">
+        <f t="shared" si="0"/>
+        <v>33467</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="26"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21">
+        <v>44476</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="24">
+        <v>44476</v>
+      </c>
+      <c r="F8" s="25">
+        <v>61488</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="32">
+        <v>44476</v>
+      </c>
+      <c r="I8" s="28">
+        <v>20</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="138">
+        <f>30629+30000</f>
+        <v>60629</v>
+      </c>
+      <c r="N8" s="30">
+        <v>839</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="83">
+        <f t="shared" si="0"/>
+        <v>61488</v>
+      </c>
+      <c r="Q8" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="51"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21">
+        <v>44477</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="24">
+        <v>44477</v>
+      </c>
+      <c r="F9" s="25">
+        <v>76038</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="32">
+        <v>44477</v>
+      </c>
+      <c r="I9" s="28">
+        <v>52</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="138">
+        <f>40000+34832</f>
+        <v>74832</v>
+      </c>
+      <c r="N9" s="30">
+        <v>1154</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="83">
+        <f>N9+M9+L9+I9+C9</f>
+        <v>76038</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>P9-F9</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="26"/>
+    </row>
+    <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21">
+        <v>44478</v>
+      </c>
+      <c r="C10" s="22">
+        <v>4462</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="24">
+        <v>44478</v>
+      </c>
+      <c r="F10" s="25">
+        <v>78963</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="32">
+        <v>44478</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="33">
+        <v>44478</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="43">
+        <v>11214</v>
+      </c>
+      <c r="M10" s="138">
+        <f>18690+35000</f>
+        <v>53690</v>
+      </c>
+      <c r="N10" s="30">
+        <v>9600</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="83">
+        <f t="shared" si="0"/>
+        <v>78966</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21">
+        <v>44479</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="24">
+        <v>44479</v>
+      </c>
+      <c r="F11" s="25">
+        <v>67914</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="32">
+        <v>44479</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+      <c r="J11" s="39">
+        <v>44479</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="35">
+        <v>3000</v>
+      </c>
+      <c r="M11" s="138">
+        <f>50000+14016</f>
+        <v>64016</v>
+      </c>
+      <c r="N11" s="30">
+        <v>898</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="83">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>67914</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="26"/>
+    </row>
+    <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21">
+        <v>44480</v>
+      </c>
+      <c r="C12" s="22">
+        <v>2188</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="24">
+        <v>44480</v>
+      </c>
+      <c r="F12" s="25">
+        <v>52127</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="32">
+        <v>44480</v>
+      </c>
+      <c r="I12" s="28">
+        <v>10</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="138">
+        <f>100+21200+28206</f>
+        <v>49506</v>
+      </c>
+      <c r="N12" s="30">
+        <v>425</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="83">
+        <f t="shared" si="0"/>
+        <v>52129</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="26"/>
+    </row>
+    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21">
+        <v>44481</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="24">
+        <v>44481</v>
+      </c>
+      <c r="F13" s="25">
+        <v>48834</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="32">
+        <v>44481</v>
+      </c>
+      <c r="I13" s="28">
+        <v>10</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="138">
+        <f>25000+23824</f>
+        <v>48824</v>
+      </c>
+      <c r="N13" s="30">
+        <v>0</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="83">
+        <f t="shared" si="0"/>
+        <v>48834</v>
+      </c>
+      <c r="Q13" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="205"/>
+    </row>
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21">
+        <v>44482</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="24">
+        <v>44482</v>
+      </c>
+      <c r="F14" s="25">
+        <v>31591</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="32">
+        <v>44482</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="138">
+        <f>15000+16600</f>
+        <v>31600</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="83">
+        <f t="shared" si="0"/>
+        <v>31600</v>
+      </c>
+      <c r="Q14" s="136">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R14" s="205"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21">
+        <v>44483</v>
+      </c>
+      <c r="C15" s="22">
+        <v>321</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44483</v>
+      </c>
+      <c r="F15" s="25">
+        <v>58526</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="32">
+        <v>44483</v>
+      </c>
+      <c r="I15" s="28">
+        <v>52</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="138">
+        <f>37100+20000</f>
+        <v>57100</v>
+      </c>
+      <c r="N15" s="30">
+        <v>1050</v>
+      </c>
+      <c r="P15" s="83">
+        <f t="shared" si="0"/>
+        <v>58523</v>
+      </c>
+      <c r="Q15" s="218">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="R15" s="26"/>
+    </row>
+    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21">
+        <v>44484</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="24">
+        <v>44484</v>
+      </c>
+      <c r="F16" s="25">
+        <v>68808</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="32">
+        <v>44484</v>
+      </c>
+      <c r="I16" s="28">
+        <v>10</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="138">
+        <f>35000+33430</f>
+        <v>68430</v>
+      </c>
+      <c r="N16" s="30">
+        <v>368</v>
+      </c>
+      <c r="P16" s="83">
+        <f t="shared" si="0"/>
+        <v>68808</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21">
+        <v>44485</v>
+      </c>
+      <c r="C17" s="22">
+        <v>6242</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="24">
+        <v>44485</v>
+      </c>
+      <c r="F17" s="25">
+        <v>72182</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="32">
+        <v>44485</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0</v>
+      </c>
+      <c r="J17" s="33">
+        <v>44485</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" s="43">
+        <v>12019</v>
+      </c>
+      <c r="M17" s="138">
+        <f>30000+16890</f>
+        <v>46890</v>
+      </c>
+      <c r="N17" s="30">
+        <v>7036</v>
+      </c>
+      <c r="P17" s="83">
+        <f t="shared" si="0"/>
+        <v>72187</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21">
+        <v>44486</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="24">
+        <v>44486</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="32">
+        <v>44486</v>
+      </c>
+      <c r="I18" s="28">
+        <v>0</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="138">
+        <v>0</v>
+      </c>
+      <c r="N18" s="30">
+        <v>0</v>
+      </c>
+      <c r="P18" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21">
+        <v>44487</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="24">
+        <v>44487</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="32">
+        <v>44487</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="138">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30">
+        <v>0</v>
+      </c>
+      <c r="P19" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21">
+        <v>44488</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="24">
+        <v>44488</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="32">
+        <v>44488</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="138">
+        <v>0</v>
+      </c>
+      <c r="N20" s="30">
+        <v>0</v>
+      </c>
+      <c r="P20" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21">
+        <v>44489</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="24">
+        <v>44489</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32">
+        <v>44489</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="138">
+        <v>0</v>
+      </c>
+      <c r="N21" s="30">
+        <v>0</v>
+      </c>
+      <c r="P21" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21">
+        <v>44490</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="24">
+        <v>44490</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="32">
+        <v>44490</v>
+      </c>
+      <c r="I22" s="28">
+        <v>0</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="138">
+        <v>0</v>
+      </c>
+      <c r="N22" s="30">
+        <v>0</v>
+      </c>
+      <c r="P22" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="26"/>
+    </row>
+    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21">
+        <v>44491</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="24">
+        <v>44491</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="32">
+        <v>44491</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0</v>
+      </c>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="138">
+        <v>0</v>
+      </c>
+      <c r="N23" s="30">
+        <v>0</v>
+      </c>
+      <c r="P23" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21">
+        <v>44492</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="24">
+        <v>44492</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="32">
+        <v>44492</v>
+      </c>
+      <c r="I24" s="28">
+        <v>0</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="138">
+        <v>0</v>
+      </c>
+      <c r="N24" s="30">
+        <v>0</v>
+      </c>
+      <c r="P24" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="26"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21">
+        <v>44493</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="24">
+        <v>44493</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="32">
+        <v>44493</v>
+      </c>
+      <c r="I25" s="28">
+        <v>0</v>
+      </c>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="138">
+        <v>0</v>
+      </c>
+      <c r="N25" s="30">
+        <v>0</v>
+      </c>
+      <c r="P25" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="26"/>
+      <c r="S25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21">
+        <v>44494</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="24">
+        <v>44494</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="32">
+        <v>44494</v>
+      </c>
+      <c r="I26" s="28">
+        <v>0</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="138">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30">
+        <v>0</v>
+      </c>
+      <c r="P26" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="51"/>
+    </row>
+    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21">
+        <v>44495</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="24">
+        <v>44495</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="32">
+        <v>44495</v>
+      </c>
+      <c r="I27" s="28">
+        <v>0</v>
+      </c>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="138">
+        <v>0</v>
+      </c>
+      <c r="N27" s="30">
+        <v>0</v>
+      </c>
+      <c r="P27" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="26"/>
+    </row>
+    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21">
+        <v>44496</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="24">
+        <v>44496</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="32">
+        <v>44496</v>
+      </c>
+      <c r="I28" s="28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="63"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="138">
+        <v>0</v>
+      </c>
+      <c r="N28" s="30">
+        <v>0</v>
+      </c>
+      <c r="P28" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="212">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21">
+        <v>44497</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="24">
+        <v>44497</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="32">
+        <v>44497</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0</v>
+      </c>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="138">
+        <v>0</v>
+      </c>
+      <c r="N29" s="30">
+        <v>0</v>
+      </c>
+      <c r="P29" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21">
+        <v>44498</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="24">
+        <v>44498</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="32">
+        <v>44498</v>
+      </c>
+      <c r="I30" s="28">
+        <v>0</v>
+      </c>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="138">
+        <v>0</v>
+      </c>
+      <c r="N30" s="30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21">
+        <v>44499</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="24">
+        <v>44499</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="32">
+        <v>44499</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0</v>
+      </c>
+      <c r="J31" s="67"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="138">
+        <v>0</v>
+      </c>
+      <c r="N31" s="30">
+        <v>0</v>
+      </c>
+      <c r="P31" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="212">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="26"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21">
+        <v>44500</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="73"/>
+      <c r="E32" s="24">
+        <v>44500</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="32">
+        <v>44500</v>
+      </c>
+      <c r="I32" s="28">
+        <v>0</v>
+      </c>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="138">
+        <v>0</v>
+      </c>
+      <c r="N32" s="30">
+        <v>0</v>
+      </c>
+      <c r="P32" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="26"/>
+    </row>
+    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="138">
+        <v>0</v>
+      </c>
+      <c r="N33" s="30">
+        <v>0</v>
+      </c>
+      <c r="P33" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="26"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+      <c r="D34" s="73"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25">
+        <v>0</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="28">
+        <v>0</v>
+      </c>
+      <c r="J34" s="67"/>
+      <c r="K34" s="216"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="138">
+        <v>0</v>
+      </c>
+      <c r="N34" s="30">
+        <v>0</v>
+      </c>
+      <c r="P34" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="26"/>
+    </row>
+    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+      <c r="D35" s="77"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25">
+        <v>0</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="28">
+        <v>0</v>
+      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="138">
+        <v>0</v>
+      </c>
+      <c r="N35" s="30">
+        <v>0</v>
+      </c>
+      <c r="P35" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="26"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="70"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25">
+        <v>0</v>
+      </c>
+      <c r="G36" s="26"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="28">
+        <v>0</v>
+      </c>
+      <c r="J36" s="67"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="30"/>
+      <c r="P36" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="26"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25">
+        <v>0</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="28">
+        <v>0</v>
+      </c>
+      <c r="J37" s="67"/>
+      <c r="K37" s="185"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="30"/>
+      <c r="P37" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+      <c r="D38" s="74"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25">
+        <v>0</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="28">
+        <v>0</v>
+      </c>
+      <c r="J38" s="67"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="30"/>
+      <c r="P38" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="240">
+        <f>SUM(M5:M38)</f>
+        <v>675038</v>
+      </c>
+      <c r="N39" s="242">
+        <f>SUM(N5:N38)</f>
+        <v>22988</v>
+      </c>
+      <c r="P39" s="83">
+        <f>SUM(P5:P38)</f>
+        <v>740792</v>
+      </c>
+      <c r="Q39" s="9">
+        <f>SUM(Q5:Q38)</f>
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="241"/>
+      <c r="N40" s="243"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="200"/>
+      <c r="N41" s="199"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="200"/>
+      <c r="N42" s="199"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="200"/>
+      <c r="N43" s="199"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="197"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="198"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="200"/>
+      <c r="N44" s="199"/>
+      <c r="P44" s="83"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="195"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="197"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="198"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="200"/>
+      <c r="N45" s="199"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="197"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="199"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="195"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="200"/>
+      <c r="N47" s="199"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="197"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="198"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="200"/>
+      <c r="N48" s="199"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="22">
+        <v>0</v>
+      </c>
+      <c r="D49" s="89"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="84"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="201"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="30"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="93">
+        <f>SUM(C5:C49)</f>
+        <v>14361</v>
+      </c>
+      <c r="D50" s="94"/>
+      <c r="E50" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="96">
+        <f>SUM(F5:F49)</f>
+        <v>735072</v>
+      </c>
+      <c r="G50" s="94"/>
+      <c r="H50" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="98">
+        <f>SUM(I5:I49)</f>
+        <v>172</v>
+      </c>
+      <c r="J50" s="99"/>
+      <c r="K50" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="101">
+        <f>SUM(L5:L49)</f>
+        <v>28233</v>
+      </c>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="104"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="3"/>
+      <c r="H52" s="228" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="229"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="230">
+        <f>I50+L50</f>
+        <v>28405</v>
+      </c>
+      <c r="L52" s="231"/>
+      <c r="M52" s="219">
+        <f>N39+M39</f>
+        <v>698026</v>
+      </c>
+      <c r="N52" s="220"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D53" s="232" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="232"/>
+      <c r="F53" s="107">
+        <f>F50-K52-C50</f>
+        <v>692306</v>
+      </c>
+      <c r="I53" s="108"/>
+      <c r="J53" s="109"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D54" s="233" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="233"/>
+      <c r="F54" s="102">
+        <v>0</v>
+      </c>
+      <c r="I54" s="234" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="235"/>
+      <c r="K54" s="236">
+        <f>F56+F57+F58</f>
+        <v>692306</v>
+      </c>
+      <c r="L54" s="237"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="110"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="111">
+        <v>0</v>
+      </c>
+      <c r="I55" s="112"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="114"/>
+      <c r="L55" s="115"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="102">
+        <f>SUM(F53:F55)</f>
+        <v>692306</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="117"/>
+      <c r="K56" s="221">
+        <f>-C4</f>
+        <v>-134848.89000000001</v>
+      </c>
+      <c r="L56" s="222"/>
+    </row>
+    <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="120">
+        <v>44472</v>
+      </c>
+      <c r="D58" s="223" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="224"/>
+      <c r="F58" s="121">
+        <v>0</v>
+      </c>
+      <c r="I58" s="225" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="226"/>
+      <c r="K58" s="227">
+        <f>K54+K56</f>
+        <v>557457.11</v>
+      </c>
+      <c r="L58" s="227"/>
+    </row>
+    <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C59" s="122"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="125"/>
+      <c r="J59" s="126"/>
+    </row>
+    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="193"/>
+      <c r="J60" s="193"/>
+      <c r="K60" s="194"/>
+      <c r="L60" s="194"/>
+    </row>
+    <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="127"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="83"/>
+      <c r="I61" s="193"/>
+      <c r="J61" s="193"/>
+      <c r="K61" s="194"/>
+      <c r="L61" s="194"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="104"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="127"/>
+      <c r="C62" s="130"/>
+      <c r="E62" s="83"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="104"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="127"/>
+      <c r="C63" s="130"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="131"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="127"/>
+      <c r="C64" s="130"/>
+      <c r="E64" s="83"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="127"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="133"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="134"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D66" s="133"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="83"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="133"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="83"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="133"/>
+      <c r="E68" s="135"/>
+      <c r="F68" s="83"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="133"/>
+      <c r="E69" s="135"/>
+      <c r="F69" s="83"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="133"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="83"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="133"/>
+      <c r="E71" s="135"/>
+      <c r="F71" s="83"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="133"/>
+      <c r="E72" s="135"/>
+      <c r="F72" s="83"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="133"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="83"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="133"/>
+      <c r="E74" s="135"/>
+      <c r="F74" s="83"/>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="133"/>
+      <c r="E75" s="135"/>
+      <c r="F75" s="83"/>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="133"/>
+      <c r="E76" s="135"/>
+      <c r="F76" s="83"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="133"/>
+      <c r="E77" s="135"/>
+      <c r="F77" s="83"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="134"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="133"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="134"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+  </mergeCells>
+  <pageMargins left="0.17" right="0.16" top="0.3" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF6600"/>
+  </sheetPr>
+  <dimension ref="A1:G134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="202" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="202" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="202" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="203" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="141"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="143">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="141"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="145">
+        <f>F3+C4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="146"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="141"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="145">
+        <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="141"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="141"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="141"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="141"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="146"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="141"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="144"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="144"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="144"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="144"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="144"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="144"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="144"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="144"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="144"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="144"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="144"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="146"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="144"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="144"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="144"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="144"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="144"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="144"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="144"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="144"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="146"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="144"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="144"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="144"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="144"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="144"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="144"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="144"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="144"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="144"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="144"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="144"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="144"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="144"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="144"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="144"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="144"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="144"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="144"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="144"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="144"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="144"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="144"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="144"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="141"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="141"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="141"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="144"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="144"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="144"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="141"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="141"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="141"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="189"/>
+      <c r="B63" s="186"/>
+      <c r="C63" s="187"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="189"/>
+      <c r="B64" s="186"/>
+      <c r="C64" s="187"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="189"/>
+      <c r="B65" s="186"/>
+      <c r="C65" s="187"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="189"/>
+      <c r="B66" s="186"/>
+      <c r="C66" s="187"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="189"/>
+      <c r="B67" s="186"/>
+      <c r="C67" s="187"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="189"/>
+      <c r="B68" s="186"/>
+      <c r="C68" s="187"/>
+      <c r="D68" s="144"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="189"/>
+      <c r="B69" s="186"/>
+      <c r="C69" s="187"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="145">
+        <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="189"/>
+      <c r="B70" s="186"/>
+      <c r="C70" s="187"/>
+      <c r="D70" s="144"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="189"/>
+      <c r="B71" s="186"/>
+      <c r="C71" s="187"/>
+      <c r="D71" s="144"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="189"/>
+      <c r="B72" s="186"/>
+      <c r="C72" s="187"/>
+      <c r="D72" s="144"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="189"/>
+      <c r="B73" s="186"/>
+      <c r="C73" s="187"/>
+      <c r="D73" s="144"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="189"/>
+      <c r="B74" s="186"/>
+      <c r="C74" s="187"/>
+      <c r="D74" s="144"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="189"/>
+      <c r="B75" s="186"/>
+      <c r="C75" s="187"/>
+      <c r="D75" s="144"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="189"/>
+      <c r="B76" s="186"/>
+      <c r="C76" s="187"/>
+      <c r="D76" s="144"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="189"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="187"/>
+      <c r="D77" s="144"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="189"/>
+      <c r="B78" s="186"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="144"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="189"/>
+      <c r="B79" s="186"/>
+      <c r="C79" s="187"/>
+      <c r="D79" s="144"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="189"/>
+      <c r="B80" s="186"/>
+      <c r="C80" s="187"/>
+      <c r="D80" s="144"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="190"/>
+      <c r="B81" s="191"/>
+      <c r="C81" s="192"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="190"/>
+      <c r="B82" s="191"/>
+      <c r="C82" s="192"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="190"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="192"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="190"/>
+      <c r="B84" s="191"/>
+      <c r="C84" s="192"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="190"/>
+      <c r="B85" s="191"/>
+      <c r="C85" s="192"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="190"/>
+      <c r="B86" s="191"/>
+      <c r="C86" s="192"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="189"/>
+      <c r="B87" s="186"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="189"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="189"/>
+      <c r="B89" s="186"/>
+      <c r="C89" s="187"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="189"/>
+      <c r="B90" s="186"/>
+      <c r="C90" s="187"/>
+      <c r="D90" s="148"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="189"/>
+      <c r="B91" s="186"/>
+      <c r="C91" s="187"/>
+      <c r="D91" s="148"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="189"/>
+      <c r="B92" s="186"/>
+      <c r="C92" s="187"/>
+      <c r="D92" s="148"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="189"/>
+      <c r="B93" s="186"/>
+      <c r="C93" s="187"/>
+      <c r="D93" s="148"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="189"/>
+      <c r="B94" s="186"/>
+      <c r="C94" s="187"/>
+      <c r="D94" s="148"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="189"/>
+      <c r="B95" s="186"/>
+      <c r="C95" s="187"/>
+      <c r="D95" s="148"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="189"/>
+      <c r="B96" s="186"/>
+      <c r="C96" s="187"/>
+      <c r="D96" s="148"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="149"/>
+      <c r="B97" s="150"/>
+      <c r="C97" s="151">
+        <v>0</v>
+      </c>
+      <c r="D97" s="152"/>
+      <c r="E97" s="151"/>
+      <c r="F97" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B98" s="104"/>
+      <c r="C98" s="3">
+        <f>SUM(C3:C97)</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="103"/>
+      <c r="E98" s="3">
+        <f>SUM(E3:E97)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="153">
+        <f>F97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="104"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="103"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="104"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="103"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101" s="20"/>
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102" s="20"/>
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103" s="20"/>
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="20"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="20"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="20"/>
+      <c r="D130" s="20"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="20"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="20"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="20"/>
+    </row>
+    <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C134" s="154"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11080,15 +14931,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A23:G53"/>
+  <dimension ref="A23:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11110,39 +14961,39 @@
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="163"/>
-      <c r="B45" s="255" t="s">
+      <c r="B45" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="256"/>
-      <c r="D45" s="256"/>
-      <c r="E45" s="257"/>
+      <c r="C45" s="259"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="260"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="169">
-        <v>44471</v>
+        <v>44485</v>
       </c>
       <c r="B46" s="170" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C46" s="171">
-        <v>2564.9</v>
+        <v>654.9</v>
       </c>
       <c r="D46" s="172" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="173" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="F46" s="107">
-        <v>1956</v>
+        <v>249</v>
       </c>
       <c r="G46" s="210"/>
     </row>
     <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="169"/>
       <c r="B47" s="170" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="C47" s="171">
         <v>0</v>
@@ -11266,7 +15117,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A46:F47">
+    <sortCondition ref="B46:B47"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B45:E45"/>
   </mergeCells>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="200">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -786,16 +786,25 @@
     <t>SALCHICHA</t>
   </si>
   <si>
-    <t># 6153</t>
-  </si>
-  <si>
-    <t>#  6154</t>
-  </si>
-  <si>
     <t>TOCINO-RETAZO-MAIZ-QUESO-JAMON</t>
   </si>
   <si>
     <t>NOMINA # 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESO  </t>
+  </si>
+  <si>
+    <t>JAMON-SALCHICHA-QUESO-LONGANIZA</t>
+  </si>
+  <si>
+    <t># 6661</t>
+  </si>
+  <si>
+    <t>#  6662</t>
+  </si>
+  <si>
+    <t>PAPA-CECINA-TOCINO-ADOBO-QUESO</t>
   </si>
 </sst>
 </file>
@@ -2363,6 +2372,57 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2418,57 +2478,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4084,23 +4093,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="244"/>
-      <c r="C1" s="253" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="245"/>
+      <c r="B2" s="226"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4110,17 +4119,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="246" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="247"/>
+      <c r="B3" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="228"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="248" t="s">
+      <c r="H3" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="248"/>
+      <c r="I3" s="229"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4136,14 +4145,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="249" t="s">
+      <c r="E4" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="250"/>
-      <c r="H4" s="251" t="s">
+      <c r="F4" s="231"/>
+      <c r="H4" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="252"/>
+      <c r="I4" s="233"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4153,10 +4162,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="238" t="s">
+      <c r="P4" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="239"/>
+      <c r="Q4" s="220"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5651,11 +5660,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="240">
+      <c r="M39" s="221">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="242">
+      <c r="N39" s="223">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -5687,8 +5696,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="241"/>
-      <c r="N40" s="243"/>
+      <c r="M40" s="222"/>
+      <c r="N40" s="224"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5921,29 +5930,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="228" t="s">
+      <c r="H52" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="229"/>
+      <c r="I52" s="246"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="230">
+      <c r="K52" s="247">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="231"/>
-      <c r="M52" s="219">
+      <c r="L52" s="248"/>
+      <c r="M52" s="236">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="220"/>
+      <c r="N52" s="237"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="232" t="s">
+      <c r="D53" s="249" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="232"/>
+      <c r="E53" s="249"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -5954,22 +5963,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="233" t="s">
+      <c r="D54" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="233"/>
+      <c r="E54" s="250"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="234" t="s">
+      <c r="I54" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="235"/>
-      <c r="K54" s="236">
+      <c r="J54" s="252"/>
+      <c r="K54" s="253">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="237"/>
+      <c r="L54" s="254"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6000,10 +6009,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="221">
-        <v>0</v>
-      </c>
-      <c r="L56" s="222"/>
+      <c r="K56" s="238">
+        <v>0</v>
+      </c>
+      <c r="L56" s="239"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6020,22 +6029,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="223" t="s">
+      <c r="D58" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="224"/>
+      <c r="E58" s="241"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="225" t="s">
+      <c r="I58" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="226"/>
-      <c r="K58" s="227">
+      <c r="J58" s="243"/>
+      <c r="K58" s="244">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="227"/>
+      <c r="L58" s="244"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6179,15 +6188,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:M1"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
@@ -6199,6 +6199,15 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7912,23 +7921,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="244"/>
-      <c r="C1" s="253" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="234" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="245"/>
+      <c r="B2" s="226"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -7938,17 +7947,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="246" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="247"/>
+      <c r="B3" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="228"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="248" t="s">
+      <c r="H3" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="248"/>
+      <c r="I3" s="229"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -7964,14 +7973,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="249" t="s">
+      <c r="E4" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="250"/>
-      <c r="H4" s="251" t="s">
+      <c r="F4" s="231"/>
+      <c r="H4" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="252"/>
+      <c r="I4" s="233"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -7981,10 +7990,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="238" t="s">
+      <c r="P4" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="239"/>
+      <c r="Q4" s="220"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9474,11 +9483,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="240">
+      <c r="M39" s="221">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="242">
+      <c r="N39" s="223">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -9504,8 +9513,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="241"/>
-      <c r="N40" s="243"/>
+      <c r="M40" s="222"/>
+      <c r="N40" s="224"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9720,29 +9729,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="228" t="s">
+      <c r="H52" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="229"/>
+      <c r="I52" s="246"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="230">
+      <c r="K52" s="247">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="231"/>
-      <c r="M52" s="219">
+      <c r="L52" s="248"/>
+      <c r="M52" s="236">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="220"/>
+      <c r="N52" s="237"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="232" t="s">
+      <c r="D53" s="249" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="232"/>
+      <c r="E53" s="249"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -9753,22 +9762,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="233" t="s">
+      <c r="D54" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="233"/>
+      <c r="E54" s="250"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="234" t="s">
+      <c r="I54" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="235"/>
-      <c r="K54" s="236">
+      <c r="J54" s="252"/>
+      <c r="K54" s="253">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="237"/>
+      <c r="L54" s="254"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9799,11 +9808,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="221">
+      <c r="K56" s="238">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="222"/>
+      <c r="L56" s="239"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -9820,22 +9829,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="223" t="s">
+      <c r="D58" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="224"/>
+      <c r="E58" s="241"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="225" t="s">
+      <c r="I58" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="226"/>
-      <c r="K58" s="227">
+      <c r="J58" s="243"/>
+      <c r="K58" s="244">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="227"/>
+      <c r="L58" s="244"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -9979,12 +9988,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -9999,6 +10002,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11595,8 +11604,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11618,23 +11627,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="244"/>
-      <c r="C1" s="253" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="234" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="245"/>
+      <c r="B2" s="226"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -11644,17 +11653,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="246" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="247"/>
+      <c r="B3" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="228"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="248" t="s">
+      <c r="H3" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="248"/>
+      <c r="I3" s="229"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -11670,14 +11679,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="249" t="s">
+      <c r="E4" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="250"/>
-      <c r="H4" s="251" t="s">
+      <c r="F4" s="231"/>
+      <c r="H4" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="252"/>
+      <c r="I4" s="233"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -11687,10 +11696,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="238" t="s">
+      <c r="P4" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="239"/>
+      <c r="Q4" s="220"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -12077,7 +12086,9 @@
       <c r="F13" s="25">
         <v>48834</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="H13" s="32">
         <v>44481</v>
       </c>
@@ -12243,7 +12254,7 @@
         <v>6242</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E17" s="24">
         <v>44485</v>
@@ -12262,7 +12273,7 @@
         <v>44485</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L17" s="43">
         <v>12019</v>
@@ -12290,36 +12301,41 @@
         <v>44486</v>
       </c>
       <c r="C18" s="22">
-        <v>0</v>
-      </c>
-      <c r="D18" s="31"/>
+        <v>214</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="E18" s="24">
         <v>44486</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="25">
+        <v>89324</v>
+      </c>
       <c r="G18" s="26"/>
       <c r="H18" s="32">
         <v>44486</v>
       </c>
       <c r="I18" s="28">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="47"/>
       <c r="L18" s="35"/>
       <c r="M18" s="138">
-        <v>0</v>
+        <f>19690+65000</f>
+        <v>84690</v>
       </c>
       <c r="N18" s="30">
-        <v>0</v>
+        <v>4413</v>
       </c>
       <c r="P18" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89324.5</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R18" s="26"/>
     </row>
@@ -12335,26 +12351,29 @@
       <c r="E19" s="24">
         <v>44487</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="25">
+        <v>57179</v>
+      </c>
       <c r="G19" s="26"/>
       <c r="H19" s="32">
         <v>44487</v>
       </c>
       <c r="I19" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="48"/>
       <c r="L19" s="49"/>
       <c r="M19" s="138">
-        <v>0</v>
+        <f>22800+34369</f>
+        <v>57169</v>
       </c>
       <c r="N19" s="30">
         <v>0</v>
       </c>
       <c r="P19" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57179</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="1"/>
@@ -12374,26 +12393,29 @@
       <c r="E20" s="24">
         <v>44488</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="25">
+        <v>49927</v>
+      </c>
       <c r="G20" s="26"/>
       <c r="H20" s="32">
         <v>44488</v>
       </c>
       <c r="I20" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="50"/>
       <c r="L20" s="43"/>
       <c r="M20" s="138">
-        <v>0</v>
+        <f>15000+31972</f>
+        <v>46972</v>
       </c>
       <c r="N20" s="30">
-        <v>0</v>
+        <v>2945</v>
       </c>
       <c r="P20" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49927</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="1"/>
@@ -12407,32 +12429,37 @@
         <v>44489</v>
       </c>
       <c r="C21" s="22">
-        <v>0</v>
-      </c>
-      <c r="D21" s="31"/>
+        <v>5743</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>196</v>
+      </c>
       <c r="E21" s="24">
         <v>44489</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25">
+        <v>33425</v>
+      </c>
       <c r="G21" s="26"/>
       <c r="H21" s="32">
         <v>44489</v>
       </c>
       <c r="I21" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="178"/>
       <c r="L21" s="43"/>
       <c r="M21" s="138">
-        <v>0</v>
+        <f>10000+17627</f>
+        <v>27627</v>
       </c>
       <c r="N21" s="30">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33425</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="1"/>
@@ -12452,30 +12479,32 @@
       <c r="E22" s="24">
         <v>44490</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="25">
+        <v>35561</v>
+      </c>
       <c r="G22" s="26"/>
       <c r="H22" s="32">
         <v>44490</v>
       </c>
       <c r="I22" s="28">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="51"/>
       <c r="L22" s="52"/>
       <c r="M22" s="138">
-        <v>0</v>
+        <f>10000+23676</f>
+        <v>33676</v>
       </c>
       <c r="N22" s="30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35561</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="26"/>
     </row>
@@ -12485,32 +12514,37 @@
         <v>44491</v>
       </c>
       <c r="C23" s="22">
-        <v>0</v>
-      </c>
-      <c r="D23" s="31"/>
+        <v>1612</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>199</v>
+      </c>
       <c r="E23" s="24">
         <v>44491</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="25">
+        <v>97455</v>
+      </c>
       <c r="G23" s="26"/>
       <c r="H23" s="32">
         <v>44491</v>
       </c>
       <c r="I23" s="28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J23" s="53"/>
       <c r="K23" s="54"/>
       <c r="L23" s="43"/>
       <c r="M23" s="138">
-        <v>0</v>
+        <f>30000+45000+18535</f>
+        <v>93535</v>
       </c>
       <c r="N23" s="30">
-        <v>0</v>
+        <v>2288</v>
       </c>
       <c r="P23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97455</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="1"/>
@@ -13069,21 +13103,21 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="240">
+      <c r="M39" s="221">
         <f>SUM(M5:M38)</f>
-        <v>675038</v>
-      </c>
-      <c r="N39" s="242">
+        <v>1018707</v>
+      </c>
+      <c r="N39" s="223">
         <f>SUM(N5:N38)</f>
-        <v>22988</v>
+        <v>33674</v>
       </c>
       <c r="P39" s="83">
         <f>SUM(P5:P38)</f>
-        <v>740792</v>
+        <v>1103663.5</v>
       </c>
       <c r="Q39" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>5720</v>
+        <v>5720.5</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13099,8 +13133,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="241"/>
-      <c r="N40" s="243"/>
+      <c r="M40" s="222"/>
+      <c r="N40" s="224"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13273,7 +13307,7 @@
       </c>
       <c r="C50" s="93">
         <f>SUM(C5:C49)</f>
-        <v>14361</v>
+        <v>21930</v>
       </c>
       <c r="D50" s="94"/>
       <c r="E50" s="95" t="s">
@@ -13281,7 +13315,7 @@
       </c>
       <c r="F50" s="96">
         <f>SUM(F5:F49)</f>
-        <v>735072</v>
+        <v>1097943</v>
       </c>
       <c r="G50" s="94"/>
       <c r="H50" s="97" t="s">
@@ -13289,7 +13323,7 @@
       </c>
       <c r="I50" s="98">
         <f>SUM(I5:I49)</f>
-        <v>172</v>
+        <v>1119.5</v>
       </c>
       <c r="J50" s="99"/>
       <c r="K50" s="100" t="s">
@@ -13315,32 +13349,32 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="228" t="s">
+      <c r="H52" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="229"/>
+      <c r="I52" s="246"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="230">
+      <c r="K52" s="247">
         <f>I50+L50</f>
-        <v>28405</v>
-      </c>
-      <c r="L52" s="231"/>
-      <c r="M52" s="219">
+        <v>29352.5</v>
+      </c>
+      <c r="L52" s="248"/>
+      <c r="M52" s="236">
         <f>N39+M39</f>
-        <v>698026</v>
-      </c>
-      <c r="N52" s="220"/>
+        <v>1052381</v>
+      </c>
+      <c r="N52" s="237"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="232" t="s">
+      <c r="D53" s="249" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="232"/>
+      <c r="E53" s="249"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
-        <v>692306</v>
+        <v>1046660.5</v>
       </c>
       <c r="I53" s="108"/>
       <c r="J53" s="109"/>
@@ -13348,22 +13382,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="233" t="s">
+      <c r="D54" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="233"/>
+      <c r="E54" s="250"/>
       <c r="F54" s="102">
         <v>0</v>
       </c>
-      <c r="I54" s="234" t="s">
+      <c r="I54" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="235"/>
-      <c r="K54" s="236">
+      <c r="J54" s="252"/>
+      <c r="K54" s="253">
         <f>F56+F57+F58</f>
-        <v>692306</v>
-      </c>
-      <c r="L54" s="237"/>
+        <v>1046660.5</v>
+      </c>
+      <c r="L54" s="254"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13387,18 +13421,18 @@
       </c>
       <c r="F56" s="102">
         <f>SUM(F53:F55)</f>
-        <v>692306</v>
+        <v>1046660.5</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="221">
+      <c r="K56" s="238">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L56" s="222"/>
+      <c r="L56" s="239"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -13415,22 +13449,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="223" t="s">
+      <c r="D58" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="224"/>
+      <c r="E58" s="241"/>
       <c r="F58" s="121">
         <v>0</v>
       </c>
-      <c r="I58" s="225" t="s">
+      <c r="I58" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="226"/>
-      <c r="K58" s="227">
+      <c r="J58" s="243"/>
+      <c r="K58" s="244">
         <f>K54+K56</f>
-        <v>557457.11</v>
-      </c>
-      <c r="L58" s="227"/>
+        <v>911811.61</v>
+      </c>
+      <c r="L58" s="244"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -13574,12 +13608,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13594,6 +13622,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.16" top="0.3" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14939,7 +14973,7 @@
   <dimension ref="A23:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14971,22 +15005,22 @@
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="169">
-        <v>44485</v>
+        <v>44490</v>
       </c>
       <c r="B46" s="170" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C46" s="171">
-        <v>654.9</v>
+        <v>1684.95</v>
       </c>
       <c r="D46" s="172" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="173" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F46" s="107">
-        <v>249</v>
+        <v>485</v>
       </c>
       <c r="G46" s="210"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="206">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -780,31 +780,49 @@
     <t>QUESO-PAPA-JAMON-</t>
   </si>
   <si>
+    <t>SALCHICHA</t>
+  </si>
+  <si>
+    <t>TOCINO-RETAZO-MAIZ-QUESO-JAMON</t>
+  </si>
+  <si>
+    <t>NOMINA # 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESO  </t>
+  </si>
+  <si>
+    <t>JAMON-SALCHICHA-QUESO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>PAPA-CECINA-TOCINO-ADOBO-QUESO</t>
+  </si>
+  <si>
+    <t>TOSTADAS-CECINA-MAIZ-JAMON</t>
+  </si>
+  <si>
+    <t>NOMINA # 43</t>
+  </si>
+  <si>
+    <t>CEBOLLA-PEREJIL</t>
+  </si>
+  <si>
+    <t>CHORIZO</t>
+  </si>
+  <si>
     <t xml:space="preserve"># </t>
   </si>
   <si>
-    <t>SALCHICHA</t>
-  </si>
-  <si>
-    <t>TOCINO-RETAZO-MAIZ-QUESO-JAMON</t>
-  </si>
-  <si>
-    <t>NOMINA # 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUESO  </t>
-  </si>
-  <si>
-    <t>JAMON-SALCHICHA-QUESO-LONGANIZA</t>
-  </si>
-  <si>
-    <t># 6661</t>
-  </si>
-  <si>
-    <t>#  6662</t>
-  </si>
-  <si>
-    <t>PAPA-CECINA-TOCINO-ADOBO-QUESO</t>
+    <t># 7438</t>
+  </si>
+  <si>
+    <t>#  7439</t>
+  </si>
+  <si>
+    <t># 7454</t>
+  </si>
+  <si>
+    <t>#  7455</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -2270,7 +2288,6 @@
     <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1"/>
@@ -4093,23 +4110,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="225"/>
-      <c r="C1" s="234" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="226"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4119,17 +4136,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="228"/>
+      <c r="B3" s="226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="227"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="229" t="s">
+      <c r="H3" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="229"/>
+      <c r="I3" s="228"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4145,14 +4162,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="230" t="s">
+      <c r="E4" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="H4" s="232" t="s">
+      <c r="F4" s="230"/>
+      <c r="H4" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="233"/>
+      <c r="I4" s="232"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4162,10 +4179,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="219" t="s">
+      <c r="P4" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="220"/>
+      <c r="Q4" s="219"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -4561,11 +4578,11 @@
         <f t="shared" si="0"/>
         <v>85810</v>
       </c>
-      <c r="Q13" s="175">
+      <c r="Q13" s="174">
         <f t="shared" si="1"/>
         <v>-5426</v>
       </c>
-      <c r="R13" s="177" t="s">
+      <c r="R13" s="176" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4605,11 +4622,11 @@
         <f t="shared" si="0"/>
         <v>63004</v>
       </c>
-      <c r="Q14" s="176">
+      <c r="Q14" s="175">
         <f t="shared" si="1"/>
         <v>5426</v>
       </c>
-      <c r="R14" s="177" t="s">
+      <c r="R14" s="176" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4898,7 +4915,7 @@
         <v>42</v>
       </c>
       <c r="J21" s="33"/>
-      <c r="K21" s="178" t="s">
+      <c r="K21" s="177" t="s">
         <v>30</v>
       </c>
       <c r="L21" s="43">
@@ -5124,7 +5141,7 @@
         <f t="shared" si="0"/>
         <v>92849</v>
       </c>
-      <c r="Q26" s="184">
+      <c r="Q26" s="183">
         <f t="shared" si="1"/>
         <v>3146</v>
       </c>
@@ -5464,7 +5481,7 @@
       <c r="J34" s="67">
         <v>44443</v>
       </c>
-      <c r="K34" s="185" t="s">
+      <c r="K34" s="184" t="s">
         <v>105</v>
       </c>
       <c r="L34" s="76">
@@ -5582,7 +5599,7 @@
       <c r="J37" s="67">
         <v>44431</v>
       </c>
-      <c r="K37" s="179" t="s">
+      <c r="K37" s="178" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="76">
@@ -5660,11 +5677,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="221">
+      <c r="M39" s="220">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="223">
+      <c r="N39" s="222">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -5696,8 +5713,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="222"/>
-      <c r="N40" s="224"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="223"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5705,23 +5722,23 @@
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="84"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="197"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="196"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="198"/>
+      <c r="H41" s="197"/>
       <c r="I41" s="85"/>
       <c r="J41" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="K41" s="206" t="s">
+      <c r="K41" s="205" t="s">
         <v>113</v>
       </c>
       <c r="L41" s="75">
         <v>7174.1</v>
       </c>
-      <c r="M41" s="200"/>
-      <c r="N41" s="199"/>
+      <c r="M41" s="199"/>
+      <c r="N41" s="198"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -5729,11 +5746,11 @@
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="84"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="197"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="198"/>
+      <c r="H42" s="197"/>
       <c r="I42" s="85"/>
       <c r="J42" s="67" t="s">
         <v>108</v>
@@ -5744,8 +5761,8 @@
       <c r="L42" s="75">
         <v>2552</v>
       </c>
-      <c r="M42" s="200"/>
-      <c r="N42" s="199"/>
+      <c r="M42" s="199"/>
+      <c r="N42" s="198"/>
       <c r="P42" s="83"/>
       <c r="Q42" s="9"/>
     </row>
@@ -5753,11 +5770,11 @@
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="84"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="197"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="196"/>
       <c r="G43" s="26"/>
-      <c r="H43" s="198"/>
+      <c r="H43" s="197"/>
       <c r="I43" s="85"/>
       <c r="J43" s="67" t="s">
         <v>108</v>
@@ -5768,8 +5785,8 @@
       <c r="L43" s="75">
         <v>6994</v>
       </c>
-      <c r="M43" s="200"/>
-      <c r="N43" s="199"/>
+      <c r="M43" s="199"/>
+      <c r="N43" s="198"/>
       <c r="P43" s="83"/>
       <c r="Q43" s="9"/>
     </row>
@@ -5777,17 +5794,17 @@
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="84"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="197"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
       <c r="G44" s="26"/>
-      <c r="H44" s="198"/>
+      <c r="H44" s="197"/>
       <c r="I44" s="85"/>
       <c r="J44" s="67"/>
       <c r="K44" s="71"/>
       <c r="L44" s="75"/>
-      <c r="M44" s="200"/>
-      <c r="N44" s="199"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="198"/>
       <c r="P44" s="83"/>
       <c r="Q44" s="9"/>
     </row>
@@ -5795,17 +5812,17 @@
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="84"/>
-      <c r="D45" s="195"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="197"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="196"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="198"/>
+      <c r="H45" s="197"/>
       <c r="I45" s="85"/>
       <c r="J45" s="67"/>
       <c r="K45" s="71"/>
       <c r="L45" s="75"/>
-      <c r="M45" s="200"/>
-      <c r="N45" s="199"/>
+      <c r="M45" s="199"/>
+      <c r="N45" s="198"/>
       <c r="P45" s="83"/>
       <c r="Q45" s="9"/>
     </row>
@@ -5813,17 +5830,17 @@
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="84"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="197"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
       <c r="G46" s="26"/>
-      <c r="H46" s="198"/>
+      <c r="H46" s="197"/>
       <c r="I46" s="85"/>
       <c r="J46" s="67"/>
       <c r="K46" s="71"/>
       <c r="L46" s="75"/>
-      <c r="M46" s="200"/>
-      <c r="N46" s="199"/>
+      <c r="M46" s="199"/>
+      <c r="N46" s="198"/>
       <c r="P46" s="83"/>
       <c r="Q46" s="9"/>
     </row>
@@ -5831,17 +5848,17 @@
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="84"/>
-      <c r="D47" s="195"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="197"/>
+      <c r="D47" s="194"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="196"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="198"/>
+      <c r="H47" s="197"/>
       <c r="I47" s="85"/>
       <c r="J47" s="67"/>
       <c r="K47" s="71"/>
       <c r="L47" s="75"/>
-      <c r="M47" s="200"/>
-      <c r="N47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="198"/>
       <c r="P47" s="83"/>
       <c r="Q47" s="9"/>
     </row>
@@ -5849,17 +5866,17 @@
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="84"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="197"/>
+      <c r="D48" s="194"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="198"/>
+      <c r="H48" s="197"/>
       <c r="I48" s="85"/>
       <c r="J48" s="67"/>
       <c r="K48" s="71"/>
       <c r="L48" s="75"/>
-      <c r="M48" s="200"/>
-      <c r="N48" s="199"/>
+      <c r="M48" s="199"/>
+      <c r="N48" s="198"/>
       <c r="P48" s="83"/>
       <c r="Q48" s="9"/>
     </row>
@@ -5874,7 +5891,7 @@
       <c r="F49" s="84"/>
       <c r="H49" s="91"/>
       <c r="I49" s="85"/>
-      <c r="J49" s="201"/>
+      <c r="J49" s="200"/>
       <c r="K49" s="86"/>
       <c r="L49" s="9"/>
       <c r="M49" s="87"/>
@@ -5930,29 +5947,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="245" t="s">
+      <c r="H52" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="246"/>
+      <c r="I52" s="245"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="247">
+      <c r="K52" s="246">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="248"/>
-      <c r="M52" s="236">
+      <c r="L52" s="247"/>
+      <c r="M52" s="235">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="237"/>
+      <c r="N52" s="236"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="249" t="s">
+      <c r="D53" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="249"/>
+      <c r="E53" s="248"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -5963,22 +5980,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="250" t="s">
+      <c r="D54" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="250"/>
+      <c r="E54" s="249"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="251" t="s">
+      <c r="I54" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="252"/>
-      <c r="K54" s="253">
+      <c r="J54" s="251"/>
+      <c r="K54" s="252">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="254"/>
+      <c r="L54" s="253"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6009,10 +6026,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="238">
-        <v>0</v>
-      </c>
-      <c r="L56" s="239"/>
+      <c r="K56" s="237">
+        <v>0</v>
+      </c>
+      <c r="L56" s="238"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6029,22 +6046,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="240" t="s">
+      <c r="D58" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="241"/>
+      <c r="E58" s="240"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="242" t="s">
+      <c r="I58" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="243"/>
-      <c r="K58" s="244">
+      <c r="J58" s="242"/>
+      <c r="K58" s="243">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="244"/>
+      <c r="L58" s="243"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6054,20 +6071,20 @@
       <c r="J59" s="126"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="193"/>
-      <c r="J60" s="193"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="194"/>
+      <c r="I60" s="192"/>
+      <c r="J60" s="192"/>
+      <c r="K60" s="193"/>
+      <c r="L60" s="193"/>
     </row>
     <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="127"/>
       <c r="C61" s="128"/>
       <c r="D61" s="129"/>
       <c r="E61" s="83"/>
-      <c r="I61" s="193"/>
-      <c r="J61" s="193"/>
-      <c r="K61" s="194"/>
-      <c r="L61" s="194"/>
+      <c r="I61" s="192"/>
+      <c r="J61" s="192"/>
+      <c r="K61" s="193"/>
+      <c r="L61" s="193"/>
       <c r="M61" s="1"/>
       <c r="N61" s="104"/>
     </row>
@@ -6273,13 +6290,13 @@
       <c r="A3" s="141">
         <v>44422</v>
       </c>
-      <c r="B3" s="180">
+      <c r="B3" s="179">
         <v>2232</v>
       </c>
       <c r="C3" s="35">
         <v>3015.96</v>
       </c>
-      <c r="D3" s="255" t="s">
+      <c r="D3" s="254" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="9"/>
@@ -6292,14 +6309,14 @@
       <c r="A4" s="141">
         <v>44422</v>
       </c>
-      <c r="B4" s="180">
+      <c r="B4" s="179">
         <v>2233</v>
       </c>
       <c r="C4" s="35">
         <v>10281</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="181"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="180"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
         <v>13296.96</v>
@@ -6310,14 +6327,14 @@
       <c r="A5" s="141">
         <v>44422</v>
       </c>
-      <c r="B5" s="180">
+      <c r="B5" s="179">
         <v>2234</v>
       </c>
       <c r="C5" s="35">
         <v>12746.2</v>
       </c>
-      <c r="D5" s="256"/>
-      <c r="E5" s="181"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="180"/>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>26043.16</v>
@@ -6327,14 +6344,14 @@
       <c r="A6" s="141">
         <v>44422</v>
       </c>
-      <c r="B6" s="180">
+      <c r="B6" s="179">
         <v>2235</v>
       </c>
       <c r="C6" s="35">
         <v>28974.78</v>
       </c>
-      <c r="D6" s="256"/>
-      <c r="E6" s="181"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="180"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
         <v>55017.94</v>
@@ -6344,14 +6361,14 @@
       <c r="A7" s="141">
         <v>44422</v>
       </c>
-      <c r="B7" s="180">
+      <c r="B7" s="179">
         <v>2236</v>
       </c>
       <c r="C7" s="35">
         <v>44758.6</v>
       </c>
-      <c r="D7" s="256"/>
-      <c r="E7" s="181"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="180"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
         <v>99776.540000000008</v>
@@ -6361,14 +6378,14 @@
       <c r="A8" s="141">
         <v>44422</v>
       </c>
-      <c r="B8" s="180">
+      <c r="B8" s="179">
         <v>2237</v>
       </c>
       <c r="C8" s="35">
         <v>12841.78</v>
       </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="181"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="180"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
         <v>112618.32</v>
@@ -6378,14 +6395,14 @@
       <c r="A9" s="141">
         <v>44422</v>
       </c>
-      <c r="B9" s="180">
+      <c r="B9" s="179">
         <v>2238</v>
       </c>
       <c r="C9" s="35">
         <v>3898.05</v>
       </c>
-      <c r="D9" s="256"/>
-      <c r="E9" s="181"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="180"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
         <v>116516.37000000001</v>
@@ -6395,14 +6412,14 @@
       <c r="A10" s="141">
         <v>44422</v>
       </c>
-      <c r="B10" s="180">
+      <c r="B10" s="179">
         <v>2239</v>
       </c>
       <c r="C10" s="35">
         <v>1429</v>
       </c>
-      <c r="D10" s="257"/>
-      <c r="E10" s="181"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="180"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
         <v>117945.37000000001</v>
@@ -6413,7 +6430,7 @@
       <c r="A11" s="141"/>
       <c r="B11" s="142"/>
       <c r="C11" s="79"/>
-      <c r="D11" s="182">
+      <c r="D11" s="181">
         <v>44428</v>
       </c>
       <c r="E11" s="79">
@@ -6559,7 +6576,7 @@
       <c r="E19" s="79">
         <v>216899.43</v>
       </c>
-      <c r="F19" s="183">
+      <c r="F19" s="182">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
@@ -6700,7 +6717,7 @@
       <c r="E27" s="79">
         <v>235944.57</v>
       </c>
-      <c r="F27" s="183">
+      <c r="F27" s="182">
         <f t="shared" si="0"/>
         <v>30024.739999999991</v>
       </c>
@@ -7288,9 +7305,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="189"/>
-      <c r="B63" s="186"/>
-      <c r="C63" s="187"/>
+      <c r="A63" s="188"/>
+      <c r="B63" s="185"/>
+      <c r="C63" s="186"/>
       <c r="D63" s="144"/>
       <c r="E63" s="79"/>
       <c r="F63" s="145">
@@ -7299,9 +7316,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="189"/>
-      <c r="B64" s="186"/>
-      <c r="C64" s="187"/>
+      <c r="A64" s="188"/>
+      <c r="B64" s="185"/>
+      <c r="C64" s="186"/>
       <c r="D64" s="144"/>
       <c r="E64" s="79"/>
       <c r="F64" s="145">
@@ -7310,9 +7327,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="189"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="187"/>
+      <c r="A65" s="188"/>
+      <c r="B65" s="185"/>
+      <c r="C65" s="186"/>
       <c r="D65" s="144"/>
       <c r="E65" s="79"/>
       <c r="F65" s="145">
@@ -7321,9 +7338,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="189"/>
-      <c r="B66" s="186"/>
-      <c r="C66" s="187"/>
+      <c r="A66" s="188"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="186"/>
       <c r="D66" s="144"/>
       <c r="E66" s="79"/>
       <c r="F66" s="145">
@@ -7332,9 +7349,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="189"/>
-      <c r="B67" s="186"/>
-      <c r="C67" s="187"/>
+      <c r="A67" s="188"/>
+      <c r="B67" s="185"/>
+      <c r="C67" s="186"/>
       <c r="D67" s="144"/>
       <c r="E67" s="79"/>
       <c r="F67" s="145">
@@ -7343,9 +7360,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="189"/>
-      <c r="B68" s="186"/>
-      <c r="C68" s="187"/>
+      <c r="A68" s="188"/>
+      <c r="B68" s="185"/>
+      <c r="C68" s="186"/>
       <c r="D68" s="144"/>
       <c r="E68" s="79"/>
       <c r="F68" s="145">
@@ -7354,9 +7371,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="189"/>
-      <c r="B69" s="186"/>
-      <c r="C69" s="187"/>
+      <c r="A69" s="188"/>
+      <c r="B69" s="185"/>
+      <c r="C69" s="186"/>
       <c r="D69" s="144"/>
       <c r="E69" s="79"/>
       <c r="F69" s="145">
@@ -7365,9 +7382,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="189"/>
-      <c r="B70" s="186"/>
-      <c r="C70" s="187"/>
+      <c r="A70" s="188"/>
+      <c r="B70" s="185"/>
+      <c r="C70" s="186"/>
       <c r="D70" s="144"/>
       <c r="E70" s="79"/>
       <c r="F70" s="145">
@@ -7376,9 +7393,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="189"/>
-      <c r="B71" s="186"/>
-      <c r="C71" s="187"/>
+      <c r="A71" s="188"/>
+      <c r="B71" s="185"/>
+      <c r="C71" s="186"/>
       <c r="D71" s="144"/>
       <c r="E71" s="79"/>
       <c r="F71" s="145">
@@ -7387,9 +7404,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="189"/>
-      <c r="B72" s="186"/>
-      <c r="C72" s="187"/>
+      <c r="A72" s="188"/>
+      <c r="B72" s="185"/>
+      <c r="C72" s="186"/>
       <c r="D72" s="144"/>
       <c r="E72" s="79"/>
       <c r="F72" s="145">
@@ -7398,9 +7415,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="189"/>
-      <c r="B73" s="186"/>
-      <c r="C73" s="187"/>
+      <c r="A73" s="188"/>
+      <c r="B73" s="185"/>
+      <c r="C73" s="186"/>
       <c r="D73" s="144"/>
       <c r="E73" s="79"/>
       <c r="F73" s="145">
@@ -7409,9 +7426,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="189"/>
-      <c r="B74" s="186"/>
-      <c r="C74" s="187"/>
+      <c r="A74" s="188"/>
+      <c r="B74" s="185"/>
+      <c r="C74" s="186"/>
       <c r="D74" s="144"/>
       <c r="E74" s="79"/>
       <c r="F74" s="145">
@@ -7420,9 +7437,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="189"/>
-      <c r="B75" s="186"/>
-      <c r="C75" s="187"/>
+      <c r="A75" s="188"/>
+      <c r="B75" s="185"/>
+      <c r="C75" s="186"/>
       <c r="D75" s="144"/>
       <c r="E75" s="79"/>
       <c r="F75" s="145">
@@ -7431,9 +7448,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="189"/>
-      <c r="B76" s="186"/>
-      <c r="C76" s="187"/>
+      <c r="A76" s="188"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="186"/>
       <c r="D76" s="144"/>
       <c r="E76" s="79"/>
       <c r="F76" s="145">
@@ -7442,9 +7459,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="189"/>
-      <c r="B77" s="186"/>
-      <c r="C77" s="187"/>
+      <c r="A77" s="188"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="186"/>
       <c r="D77" s="144"/>
       <c r="E77" s="79"/>
       <c r="F77" s="145">
@@ -7453,9 +7470,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="189"/>
-      <c r="B78" s="186"/>
-      <c r="C78" s="187"/>
+      <c r="A78" s="188"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="186"/>
       <c r="D78" s="144"/>
       <c r="E78" s="79"/>
       <c r="F78" s="145">
@@ -7464,9 +7481,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="189"/>
-      <c r="B79" s="186"/>
-      <c r="C79" s="187"/>
+      <c r="A79" s="188"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="186"/>
       <c r="D79" s="144"/>
       <c r="E79" s="79"/>
       <c r="F79" s="145">
@@ -7475,9 +7492,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="189"/>
-      <c r="B80" s="186"/>
-      <c r="C80" s="187"/>
+      <c r="A80" s="188"/>
+      <c r="B80" s="185"/>
+      <c r="C80" s="186"/>
       <c r="D80" s="144"/>
       <c r="E80" s="79"/>
       <c r="F80" s="145">
@@ -7486,9 +7503,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="190"/>
-      <c r="B81" s="191"/>
-      <c r="C81" s="192"/>
+      <c r="A81" s="189"/>
+      <c r="B81" s="190"/>
+      <c r="C81" s="191"/>
       <c r="D81" s="147"/>
       <c r="E81" s="83"/>
       <c r="F81" s="145">
@@ -7497,9 +7514,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="190"/>
-      <c r="B82" s="191"/>
-      <c r="C82" s="192"/>
+      <c r="A82" s="189"/>
+      <c r="B82" s="190"/>
+      <c r="C82" s="191"/>
       <c r="D82" s="147"/>
       <c r="E82" s="83"/>
       <c r="F82" s="145">
@@ -7508,9 +7525,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="190"/>
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
+      <c r="A83" s="189"/>
+      <c r="B83" s="190"/>
+      <c r="C83" s="191"/>
       <c r="D83" s="147"/>
       <c r="E83" s="83"/>
       <c r="F83" s="145">
@@ -7519,9 +7536,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="190"/>
-      <c r="B84" s="191"/>
-      <c r="C84" s="192"/>
+      <c r="A84" s="189"/>
+      <c r="B84" s="190"/>
+      <c r="C84" s="191"/>
       <c r="D84" s="147"/>
       <c r="E84" s="83"/>
       <c r="F84" s="145">
@@ -7530,9 +7547,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="190"/>
-      <c r="B85" s="191"/>
-      <c r="C85" s="192"/>
+      <c r="A85" s="189"/>
+      <c r="B85" s="190"/>
+      <c r="C85" s="191"/>
       <c r="D85" s="147"/>
       <c r="E85" s="83"/>
       <c r="F85" s="145">
@@ -7541,9 +7558,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="190"/>
-      <c r="B86" s="191"/>
-      <c r="C86" s="192"/>
+      <c r="A86" s="189"/>
+      <c r="B86" s="190"/>
+      <c r="C86" s="191"/>
       <c r="D86" s="147"/>
       <c r="E86" s="83"/>
       <c r="F86" s="145">
@@ -7552,9 +7569,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="189"/>
-      <c r="B87" s="186"/>
-      <c r="C87" s="187"/>
+      <c r="A87" s="188"/>
+      <c r="B87" s="185"/>
+      <c r="C87" s="186"/>
       <c r="D87" s="148"/>
       <c r="E87" s="79"/>
       <c r="F87" s="145">
@@ -7563,9 +7580,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="189"/>
-      <c r="B88" s="186"/>
-      <c r="C88" s="187"/>
+      <c r="A88" s="188"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="186"/>
       <c r="D88" s="148"/>
       <c r="E88" s="79"/>
       <c r="F88" s="145">
@@ -7574,9 +7591,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="189"/>
-      <c r="B89" s="186"/>
-      <c r="C89" s="187"/>
+      <c r="A89" s="188"/>
+      <c r="B89" s="185"/>
+      <c r="C89" s="186"/>
       <c r="D89" s="148"/>
       <c r="E89" s="79"/>
       <c r="F89" s="145">
@@ -7585,9 +7602,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="189"/>
-      <c r="B90" s="186"/>
-      <c r="C90" s="187"/>
+      <c r="A90" s="188"/>
+      <c r="B90" s="185"/>
+      <c r="C90" s="186"/>
       <c r="D90" s="148"/>
       <c r="E90" s="79"/>
       <c r="F90" s="145">
@@ -7596,9 +7613,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="189"/>
-      <c r="B91" s="186"/>
-      <c r="C91" s="187"/>
+      <c r="A91" s="188"/>
+      <c r="B91" s="185"/>
+      <c r="C91" s="186"/>
       <c r="D91" s="148"/>
       <c r="E91" s="79"/>
       <c r="F91" s="145">
@@ -7607,9 +7624,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="189"/>
-      <c r="B92" s="186"/>
-      <c r="C92" s="187"/>
+      <c r="A92" s="188"/>
+      <c r="B92" s="185"/>
+      <c r="C92" s="186"/>
       <c r="D92" s="148"/>
       <c r="E92" s="79"/>
       <c r="F92" s="145">
@@ -7618,9 +7635,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="189"/>
-      <c r="B93" s="186"/>
-      <c r="C93" s="187"/>
+      <c r="A93" s="188"/>
+      <c r="B93" s="185"/>
+      <c r="C93" s="186"/>
       <c r="D93" s="148"/>
       <c r="E93" s="79"/>
       <c r="F93" s="145">
@@ -7629,9 +7646,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="189"/>
-      <c r="B94" s="186"/>
-      <c r="C94" s="187"/>
+      <c r="A94" s="188"/>
+      <c r="B94" s="185"/>
+      <c r="C94" s="186"/>
       <c r="D94" s="148"/>
       <c r="E94" s="79"/>
       <c r="F94" s="145">
@@ -7640,9 +7657,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="189"/>
-      <c r="B95" s="186"/>
-      <c r="C95" s="187"/>
+      <c r="A95" s="188"/>
+      <c r="B95" s="185"/>
+      <c r="C95" s="186"/>
       <c r="D95" s="148"/>
       <c r="E95" s="79"/>
       <c r="F95" s="145">
@@ -7651,9 +7668,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="189"/>
-      <c r="B96" s="186"/>
-      <c r="C96" s="187"/>
+      <c r="A96" s="188"/>
+      <c r="B96" s="185"/>
+      <c r="C96" s="186"/>
       <c r="D96" s="148"/>
       <c r="E96" s="79"/>
       <c r="F96" s="145">
@@ -7921,23 +7938,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="225"/>
-      <c r="C1" s="234" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="226"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -7947,17 +7964,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="228"/>
+      <c r="B3" s="226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="227"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="229" t="s">
+      <c r="H3" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="229"/>
+      <c r="I3" s="228"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -7973,14 +7990,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="230" t="s">
+      <c r="E4" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="H4" s="232" t="s">
+      <c r="F4" s="230"/>
+      <c r="H4" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="233"/>
+      <c r="I4" s="232"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -7990,10 +8007,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="219" t="s">
+      <c r="P4" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="220"/>
+      <c r="Q4" s="219"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -8159,12 +8176,12 @@
       <c r="N8" s="30">
         <v>4257</v>
       </c>
-      <c r="O8" s="207"/>
+      <c r="O8" s="206"/>
       <c r="P8" s="83">
         <f t="shared" si="0"/>
         <v>50471</v>
       </c>
-      <c r="Q8" s="213">
+      <c r="Q8" s="212">
         <f t="shared" si="1"/>
         <v>-40</v>
       </c>
@@ -8338,12 +8355,12 @@
       <c r="N12" s="30">
         <v>2198</v>
       </c>
-      <c r="O12" s="208"/>
+      <c r="O12" s="207"/>
       <c r="P12" s="83">
         <f t="shared" si="0"/>
         <v>46630</v>
       </c>
-      <c r="Q12" s="184">
+      <c r="Q12" s="183">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -8391,7 +8408,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="205"/>
+      <c r="R13" s="204"/>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
@@ -8435,7 +8452,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R14" s="205"/>
+      <c r="R14" s="204"/>
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
@@ -8726,7 +8743,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="33"/>
-      <c r="K21" s="178"/>
+      <c r="K21" s="177"/>
       <c r="L21" s="43"/>
       <c r="M21" s="138">
         <f>20000+20650</f>
@@ -8970,7 +8987,7 @@
         <f t="shared" si="0"/>
         <v>50963.5</v>
       </c>
-      <c r="Q26" s="211">
+      <c r="Q26" s="210">
         <f t="shared" si="1"/>
         <v>159.5</v>
       </c>
@@ -9056,7 +9073,7 @@
         <f t="shared" si="0"/>
         <v>35889</v>
       </c>
-      <c r="Q28" s="212">
+      <c r="Q28" s="211">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
@@ -9194,7 +9211,7 @@
         <f t="shared" si="0"/>
         <v>87027</v>
       </c>
-      <c r="Q31" s="212">
+      <c r="Q31" s="211">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
@@ -9297,7 +9314,7 @@
       <c r="J34" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="K34" s="214" t="s">
+      <c r="K34" s="213" t="s">
         <v>183</v>
       </c>
       <c r="L34" s="76">
@@ -9337,7 +9354,7 @@
       <c r="J35" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="215" t="s">
+      <c r="K35" s="214" t="s">
         <v>183</v>
       </c>
       <c r="L35" s="75">
@@ -9417,7 +9434,7 @@
       <c r="J37" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="K37" s="185" t="s">
+      <c r="K37" s="184" t="s">
         <v>184</v>
       </c>
       <c r="L37" s="76">
@@ -9483,11 +9500,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="221">
+      <c r="M39" s="220">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="223">
+      <c r="N39" s="222">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -9513,8 +9530,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="222"/>
-      <c r="N40" s="224"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="223"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9522,17 +9539,17 @@
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="84"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="197"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="196"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="198"/>
+      <c r="H41" s="197"/>
       <c r="I41" s="85"/>
       <c r="J41" s="67"/>
       <c r="K41" s="71"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="200"/>
-      <c r="N41" s="199"/>
+      <c r="M41" s="199"/>
+      <c r="N41" s="198"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9540,17 +9557,17 @@
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="84"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="197"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="198"/>
+      <c r="H42" s="197"/>
       <c r="I42" s="85"/>
       <c r="J42" s="67"/>
       <c r="K42" s="71"/>
       <c r="L42" s="75"/>
-      <c r="M42" s="200"/>
-      <c r="N42" s="199"/>
+      <c r="M42" s="199"/>
+      <c r="N42" s="198"/>
       <c r="P42" s="83"/>
       <c r="Q42" s="9"/>
     </row>
@@ -9558,17 +9575,17 @@
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="84"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="197"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="196"/>
       <c r="G43" s="26"/>
-      <c r="H43" s="198"/>
+      <c r="H43" s="197"/>
       <c r="I43" s="85"/>
       <c r="J43" s="67"/>
       <c r="K43" s="71"/>
       <c r="L43" s="75"/>
-      <c r="M43" s="200"/>
-      <c r="N43" s="199"/>
+      <c r="M43" s="199"/>
+      <c r="N43" s="198"/>
       <c r="P43" s="83"/>
       <c r="Q43" s="9"/>
     </row>
@@ -9576,17 +9593,17 @@
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="84"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="197"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
       <c r="G44" s="26"/>
-      <c r="H44" s="198"/>
+      <c r="H44" s="197"/>
       <c r="I44" s="85"/>
       <c r="J44" s="67"/>
       <c r="K44" s="71"/>
       <c r="L44" s="75"/>
-      <c r="M44" s="200"/>
-      <c r="N44" s="199"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="198"/>
       <c r="P44" s="83"/>
       <c r="Q44" s="9"/>
     </row>
@@ -9594,17 +9611,17 @@
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="84"/>
-      <c r="D45" s="195"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="197"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="196"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="198"/>
+      <c r="H45" s="197"/>
       <c r="I45" s="85"/>
       <c r="J45" s="67"/>
       <c r="K45" s="71"/>
       <c r="L45" s="75"/>
-      <c r="M45" s="200"/>
-      <c r="N45" s="199"/>
+      <c r="M45" s="199"/>
+      <c r="N45" s="198"/>
       <c r="P45" s="83"/>
       <c r="Q45" s="9"/>
     </row>
@@ -9612,17 +9629,17 @@
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="84"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="197"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
       <c r="G46" s="26"/>
-      <c r="H46" s="198"/>
+      <c r="H46" s="197"/>
       <c r="I46" s="85"/>
       <c r="J46" s="67"/>
       <c r="K46" s="71"/>
       <c r="L46" s="75"/>
-      <c r="M46" s="200"/>
-      <c r="N46" s="199"/>
+      <c r="M46" s="199"/>
+      <c r="N46" s="198"/>
       <c r="P46" s="83"/>
       <c r="Q46" s="9"/>
     </row>
@@ -9630,17 +9647,17 @@
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="84"/>
-      <c r="D47" s="195"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="197"/>
+      <c r="D47" s="194"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="196"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="198"/>
+      <c r="H47" s="197"/>
       <c r="I47" s="85"/>
       <c r="J47" s="67"/>
       <c r="K47" s="71"/>
       <c r="L47" s="75"/>
-      <c r="M47" s="200"/>
-      <c r="N47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="198"/>
       <c r="P47" s="83"/>
       <c r="Q47" s="9"/>
     </row>
@@ -9648,17 +9665,17 @@
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="84"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="197"/>
+      <c r="D48" s="194"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="198"/>
+      <c r="H48" s="197"/>
       <c r="I48" s="85"/>
       <c r="J48" s="67"/>
       <c r="K48" s="71"/>
       <c r="L48" s="75"/>
-      <c r="M48" s="200"/>
-      <c r="N48" s="199"/>
+      <c r="M48" s="199"/>
+      <c r="N48" s="198"/>
       <c r="P48" s="83"/>
       <c r="Q48" s="9"/>
     </row>
@@ -9673,7 +9690,7 @@
       <c r="F49" s="84"/>
       <c r="H49" s="91"/>
       <c r="I49" s="85"/>
-      <c r="J49" s="201"/>
+      <c r="J49" s="200"/>
       <c r="K49" s="86"/>
       <c r="L49" s="9"/>
       <c r="M49" s="87"/>
@@ -9729,29 +9746,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="245" t="s">
+      <c r="H52" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="246"/>
+      <c r="I52" s="245"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="247">
+      <c r="K52" s="246">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="248"/>
-      <c r="M52" s="236">
+      <c r="L52" s="247"/>
+      <c r="M52" s="235">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="237"/>
+      <c r="N52" s="236"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="249" t="s">
+      <c r="D53" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="249"/>
+      <c r="E53" s="248"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -9762,22 +9779,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="250" t="s">
+      <c r="D54" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="250"/>
+      <c r="E54" s="249"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="251" t="s">
+      <c r="I54" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="252"/>
-      <c r="K54" s="253">
+      <c r="J54" s="251"/>
+      <c r="K54" s="252">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="254"/>
+      <c r="L54" s="253"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9808,11 +9825,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="238">
+      <c r="K56" s="237">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="239"/>
+      <c r="L56" s="238"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -9829,22 +9846,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="240" t="s">
+      <c r="D58" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="241"/>
+      <c r="E58" s="240"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="242" t="s">
+      <c r="I58" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="243"/>
-      <c r="K58" s="244">
+      <c r="J58" s="242"/>
+      <c r="K58" s="243">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="244"/>
+      <c r="L58" s="243"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -9854,20 +9871,20 @@
       <c r="J59" s="126"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="193"/>
-      <c r="J60" s="193"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="194"/>
+      <c r="I60" s="192"/>
+      <c r="J60" s="192"/>
+      <c r="K60" s="193"/>
+      <c r="L60" s="193"/>
     </row>
     <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="127"/>
       <c r="C61" s="128"/>
       <c r="D61" s="129"/>
       <c r="E61" s="83"/>
-      <c r="I61" s="193"/>
-      <c r="J61" s="193"/>
-      <c r="K61" s="194"/>
-      <c r="L61" s="194"/>
+      <c r="I61" s="192"/>
+      <c r="J61" s="192"/>
+      <c r="K61" s="193"/>
+      <c r="L61" s="193"/>
       <c r="M61" s="1"/>
       <c r="N61" s="104"/>
     </row>
@@ -10050,19 +10067,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="202" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="140" t="s">
@@ -10073,13 +10090,13 @@
       <c r="A3" s="141">
         <v>44445</v>
       </c>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="179" t="s">
         <v>122</v>
       </c>
       <c r="C3" s="79">
         <v>42896.2</v>
       </c>
-      <c r="D3" s="204"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="79"/>
       <c r="F3" s="143">
         <f>C3-E3</f>
@@ -10090,13 +10107,13 @@
       <c r="A4" s="141">
         <v>44446</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="179" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="79">
         <v>673.2</v>
       </c>
-      <c r="D4" s="204"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="79"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
@@ -10108,13 +10125,13 @@
       <c r="A5" s="141">
         <v>44447</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="179" t="s">
         <v>124</v>
       </c>
       <c r="C5" s="79">
         <v>59000.22</v>
       </c>
-      <c r="D5" s="204"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="79"/>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
@@ -10125,13 +10142,13 @@
       <c r="A6" s="141">
         <v>44447</v>
       </c>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="179" t="s">
         <v>125</v>
       </c>
       <c r="C6" s="79">
         <v>11075.4</v>
       </c>
-      <c r="D6" s="204"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="79"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
@@ -10142,13 +10159,13 @@
       <c r="A7" s="141">
         <v>44448</v>
       </c>
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="179" t="s">
         <v>126</v>
       </c>
       <c r="C7" s="79">
         <v>8608.6</v>
       </c>
-      <c r="D7" s="204"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="79"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
@@ -10159,13 +10176,13 @@
       <c r="A8" s="141">
         <v>44448</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="179" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="79">
         <v>45033.9</v>
       </c>
-      <c r="D8" s="204"/>
+      <c r="D8" s="203"/>
       <c r="E8" s="79"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
@@ -10176,13 +10193,13 @@
       <c r="A9" s="141">
         <v>44448</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="179" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="79">
         <v>2191.8000000000002</v>
       </c>
-      <c r="D9" s="204"/>
+      <c r="D9" s="203"/>
       <c r="E9" s="79"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
@@ -10193,13 +10210,13 @@
       <c r="A10" s="141">
         <v>44449</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="179" t="s">
         <v>129</v>
       </c>
       <c r="C10" s="79">
         <v>6894.34</v>
       </c>
-      <c r="D10" s="204"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="79"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
@@ -10677,13 +10694,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="188">
+      <c r="A38" s="187">
         <v>44467</v>
       </c>
-      <c r="B38" s="186" t="s">
+      <c r="B38" s="185" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="187">
+      <c r="C38" s="186">
         <v>59570.38</v>
       </c>
       <c r="D38" s="144">
@@ -10698,13 +10715,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="188">
+      <c r="A39" s="187">
         <v>44467</v>
       </c>
-      <c r="B39" s="186" t="s">
+      <c r="B39" s="185" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="187">
+      <c r="C39" s="186">
         <v>7939.6</v>
       </c>
       <c r="D39" s="144"/>
@@ -10715,13 +10732,13 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="188">
+      <c r="A40" s="187">
         <v>44468</v>
       </c>
-      <c r="B40" s="186" t="s">
+      <c r="B40" s="185" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="187">
+      <c r="C40" s="186">
         <v>38874.400000000001</v>
       </c>
       <c r="D40" s="144"/>
@@ -10732,13 +10749,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="188">
+      <c r="A41" s="187">
         <v>44469</v>
       </c>
-      <c r="B41" s="186" t="s">
+      <c r="B41" s="185" t="s">
         <v>177</v>
       </c>
-      <c r="C41" s="187">
+      <c r="C41" s="186">
         <v>92182.8</v>
       </c>
       <c r="D41" s="144"/>
@@ -10749,13 +10766,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="188">
+      <c r="A42" s="187">
         <v>44470</v>
       </c>
-      <c r="B42" s="186" t="s">
+      <c r="B42" s="185" t="s">
         <v>178</v>
       </c>
-      <c r="C42" s="187">
+      <c r="C42" s="186">
         <v>66246</v>
       </c>
       <c r="D42" s="144"/>
@@ -10766,13 +10783,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="188">
+      <c r="A43" s="187">
         <v>44471</v>
       </c>
-      <c r="B43" s="186" t="s">
+      <c r="B43" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="187">
+      <c r="C43" s="186">
         <v>85535.7</v>
       </c>
       <c r="D43" s="144"/>
@@ -10783,13 +10800,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="188">
+      <c r="A44" s="187">
         <v>44471</v>
       </c>
-      <c r="B44" s="186" t="s">
+      <c r="B44" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="187">
+      <c r="C44" s="186">
         <v>1725</v>
       </c>
       <c r="D44" s="144"/>
@@ -10998,9 +11015,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="189"/>
-      <c r="B63" s="186"/>
-      <c r="C63" s="187"/>
+      <c r="A63" s="188"/>
+      <c r="B63" s="185"/>
+      <c r="C63" s="186"/>
       <c r="D63" s="144"/>
       <c r="E63" s="79"/>
       <c r="F63" s="145">
@@ -11009,9 +11026,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="189"/>
-      <c r="B64" s="186"/>
-      <c r="C64" s="187"/>
+      <c r="A64" s="188"/>
+      <c r="B64" s="185"/>
+      <c r="C64" s="186"/>
       <c r="D64" s="144"/>
       <c r="E64" s="79"/>
       <c r="F64" s="145">
@@ -11020,9 +11037,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="189"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="187"/>
+      <c r="A65" s="188"/>
+      <c r="B65" s="185"/>
+      <c r="C65" s="186"/>
       <c r="D65" s="144"/>
       <c r="E65" s="79"/>
       <c r="F65" s="145">
@@ -11031,9 +11048,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="189"/>
-      <c r="B66" s="186"/>
-      <c r="C66" s="187"/>
+      <c r="A66" s="188"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="186"/>
       <c r="D66" s="144"/>
       <c r="E66" s="79"/>
       <c r="F66" s="145">
@@ -11042,9 +11059,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="189"/>
-      <c r="B67" s="186"/>
-      <c r="C67" s="187"/>
+      <c r="A67" s="188"/>
+      <c r="B67" s="185"/>
+      <c r="C67" s="186"/>
       <c r="D67" s="144"/>
       <c r="E67" s="79"/>
       <c r="F67" s="145">
@@ -11053,9 +11070,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="189"/>
-      <c r="B68" s="186"/>
-      <c r="C68" s="187"/>
+      <c r="A68" s="188"/>
+      <c r="B68" s="185"/>
+      <c r="C68" s="186"/>
       <c r="D68" s="144"/>
       <c r="E68" s="79"/>
       <c r="F68" s="145">
@@ -11064,9 +11081,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="189"/>
-      <c r="B69" s="186"/>
-      <c r="C69" s="187"/>
+      <c r="A69" s="188"/>
+      <c r="B69" s="185"/>
+      <c r="C69" s="186"/>
       <c r="D69" s="144"/>
       <c r="E69" s="79"/>
       <c r="F69" s="145">
@@ -11075,9 +11092,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="189"/>
-      <c r="B70" s="186"/>
-      <c r="C70" s="187"/>
+      <c r="A70" s="188"/>
+      <c r="B70" s="185"/>
+      <c r="C70" s="186"/>
       <c r="D70" s="144"/>
       <c r="E70" s="79"/>
       <c r="F70" s="145">
@@ -11086,9 +11103,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="189"/>
-      <c r="B71" s="186"/>
-      <c r="C71" s="187"/>
+      <c r="A71" s="188"/>
+      <c r="B71" s="185"/>
+      <c r="C71" s="186"/>
       <c r="D71" s="144"/>
       <c r="E71" s="79"/>
       <c r="F71" s="145">
@@ -11097,9 +11114,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="189"/>
-      <c r="B72" s="186"/>
-      <c r="C72" s="187"/>
+      <c r="A72" s="188"/>
+      <c r="B72" s="185"/>
+      <c r="C72" s="186"/>
       <c r="D72" s="144"/>
       <c r="E72" s="79"/>
       <c r="F72" s="145">
@@ -11108,9 +11125,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="189"/>
-      <c r="B73" s="186"/>
-      <c r="C73" s="187"/>
+      <c r="A73" s="188"/>
+      <c r="B73" s="185"/>
+      <c r="C73" s="186"/>
       <c r="D73" s="144"/>
       <c r="E73" s="79"/>
       <c r="F73" s="145">
@@ -11119,9 +11136,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="189"/>
-      <c r="B74" s="186"/>
-      <c r="C74" s="187"/>
+      <c r="A74" s="188"/>
+      <c r="B74" s="185"/>
+      <c r="C74" s="186"/>
       <c r="D74" s="144"/>
       <c r="E74" s="79"/>
       <c r="F74" s="145">
@@ -11130,9 +11147,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="189"/>
-      <c r="B75" s="186"/>
-      <c r="C75" s="187"/>
+      <c r="A75" s="188"/>
+      <c r="B75" s="185"/>
+      <c r="C75" s="186"/>
       <c r="D75" s="144"/>
       <c r="E75" s="79"/>
       <c r="F75" s="145">
@@ -11141,9 +11158,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="189"/>
-      <c r="B76" s="186"/>
-      <c r="C76" s="187"/>
+      <c r="A76" s="188"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="186"/>
       <c r="D76" s="144"/>
       <c r="E76" s="79"/>
       <c r="F76" s="145">
@@ -11152,9 +11169,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="189"/>
-      <c r="B77" s="186"/>
-      <c r="C77" s="187"/>
+      <c r="A77" s="188"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="186"/>
       <c r="D77" s="144"/>
       <c r="E77" s="79"/>
       <c r="F77" s="145">
@@ -11163,9 +11180,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="189"/>
-      <c r="B78" s="186"/>
-      <c r="C78" s="187"/>
+      <c r="A78" s="188"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="186"/>
       <c r="D78" s="144"/>
       <c r="E78" s="79"/>
       <c r="F78" s="145">
@@ -11174,9 +11191,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="189"/>
-      <c r="B79" s="186"/>
-      <c r="C79" s="187"/>
+      <c r="A79" s="188"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="186"/>
       <c r="D79" s="144"/>
       <c r="E79" s="79"/>
       <c r="F79" s="145">
@@ -11185,9 +11202,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="189"/>
-      <c r="B80" s="186"/>
-      <c r="C80" s="187"/>
+      <c r="A80" s="188"/>
+      <c r="B80" s="185"/>
+      <c r="C80" s="186"/>
       <c r="D80" s="144"/>
       <c r="E80" s="79"/>
       <c r="F80" s="145">
@@ -11196,9 +11213,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="190"/>
-      <c r="B81" s="191"/>
-      <c r="C81" s="192"/>
+      <c r="A81" s="189"/>
+      <c r="B81" s="190"/>
+      <c r="C81" s="191"/>
       <c r="D81" s="147"/>
       <c r="E81" s="83"/>
       <c r="F81" s="145">
@@ -11207,9 +11224,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="190"/>
-      <c r="B82" s="191"/>
-      <c r="C82" s="192"/>
+      <c r="A82" s="189"/>
+      <c r="B82" s="190"/>
+      <c r="C82" s="191"/>
       <c r="D82" s="147"/>
       <c r="E82" s="83"/>
       <c r="F82" s="145">
@@ -11218,9 +11235,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="190"/>
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
+      <c r="A83" s="189"/>
+      <c r="B83" s="190"/>
+      <c r="C83" s="191"/>
       <c r="D83" s="147"/>
       <c r="E83" s="83"/>
       <c r="F83" s="145">
@@ -11229,9 +11246,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="190"/>
-      <c r="B84" s="191"/>
-      <c r="C84" s="192"/>
+      <c r="A84" s="189"/>
+      <c r="B84" s="190"/>
+      <c r="C84" s="191"/>
       <c r="D84" s="147"/>
       <c r="E84" s="83"/>
       <c r="F84" s="145">
@@ -11240,9 +11257,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="190"/>
-      <c r="B85" s="191"/>
-      <c r="C85" s="192"/>
+      <c r="A85" s="189"/>
+      <c r="B85" s="190"/>
+      <c r="C85" s="191"/>
       <c r="D85" s="147"/>
       <c r="E85" s="83"/>
       <c r="F85" s="145">
@@ -11251,9 +11268,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="190"/>
-      <c r="B86" s="191"/>
-      <c r="C86" s="192"/>
+      <c r="A86" s="189"/>
+      <c r="B86" s="190"/>
+      <c r="C86" s="191"/>
       <c r="D86" s="147"/>
       <c r="E86" s="83"/>
       <c r="F86" s="145">
@@ -11262,9 +11279,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="189"/>
-      <c r="B87" s="186"/>
-      <c r="C87" s="187"/>
+      <c r="A87" s="188"/>
+      <c r="B87" s="185"/>
+      <c r="C87" s="186"/>
       <c r="D87" s="148"/>
       <c r="E87" s="79"/>
       <c r="F87" s="145">
@@ -11273,9 +11290,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="189"/>
-      <c r="B88" s="186"/>
-      <c r="C88" s="187"/>
+      <c r="A88" s="188"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="186"/>
       <c r="D88" s="148"/>
       <c r="E88" s="79"/>
       <c r="F88" s="145">
@@ -11284,9 +11301,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="189"/>
-      <c r="B89" s="186"/>
-      <c r="C89" s="187"/>
+      <c r="A89" s="188"/>
+      <c r="B89" s="185"/>
+      <c r="C89" s="186"/>
       <c r="D89" s="148"/>
       <c r="E89" s="79"/>
       <c r="F89" s="145">
@@ -11295,9 +11312,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="189"/>
-      <c r="B90" s="186"/>
-      <c r="C90" s="187"/>
+      <c r="A90" s="188"/>
+      <c r="B90" s="185"/>
+      <c r="C90" s="186"/>
       <c r="D90" s="148"/>
       <c r="E90" s="79"/>
       <c r="F90" s="145">
@@ -11306,9 +11323,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="189"/>
-      <c r="B91" s="186"/>
-      <c r="C91" s="187"/>
+      <c r="A91" s="188"/>
+      <c r="B91" s="185"/>
+      <c r="C91" s="186"/>
       <c r="D91" s="148"/>
       <c r="E91" s="79"/>
       <c r="F91" s="145">
@@ -11317,9 +11334,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="189"/>
-      <c r="B92" s="186"/>
-      <c r="C92" s="187"/>
+      <c r="A92" s="188"/>
+      <c r="B92" s="185"/>
+      <c r="C92" s="186"/>
       <c r="D92" s="148"/>
       <c r="E92" s="79"/>
       <c r="F92" s="145">
@@ -11328,9 +11345,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="189"/>
-      <c r="B93" s="186"/>
-      <c r="C93" s="187"/>
+      <c r="A93" s="188"/>
+      <c r="B93" s="185"/>
+      <c r="C93" s="186"/>
       <c r="D93" s="148"/>
       <c r="E93" s="79"/>
       <c r="F93" s="145">
@@ -11339,9 +11356,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="189"/>
-      <c r="B94" s="186"/>
-      <c r="C94" s="187"/>
+      <c r="A94" s="188"/>
+      <c r="B94" s="185"/>
+      <c r="C94" s="186"/>
       <c r="D94" s="148"/>
       <c r="E94" s="79"/>
       <c r="F94" s="145">
@@ -11350,9 +11367,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="189"/>
-      <c r="B95" s="186"/>
-      <c r="C95" s="187"/>
+      <c r="A95" s="188"/>
+      <c r="B95" s="185"/>
+      <c r="C95" s="186"/>
       <c r="D95" s="148"/>
       <c r="E95" s="79"/>
       <c r="F95" s="145">
@@ -11361,9 +11378,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="189"/>
-      <c r="B96" s="186"/>
-      <c r="C96" s="187"/>
+      <c r="A96" s="188"/>
+      <c r="B96" s="185"/>
+      <c r="C96" s="186"/>
       <c r="D96" s="148"/>
       <c r="E96" s="79"/>
       <c r="F96" s="145">
@@ -11604,8 +11621,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11627,23 +11644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="225"/>
-      <c r="C1" s="234" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="226"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -11653,17 +11670,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="228"/>
+      <c r="B3" s="226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="227"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="229" t="s">
+      <c r="H3" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="229"/>
+      <c r="I3" s="228"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -11679,14 +11696,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="230" t="s">
+      <c r="E4" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="H4" s="232" t="s">
+      <c r="F4" s="230"/>
+      <c r="H4" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="233"/>
+      <c r="I4" s="232"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -11696,10 +11713,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="219" t="s">
+      <c r="P4" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="220"/>
+      <c r="Q4" s="219"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -11740,7 +11757,7 @@
         <f>N5+M5+L5+I5+C5</f>
         <v>47877</v>
       </c>
-      <c r="Q5" s="217">
+      <c r="Q5" s="216">
         <f>P5-F5</f>
         <v>2460</v>
       </c>
@@ -11789,7 +11806,7 @@
         <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
         <v>42961</v>
       </c>
-      <c r="Q6" s="217">
+      <c r="Q6" s="216">
         <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
         <v>3244</v>
       </c>
@@ -12114,7 +12131,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="205"/>
+      <c r="R13" s="204"/>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
@@ -12157,7 +12174,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R14" s="205"/>
+      <c r="R14" s="204"/>
     </row>
     <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
@@ -12168,7 +12185,7 @@
         <v>321</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="24">
         <v>44483</v>
@@ -12197,7 +12214,7 @@
         <f t="shared" si="0"/>
         <v>58523</v>
       </c>
-      <c r="Q15" s="218">
+      <c r="Q15" s="217">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
@@ -12254,7 +12271,7 @@
         <v>6242</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" s="24">
         <v>44485</v>
@@ -12273,7 +12290,7 @@
         <v>44485</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L17" s="43">
         <v>12019</v>
@@ -12304,7 +12321,7 @@
         <v>214</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="24">
         <v>44486</v>
@@ -12432,7 +12449,7 @@
         <v>5743</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" s="24">
         <v>44489</v>
@@ -12448,7 +12465,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="33"/>
-      <c r="K21" s="178"/>
+      <c r="K21" s="177"/>
       <c r="L21" s="43"/>
       <c r="M21" s="138">
         <f>10000+17627</f>
@@ -12517,7 +12534,7 @@
         <v>1612</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E23" s="24">
         <v>44491</v>
@@ -12558,32 +12575,43 @@
         <v>44492</v>
       </c>
       <c r="C24" s="22">
-        <v>0</v>
-      </c>
-      <c r="D24" s="31"/>
+        <v>1203</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>197</v>
+      </c>
       <c r="E24" s="24">
         <v>44492</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25">
+        <v>90650</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="32">
         <v>44492</v>
       </c>
       <c r="I24" s="28">
-        <v>0</v>
-      </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
+        <v>15</v>
+      </c>
+      <c r="J24" s="55">
+        <v>44492</v>
+      </c>
+      <c r="K24" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" s="57">
+        <v>13007</v>
+      </c>
       <c r="M24" s="138">
-        <v>0</v>
+        <f>35000+34635</f>
+        <v>69635</v>
       </c>
       <c r="N24" s="30">
-        <v>0</v>
+        <v>6790</v>
       </c>
       <c r="P24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90650</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="1"/>
@@ -12597,32 +12625,37 @@
         <v>44493</v>
       </c>
       <c r="C25" s="22">
-        <v>0</v>
-      </c>
-      <c r="D25" s="31"/>
+        <v>14</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>199</v>
+      </c>
       <c r="E25" s="24">
         <v>44493</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25">
+        <v>77766</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="32">
         <v>44493</v>
       </c>
       <c r="I25" s="28">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J25" s="58"/>
       <c r="K25" s="59"/>
       <c r="L25" s="60"/>
       <c r="M25" s="138">
-        <v>0</v>
+        <f>60000+16647</f>
+        <v>76647</v>
       </c>
       <c r="N25" s="30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P25" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77766</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="1"/>
@@ -12645,7 +12678,9 @@
       <c r="E26" s="24">
         <v>44494</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="25">
+        <v>36129</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="32">
         <v>44494</v>
@@ -12657,14 +12692,15 @@
       <c r="K26" s="56"/>
       <c r="L26" s="43"/>
       <c r="M26" s="138">
-        <v>0</v>
+        <f>13400+22729</f>
+        <v>36129</v>
       </c>
       <c r="N26" s="30">
         <v>0</v>
       </c>
       <c r="P26" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36129</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="1"/>
@@ -12684,26 +12720,29 @@
       <c r="E27" s="24">
         <v>44495</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>61533</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="32">
         <v>44495</v>
       </c>
       <c r="I27" s="28">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J27" s="61"/>
       <c r="K27" s="62"/>
       <c r="L27" s="60"/>
       <c r="M27" s="138">
-        <v>0</v>
+        <f>31383+30000</f>
+        <v>61383</v>
       </c>
       <c r="N27" s="30">
         <v>0</v>
       </c>
       <c r="P27" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61533</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="1"/>
@@ -12717,34 +12756,39 @@
         <v>44496</v>
       </c>
       <c r="C28" s="22">
-        <v>0</v>
-      </c>
-      <c r="D28" s="38"/>
+        <v>4153.5</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>200</v>
+      </c>
       <c r="E28" s="24">
         <v>44496</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25">
+        <v>47918</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="32">
         <v>44496</v>
       </c>
       <c r="I28" s="28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J28" s="63"/>
       <c r="K28" s="34"/>
       <c r="L28" s="60"/>
       <c r="M28" s="138">
-        <v>0</v>
+        <f>15000+28517.5</f>
+        <v>43517.5</v>
       </c>
       <c r="N28" s="30">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="P28" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="212">
+        <v>47918</v>
+      </c>
+      <c r="Q28" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12762,30 +12806,33 @@
       <c r="E29" s="24">
         <v>44497</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="25">
+        <v>57506</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="32">
         <v>44497</v>
       </c>
       <c r="I29" s="28">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J29" s="65"/>
       <c r="K29" s="66"/>
       <c r="L29" s="60"/>
       <c r="M29" s="138">
-        <v>0</v>
+        <f>20000</f>
+        <v>20000</v>
       </c>
       <c r="N29" s="30">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="P29" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20681</v>
+      </c>
+      <c r="Q29" s="161">
+        <f t="shared" si="1"/>
+        <v>-36825</v>
       </c>
       <c r="R29" s="26"/>
     </row>
@@ -12801,13 +12848,15 @@
       <c r="E30" s="24">
         <v>44498</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="25">
+        <v>73966</v>
+      </c>
       <c r="G30" s="26"/>
       <c r="H30" s="32">
         <v>44498</v>
       </c>
       <c r="I30" s="28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J30" s="67"/>
       <c r="K30" s="68"/>
@@ -12816,15 +12865,15 @@
         <v>0</v>
       </c>
       <c r="N30" s="30">
-        <v>0</v>
+        <v>1713</v>
       </c>
       <c r="P30" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1728</v>
+      </c>
+      <c r="Q30" s="161">
+        <f t="shared" si="1"/>
+        <v>-72238</v>
       </c>
       <c r="R30" s="26"/>
     </row>
@@ -12861,7 +12910,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="212">
+      <c r="Q31" s="211">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12951,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="67"/>
-      <c r="K34" s="216"/>
+      <c r="K34" s="215"/>
       <c r="L34" s="76"/>
       <c r="M34" s="138">
         <v>0</v>
@@ -13049,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="67"/>
-      <c r="K37" s="185"/>
+      <c r="K37" s="184"/>
       <c r="L37" s="76"/>
       <c r="M37" s="138"/>
       <c r="N37" s="30"/>
@@ -13103,21 +13152,21 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="221">
+      <c r="M39" s="220">
         <f>SUM(M5:M38)</f>
-        <v>1018707</v>
-      </c>
-      <c r="N39" s="223">
+        <v>1326018.5</v>
+      </c>
+      <c r="N39" s="222">
         <f>SUM(N5:N38)</f>
-        <v>33674</v>
+        <v>44052</v>
       </c>
       <c r="P39" s="83">
         <f>SUM(P5:P38)</f>
-        <v>1103663.5</v>
+        <v>1440068.5</v>
       </c>
       <c r="Q39" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>5720.5</v>
+        <v>-103342.5</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13133,8 +13182,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="222"/>
-      <c r="N40" s="224"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="223"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13142,17 +13191,17 @@
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="84"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="197"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="196"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="198"/>
+      <c r="H41" s="197"/>
       <c r="I41" s="85"/>
       <c r="J41" s="67"/>
       <c r="K41" s="71"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="200"/>
-      <c r="N41" s="199"/>
+      <c r="M41" s="199"/>
+      <c r="N41" s="198"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13160,17 +13209,17 @@
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="84"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="197"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="198"/>
+      <c r="H42" s="197"/>
       <c r="I42" s="85"/>
       <c r="J42" s="67"/>
       <c r="K42" s="71"/>
       <c r="L42" s="75"/>
-      <c r="M42" s="200"/>
-      <c r="N42" s="199"/>
+      <c r="M42" s="199"/>
+      <c r="N42" s="198"/>
       <c r="P42" s="83"/>
       <c r="Q42" s="9"/>
     </row>
@@ -13178,17 +13227,17 @@
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="84"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="197"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="196"/>
       <c r="G43" s="26"/>
-      <c r="H43" s="198"/>
+      <c r="H43" s="197"/>
       <c r="I43" s="85"/>
       <c r="J43" s="67"/>
       <c r="K43" s="71"/>
       <c r="L43" s="75"/>
-      <c r="M43" s="200"/>
-      <c r="N43" s="199"/>
+      <c r="M43" s="199"/>
+      <c r="N43" s="198"/>
       <c r="P43" s="83"/>
       <c r="Q43" s="9"/>
     </row>
@@ -13196,17 +13245,17 @@
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="84"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="197"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
       <c r="G44" s="26"/>
-      <c r="H44" s="198"/>
+      <c r="H44" s="197"/>
       <c r="I44" s="85"/>
       <c r="J44" s="67"/>
       <c r="K44" s="71"/>
       <c r="L44" s="75"/>
-      <c r="M44" s="200"/>
-      <c r="N44" s="199"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="198"/>
       <c r="P44" s="83"/>
       <c r="Q44" s="9"/>
     </row>
@@ -13214,17 +13263,17 @@
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="84"/>
-      <c r="D45" s="195"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="197"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="196"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="198"/>
+      <c r="H45" s="197"/>
       <c r="I45" s="85"/>
       <c r="J45" s="67"/>
       <c r="K45" s="71"/>
       <c r="L45" s="75"/>
-      <c r="M45" s="200"/>
-      <c r="N45" s="199"/>
+      <c r="M45" s="199"/>
+      <c r="N45" s="198"/>
       <c r="P45" s="83"/>
       <c r="Q45" s="9"/>
     </row>
@@ -13232,17 +13281,17 @@
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="84"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="197"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
       <c r="G46" s="26"/>
-      <c r="H46" s="198"/>
+      <c r="H46" s="197"/>
       <c r="I46" s="85"/>
       <c r="J46" s="67"/>
       <c r="K46" s="71"/>
       <c r="L46" s="75"/>
-      <c r="M46" s="200"/>
-      <c r="N46" s="199"/>
+      <c r="M46" s="199"/>
+      <c r="N46" s="198"/>
       <c r="P46" s="83"/>
       <c r="Q46" s="9"/>
     </row>
@@ -13250,17 +13299,17 @@
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="84"/>
-      <c r="D47" s="195"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="197"/>
+      <c r="D47" s="194"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="196"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="198"/>
+      <c r="H47" s="197"/>
       <c r="I47" s="85"/>
       <c r="J47" s="67"/>
       <c r="K47" s="71"/>
       <c r="L47" s="75"/>
-      <c r="M47" s="200"/>
-      <c r="N47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="198"/>
       <c r="P47" s="83"/>
       <c r="Q47" s="9"/>
     </row>
@@ -13268,17 +13317,17 @@
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="84"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="197"/>
+      <c r="D48" s="194"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="198"/>
+      <c r="H48" s="197"/>
       <c r="I48" s="85"/>
       <c r="J48" s="67"/>
       <c r="K48" s="71"/>
       <c r="L48" s="75"/>
-      <c r="M48" s="200"/>
-      <c r="N48" s="199"/>
+      <c r="M48" s="199"/>
+      <c r="N48" s="198"/>
       <c r="P48" s="83"/>
       <c r="Q48" s="9"/>
     </row>
@@ -13293,7 +13342,7 @@
       <c r="F49" s="84"/>
       <c r="H49" s="91"/>
       <c r="I49" s="85"/>
-      <c r="J49" s="201"/>
+      <c r="J49" s="200"/>
       <c r="K49" s="86"/>
       <c r="L49" s="9"/>
       <c r="M49" s="87"/>
@@ -13307,7 +13356,7 @@
       </c>
       <c r="C50" s="93">
         <f>SUM(C5:C49)</f>
-        <v>21930</v>
+        <v>27300.5</v>
       </c>
       <c r="D50" s="94"/>
       <c r="E50" s="95" t="s">
@@ -13315,7 +13364,7 @@
       </c>
       <c r="F50" s="96">
         <f>SUM(F5:F49)</f>
-        <v>1097943</v>
+        <v>1543411</v>
       </c>
       <c r="G50" s="94"/>
       <c r="H50" s="97" t="s">
@@ -13323,7 +13372,7 @@
       </c>
       <c r="I50" s="98">
         <f>SUM(I5:I49)</f>
-        <v>1119.5</v>
+        <v>1457.5</v>
       </c>
       <c r="J50" s="99"/>
       <c r="K50" s="100" t="s">
@@ -13331,7 +13380,7 @@
       </c>
       <c r="L50" s="101">
         <f>SUM(L5:L49)</f>
-        <v>28233</v>
+        <v>41240</v>
       </c>
       <c r="M50" s="102"/>
       <c r="N50" s="102"/>
@@ -13349,32 +13398,32 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="245" t="s">
+      <c r="H52" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="246"/>
+      <c r="I52" s="245"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="247">
+      <c r="K52" s="246">
         <f>I50+L50</f>
-        <v>29352.5</v>
-      </c>
-      <c r="L52" s="248"/>
-      <c r="M52" s="236">
+        <v>42697.5</v>
+      </c>
+      <c r="L52" s="247"/>
+      <c r="M52" s="235">
         <f>N39+M39</f>
-        <v>1052381</v>
-      </c>
-      <c r="N52" s="237"/>
+        <v>1370070.5</v>
+      </c>
+      <c r="N52" s="236"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="249" t="s">
+      <c r="D53" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="249"/>
+      <c r="E53" s="248"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
-        <v>1046660.5</v>
+        <v>1473413</v>
       </c>
       <c r="I53" s="108"/>
       <c r="J53" s="109"/>
@@ -13382,22 +13431,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="250" t="s">
+      <c r="D54" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="250"/>
+      <c r="E54" s="249"/>
       <c r="F54" s="102">
         <v>0</v>
       </c>
-      <c r="I54" s="251" t="s">
+      <c r="I54" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="252"/>
-      <c r="K54" s="253">
+      <c r="J54" s="251"/>
+      <c r="K54" s="252">
         <f>F56+F57+F58</f>
-        <v>1046660.5</v>
-      </c>
-      <c r="L54" s="254"/>
+        <v>1473413</v>
+      </c>
+      <c r="L54" s="253"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13421,18 +13470,18 @@
       </c>
       <c r="F56" s="102">
         <f>SUM(F53:F55)</f>
-        <v>1046660.5</v>
+        <v>1473413</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="238">
+      <c r="K56" s="237">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L56" s="239"/>
+      <c r="L56" s="238"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -13449,22 +13498,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="240" t="s">
+      <c r="D58" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="241"/>
+      <c r="E58" s="240"/>
       <c r="F58" s="121">
         <v>0</v>
       </c>
-      <c r="I58" s="242" t="s">
+      <c r="I58" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="243"/>
-      <c r="K58" s="244">
+      <c r="J58" s="242"/>
+      <c r="K58" s="243">
         <f>K54+K56</f>
-        <v>911811.61</v>
-      </c>
-      <c r="L58" s="244"/>
+        <v>1338564.1099999999</v>
+      </c>
+      <c r="L58" s="243"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -13474,20 +13523,20 @@
       <c r="J59" s="126"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="193"/>
-      <c r="J60" s="193"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="194"/>
+      <c r="I60" s="192"/>
+      <c r="J60" s="192"/>
+      <c r="K60" s="193"/>
+      <c r="L60" s="193"/>
     </row>
     <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="127"/>
       <c r="C61" s="128"/>
       <c r="D61" s="129"/>
       <c r="E61" s="83"/>
-      <c r="I61" s="193"/>
-      <c r="J61" s="193"/>
-      <c r="K61" s="194"/>
-      <c r="L61" s="194"/>
+      <c r="I61" s="192"/>
+      <c r="J61" s="192"/>
+      <c r="K61" s="193"/>
+      <c r="L61" s="193"/>
       <c r="M61" s="1"/>
       <c r="N61" s="104"/>
     </row>
@@ -13670,19 +13719,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="202" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="140" t="s">
@@ -13691,9 +13740,9 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="141"/>
-      <c r="B3" s="180"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="79"/>
-      <c r="D3" s="204"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="79"/>
       <c r="F3" s="143">
         <f>C3-E3</f>
@@ -13702,9 +13751,9 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="141"/>
-      <c r="B4" s="180"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="79"/>
-      <c r="D4" s="204"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="79"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
@@ -13714,9 +13763,9 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="141"/>
-      <c r="B5" s="180"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="79"/>
-      <c r="D5" s="204"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="79"/>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
@@ -13725,9 +13774,9 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="141"/>
-      <c r="B6" s="180"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="79"/>
-      <c r="D6" s="204"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="79"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
@@ -13736,9 +13785,9 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="141"/>
-      <c r="B7" s="180"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="79"/>
-      <c r="D7" s="204"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="79"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
@@ -13747,9 +13796,9 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="141"/>
-      <c r="B8" s="180"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="79"/>
-      <c r="D8" s="204"/>
+      <c r="D8" s="203"/>
       <c r="E8" s="79"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
@@ -13758,9 +13807,9 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="141"/>
-      <c r="B9" s="180"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="79"/>
-      <c r="D9" s="204"/>
+      <c r="D9" s="203"/>
       <c r="E9" s="79"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
@@ -13769,9 +13818,9 @@
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="141"/>
-      <c r="B10" s="180"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="79"/>
-      <c r="D10" s="204"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="79"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
@@ -14354,9 +14403,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="189"/>
-      <c r="B63" s="186"/>
-      <c r="C63" s="187"/>
+      <c r="A63" s="188"/>
+      <c r="B63" s="185"/>
+      <c r="C63" s="186"/>
       <c r="D63" s="144"/>
       <c r="E63" s="79"/>
       <c r="F63" s="145">
@@ -14365,9 +14414,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="189"/>
-      <c r="B64" s="186"/>
-      <c r="C64" s="187"/>
+      <c r="A64" s="188"/>
+      <c r="B64" s="185"/>
+      <c r="C64" s="186"/>
       <c r="D64" s="144"/>
       <c r="E64" s="79"/>
       <c r="F64" s="145">
@@ -14376,9 +14425,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="189"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="187"/>
+      <c r="A65" s="188"/>
+      <c r="B65" s="185"/>
+      <c r="C65" s="186"/>
       <c r="D65" s="144"/>
       <c r="E65" s="79"/>
       <c r="F65" s="145">
@@ -14387,9 +14436,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="189"/>
-      <c r="B66" s="186"/>
-      <c r="C66" s="187"/>
+      <c r="A66" s="188"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="186"/>
       <c r="D66" s="144"/>
       <c r="E66" s="79"/>
       <c r="F66" s="145">
@@ -14398,9 +14447,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="189"/>
-      <c r="B67" s="186"/>
-      <c r="C67" s="187"/>
+      <c r="A67" s="188"/>
+      <c r="B67" s="185"/>
+      <c r="C67" s="186"/>
       <c r="D67" s="144"/>
       <c r="E67" s="79"/>
       <c r="F67" s="145">
@@ -14409,9 +14458,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="189"/>
-      <c r="B68" s="186"/>
-      <c r="C68" s="187"/>
+      <c r="A68" s="188"/>
+      <c r="B68" s="185"/>
+      <c r="C68" s="186"/>
       <c r="D68" s="144"/>
       <c r="E68" s="79"/>
       <c r="F68" s="145">
@@ -14420,9 +14469,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="189"/>
-      <c r="B69" s="186"/>
-      <c r="C69" s="187"/>
+      <c r="A69" s="188"/>
+      <c r="B69" s="185"/>
+      <c r="C69" s="186"/>
       <c r="D69" s="144"/>
       <c r="E69" s="79"/>
       <c r="F69" s="145">
@@ -14431,9 +14480,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="189"/>
-      <c r="B70" s="186"/>
-      <c r="C70" s="187"/>
+      <c r="A70" s="188"/>
+      <c r="B70" s="185"/>
+      <c r="C70" s="186"/>
       <c r="D70" s="144"/>
       <c r="E70" s="79"/>
       <c r="F70" s="145">
@@ -14442,9 +14491,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="189"/>
-      <c r="B71" s="186"/>
-      <c r="C71" s="187"/>
+      <c r="A71" s="188"/>
+      <c r="B71" s="185"/>
+      <c r="C71" s="186"/>
       <c r="D71" s="144"/>
       <c r="E71" s="79"/>
       <c r="F71" s="145">
@@ -14453,9 +14502,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="189"/>
-      <c r="B72" s="186"/>
-      <c r="C72" s="187"/>
+      <c r="A72" s="188"/>
+      <c r="B72" s="185"/>
+      <c r="C72" s="186"/>
       <c r="D72" s="144"/>
       <c r="E72" s="79"/>
       <c r="F72" s="145">
@@ -14464,9 +14513,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="189"/>
-      <c r="B73" s="186"/>
-      <c r="C73" s="187"/>
+      <c r="A73" s="188"/>
+      <c r="B73" s="185"/>
+      <c r="C73" s="186"/>
       <c r="D73" s="144"/>
       <c r="E73" s="79"/>
       <c r="F73" s="145">
@@ -14475,9 +14524,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="189"/>
-      <c r="B74" s="186"/>
-      <c r="C74" s="187"/>
+      <c r="A74" s="188"/>
+      <c r="B74" s="185"/>
+      <c r="C74" s="186"/>
       <c r="D74" s="144"/>
       <c r="E74" s="79"/>
       <c r="F74" s="145">
@@ -14486,9 +14535,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="189"/>
-      <c r="B75" s="186"/>
-      <c r="C75" s="187"/>
+      <c r="A75" s="188"/>
+      <c r="B75" s="185"/>
+      <c r="C75" s="186"/>
       <c r="D75" s="144"/>
       <c r="E75" s="79"/>
       <c r="F75" s="145">
@@ -14497,9 +14546,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="189"/>
-      <c r="B76" s="186"/>
-      <c r="C76" s="187"/>
+      <c r="A76" s="188"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="186"/>
       <c r="D76" s="144"/>
       <c r="E76" s="79"/>
       <c r="F76" s="145">
@@ -14508,9 +14557,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="189"/>
-      <c r="B77" s="186"/>
-      <c r="C77" s="187"/>
+      <c r="A77" s="188"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="186"/>
       <c r="D77" s="144"/>
       <c r="E77" s="79"/>
       <c r="F77" s="145">
@@ -14519,9 +14568,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="189"/>
-      <c r="B78" s="186"/>
-      <c r="C78" s="187"/>
+      <c r="A78" s="188"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="186"/>
       <c r="D78" s="144"/>
       <c r="E78" s="79"/>
       <c r="F78" s="145">
@@ -14530,9 +14579,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="189"/>
-      <c r="B79" s="186"/>
-      <c r="C79" s="187"/>
+      <c r="A79" s="188"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="186"/>
       <c r="D79" s="144"/>
       <c r="E79" s="79"/>
       <c r="F79" s="145">
@@ -14541,9 +14590,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="189"/>
-      <c r="B80" s="186"/>
-      <c r="C80" s="187"/>
+      <c r="A80" s="188"/>
+      <c r="B80" s="185"/>
+      <c r="C80" s="186"/>
       <c r="D80" s="144"/>
       <c r="E80" s="79"/>
       <c r="F80" s="145">
@@ -14552,9 +14601,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="190"/>
-      <c r="B81" s="191"/>
-      <c r="C81" s="192"/>
+      <c r="A81" s="189"/>
+      <c r="B81" s="190"/>
+      <c r="C81" s="191"/>
       <c r="D81" s="147"/>
       <c r="E81" s="83"/>
       <c r="F81" s="145">
@@ -14563,9 +14612,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="190"/>
-      <c r="B82" s="191"/>
-      <c r="C82" s="192"/>
+      <c r="A82" s="189"/>
+      <c r="B82" s="190"/>
+      <c r="C82" s="191"/>
       <c r="D82" s="147"/>
       <c r="E82" s="83"/>
       <c r="F82" s="145">
@@ -14574,9 +14623,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="190"/>
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
+      <c r="A83" s="189"/>
+      <c r="B83" s="190"/>
+      <c r="C83" s="191"/>
       <c r="D83" s="147"/>
       <c r="E83" s="83"/>
       <c r="F83" s="145">
@@ -14585,9 +14634,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="190"/>
-      <c r="B84" s="191"/>
-      <c r="C84" s="192"/>
+      <c r="A84" s="189"/>
+      <c r="B84" s="190"/>
+      <c r="C84" s="191"/>
       <c r="D84" s="147"/>
       <c r="E84" s="83"/>
       <c r="F84" s="145">
@@ -14596,9 +14645,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="190"/>
-      <c r="B85" s="191"/>
-      <c r="C85" s="192"/>
+      <c r="A85" s="189"/>
+      <c r="B85" s="190"/>
+      <c r="C85" s="191"/>
       <c r="D85" s="147"/>
       <c r="E85" s="83"/>
       <c r="F85" s="145">
@@ -14607,9 +14656,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="190"/>
-      <c r="B86" s="191"/>
-      <c r="C86" s="192"/>
+      <c r="A86" s="189"/>
+      <c r="B86" s="190"/>
+      <c r="C86" s="191"/>
       <c r="D86" s="147"/>
       <c r="E86" s="83"/>
       <c r="F86" s="145">
@@ -14618,9 +14667,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="189"/>
-      <c r="B87" s="186"/>
-      <c r="C87" s="187"/>
+      <c r="A87" s="188"/>
+      <c r="B87" s="185"/>
+      <c r="C87" s="186"/>
       <c r="D87" s="148"/>
       <c r="E87" s="79"/>
       <c r="F87" s="145">
@@ -14629,9 +14678,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="189"/>
-      <c r="B88" s="186"/>
-      <c r="C88" s="187"/>
+      <c r="A88" s="188"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="186"/>
       <c r="D88" s="148"/>
       <c r="E88" s="79"/>
       <c r="F88" s="145">
@@ -14640,9 +14689,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="189"/>
-      <c r="B89" s="186"/>
-      <c r="C89" s="187"/>
+      <c r="A89" s="188"/>
+      <c r="B89" s="185"/>
+      <c r="C89" s="186"/>
       <c r="D89" s="148"/>
       <c r="E89" s="79"/>
       <c r="F89" s="145">
@@ -14651,9 +14700,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="189"/>
-      <c r="B90" s="186"/>
-      <c r="C90" s="187"/>
+      <c r="A90" s="188"/>
+      <c r="B90" s="185"/>
+      <c r="C90" s="186"/>
       <c r="D90" s="148"/>
       <c r="E90" s="79"/>
       <c r="F90" s="145">
@@ -14662,9 +14711,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="189"/>
-      <c r="B91" s="186"/>
-      <c r="C91" s="187"/>
+      <c r="A91" s="188"/>
+      <c r="B91" s="185"/>
+      <c r="C91" s="186"/>
       <c r="D91" s="148"/>
       <c r="E91" s="79"/>
       <c r="F91" s="145">
@@ -14673,9 +14722,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="189"/>
-      <c r="B92" s="186"/>
-      <c r="C92" s="187"/>
+      <c r="A92" s="188"/>
+      <c r="B92" s="185"/>
+      <c r="C92" s="186"/>
       <c r="D92" s="148"/>
       <c r="E92" s="79"/>
       <c r="F92" s="145">
@@ -14684,9 +14733,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="189"/>
-      <c r="B93" s="186"/>
-      <c r="C93" s="187"/>
+      <c r="A93" s="188"/>
+      <c r="B93" s="185"/>
+      <c r="C93" s="186"/>
       <c r="D93" s="148"/>
       <c r="E93" s="79"/>
       <c r="F93" s="145">
@@ -14695,9 +14744,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="189"/>
-      <c r="B94" s="186"/>
-      <c r="C94" s="187"/>
+      <c r="A94" s="188"/>
+      <c r="B94" s="185"/>
+      <c r="C94" s="186"/>
       <c r="D94" s="148"/>
       <c r="E94" s="79"/>
       <c r="F94" s="145">
@@ -14706,9 +14755,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="189"/>
-      <c r="B95" s="186"/>
-      <c r="C95" s="187"/>
+      <c r="A95" s="188"/>
+      <c r="B95" s="185"/>
+      <c r="C95" s="186"/>
       <c r="D95" s="148"/>
       <c r="E95" s="79"/>
       <c r="F95" s="145">
@@ -14717,9 +14766,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="189"/>
-      <c r="B96" s="186"/>
-      <c r="C96" s="187"/>
+      <c r="A96" s="188"/>
+      <c r="B96" s="185"/>
+      <c r="C96" s="186"/>
       <c r="D96" s="148"/>
       <c r="E96" s="79"/>
       <c r="F96" s="145">
@@ -14970,10 +15019,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A23:G54"/>
+  <dimension ref="A23:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D32" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14991,169 +15040,175 @@
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="163"/>
-      <c r="B45" s="258" t="s">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="163"/>
+      <c r="B43" s="257" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="259"/>
-      <c r="D45" s="259"/>
-      <c r="E45" s="260"/>
-      <c r="F45" s="3"/>
+      <c r="C43" s="258"/>
+      <c r="D43" s="258"/>
+      <c r="E43" s="259"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="168">
+        <v>44498</v>
+      </c>
+      <c r="B44" s="169" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="170">
+        <v>1276.8</v>
+      </c>
+      <c r="D44" s="171" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="172" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="107">
+        <v>790</v>
+      </c>
+      <c r="G44" s="209"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="168">
+        <v>44498</v>
+      </c>
+      <c r="B45" s="169" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="170">
+        <v>233.76</v>
+      </c>
+      <c r="D45" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="107">
+        <v>198</v>
+      </c>
+      <c r="G45" s="208"/>
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="169">
-        <v>44490</v>
-      </c>
-      <c r="B46" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="171">
-        <v>1684.95</v>
-      </c>
-      <c r="D46" s="172" t="s">
+      <c r="A46" s="168"/>
+      <c r="B46" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="170">
+        <v>0</v>
+      </c>
+      <c r="D46" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="173" t="s">
-        <v>198</v>
+      <c r="E46" s="172" t="s">
+        <v>33</v>
       </c>
       <c r="F46" s="107">
-        <v>485</v>
-      </c>
-      <c r="G46" s="210"/>
-    </row>
-    <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="169"/>
-      <c r="B47" s="170" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47" s="171">
-        <v>0</v>
-      </c>
-      <c r="D47" s="174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="168"/>
+      <c r="B47" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="170">
+        <v>0</v>
+      </c>
+      <c r="D47" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="173" t="s">
+      <c r="E47" s="172" t="s">
         <v>33</v>
       </c>
       <c r="F47" s="107">
         <v>0</v>
       </c>
-      <c r="G47" s="209"/>
-    </row>
-    <row r="48" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="169"/>
-      <c r="B48" s="170" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="171">
-        <v>0</v>
-      </c>
-      <c r="D48" s="174" t="s">
+    </row>
+    <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="164"/>
+      <c r="B48" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="170">
+        <v>0</v>
+      </c>
+      <c r="D48" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="173" t="s">
+      <c r="E48" s="172" t="s">
         <v>33</v>
       </c>
       <c r="F48" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="169"/>
-      <c r="B49" s="170" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="171">
-        <v>0</v>
-      </c>
-      <c r="D49" s="174" t="s">
+    <row r="49" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="164"/>
+      <c r="B49" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="170">
+        <v>0</v>
+      </c>
+      <c r="D49" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="173" t="s">
+      <c r="E49" s="172" t="s">
         <v>33</v>
       </c>
       <c r="F49" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="164"/>
-      <c r="B50" s="170" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="165">
-        <v>0</v>
-      </c>
-      <c r="D50" s="166" t="s">
+      <c r="B50" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="170">
+        <v>0</v>
+      </c>
+      <c r="D50" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="173" t="s">
+      <c r="E50" s="172" t="s">
         <v>33</v>
       </c>
       <c r="F50" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="164"/>
-      <c r="B51" s="170" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="165">
-        <v>0</v>
-      </c>
-      <c r="D51" s="166" t="s">
+    <row r="51" spans="1:11" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="166"/>
+      <c r="B51" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="170">
+        <v>0</v>
+      </c>
+      <c r="D51" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="173" t="s">
+      <c r="E51" s="172" t="s">
         <v>33</v>
       </c>
       <c r="F51" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="164"/>
-      <c r="B52" s="170" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="165">
-        <v>0</v>
-      </c>
-      <c r="D52" s="166" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="173" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="167"/>
-      <c r="B53" s="170" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="165">
-        <v>0</v>
-      </c>
-      <c r="D53" s="168" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="173" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -15161,7 +15216,7 @@
     <sortCondition ref="B46:B47"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B43:E43"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.13" top="0.75" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="205">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -813,16 +813,13 @@
     <t xml:space="preserve"># </t>
   </si>
   <si>
-    <t># 7438</t>
-  </si>
-  <si>
-    <t>#  7439</t>
-  </si>
-  <si>
-    <t># 7454</t>
-  </si>
-  <si>
-    <t>#  7455</t>
+    <t># 7532</t>
+  </si>
+  <si>
+    <t>#  7533</t>
+  </si>
+  <si>
+    <t>NOMINA # 44</t>
   </si>
 </sst>
 </file>
@@ -2389,57 +2386,6 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2495,6 +2441,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4110,23 +4107,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="224"/>
-      <c r="C1" s="233" t="s">
+      <c r="B1" s="243"/>
+      <c r="C1" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="225"/>
+      <c r="B2" s="244"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4136,17 +4133,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="227"/>
+      <c r="B3" s="245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="246"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="228" t="s">
+      <c r="H3" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="228"/>
+      <c r="I3" s="247"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4162,14 +4159,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="H4" s="231" t="s">
+      <c r="F4" s="249"/>
+      <c r="H4" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="232"/>
+      <c r="I4" s="251"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4179,10 +4176,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="218" t="s">
+      <c r="P4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="219"/>
+      <c r="Q4" s="238"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5677,11 +5674,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="220">
+      <c r="M39" s="239">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="222">
+      <c r="N39" s="241">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -5713,8 +5710,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="221"/>
-      <c r="N40" s="223"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="242"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5947,29 +5944,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="244" t="s">
+      <c r="H52" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="245"/>
+      <c r="I52" s="228"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="246">
+      <c r="K52" s="229">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="247"/>
-      <c r="M52" s="235">
+      <c r="L52" s="230"/>
+      <c r="M52" s="218">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="236"/>
+      <c r="N52" s="219"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="248" t="s">
+      <c r="D53" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="248"/>
+      <c r="E53" s="231"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -5980,22 +5977,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="249" t="s">
+      <c r="D54" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="249"/>
+      <c r="E54" s="232"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="250" t="s">
+      <c r="I54" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="251"/>
-      <c r="K54" s="252">
+      <c r="J54" s="234"/>
+      <c r="K54" s="235">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="253"/>
+      <c r="L54" s="236"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6026,10 +6023,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="237">
-        <v>0</v>
-      </c>
-      <c r="L56" s="238"/>
+      <c r="K56" s="220">
+        <v>0</v>
+      </c>
+      <c r="L56" s="221"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6046,22 +6043,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="239" t="s">
+      <c r="D58" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="240"/>
+      <c r="E58" s="223"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="241" t="s">
+      <c r="I58" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="242"/>
-      <c r="K58" s="243">
+      <c r="J58" s="225"/>
+      <c r="K58" s="226">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="243"/>
+      <c r="L58" s="226"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6205,6 +6202,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:M1"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
@@ -6216,15 +6222,6 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7938,23 +7935,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="224"/>
-      <c r="C1" s="233" t="s">
+      <c r="B1" s="243"/>
+      <c r="C1" s="252" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="225"/>
+      <c r="B2" s="244"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -7964,17 +7961,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="227"/>
+      <c r="B3" s="245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="246"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="228" t="s">
+      <c r="H3" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="228"/>
+      <c r="I3" s="247"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -7990,14 +7987,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="H4" s="231" t="s">
+      <c r="F4" s="249"/>
+      <c r="H4" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="232"/>
+      <c r="I4" s="251"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8007,10 +8004,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="218" t="s">
+      <c r="P4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="219"/>
+      <c r="Q4" s="238"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9500,11 +9497,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="220">
+      <c r="M39" s="239">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="222">
+      <c r="N39" s="241">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -9530,8 +9527,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="221"/>
-      <c r="N40" s="223"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="242"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9746,29 +9743,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="244" t="s">
+      <c r="H52" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="245"/>
+      <c r="I52" s="228"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="246">
+      <c r="K52" s="229">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="247"/>
-      <c r="M52" s="235">
+      <c r="L52" s="230"/>
+      <c r="M52" s="218">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="236"/>
+      <c r="N52" s="219"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="248" t="s">
+      <c r="D53" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="248"/>
+      <c r="E53" s="231"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -9779,22 +9776,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="249" t="s">
+      <c r="D54" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="249"/>
+      <c r="E54" s="232"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="250" t="s">
+      <c r="I54" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="251"/>
-      <c r="K54" s="252">
+      <c r="J54" s="234"/>
+      <c r="K54" s="235">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="253"/>
+      <c r="L54" s="236"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9825,11 +9822,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="237">
+      <c r="K56" s="220">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="238"/>
+      <c r="L56" s="221"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -9846,22 +9843,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="239" t="s">
+      <c r="D58" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="240"/>
+      <c r="E58" s="223"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="241" t="s">
+      <c r="I58" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="242"/>
-      <c r="K58" s="243">
+      <c r="J58" s="225"/>
+      <c r="K58" s="226">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="243"/>
+      <c r="L58" s="226"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -10005,6 +10002,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10019,12 +10022,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11621,8 +11618,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11644,23 +11641,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="224"/>
-      <c r="C1" s="233" t="s">
+      <c r="B1" s="243"/>
+      <c r="C1" s="252" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="225"/>
+      <c r="B2" s="244"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -11670,17 +11667,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="227"/>
+      <c r="B3" s="245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="246"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="228" t="s">
+      <c r="H3" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="228"/>
+      <c r="I3" s="247"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -11696,14 +11693,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="H4" s="231" t="s">
+      <c r="F4" s="249"/>
+      <c r="H4" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="232"/>
+      <c r="I4" s="251"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -11713,10 +11710,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="218" t="s">
+      <c r="P4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="219"/>
+      <c r="Q4" s="238"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -12820,19 +12817,19 @@
       <c r="K29" s="66"/>
       <c r="L29" s="60"/>
       <c r="M29" s="138">
-        <f>20000</f>
-        <v>20000</v>
+        <f>20000+36825</f>
+        <v>56825</v>
       </c>
       <c r="N29" s="30">
         <v>640</v>
       </c>
       <c r="P29" s="83">
         <f t="shared" si="0"/>
-        <v>20681</v>
-      </c>
-      <c r="Q29" s="161">
-        <f t="shared" si="1"/>
-        <v>-36825</v>
+        <v>57506</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R29" s="26"/>
     </row>
@@ -12862,18 +12859,19 @@
       <c r="K30" s="68"/>
       <c r="L30" s="69"/>
       <c r="M30" s="138">
-        <v>0</v>
+        <f>20000+52129+109</f>
+        <v>72238</v>
       </c>
       <c r="N30" s="30">
         <v>1713</v>
       </c>
       <c r="P30" s="83">
         <f t="shared" si="0"/>
-        <v>1728</v>
-      </c>
-      <c r="Q30" s="161">
-        <f t="shared" si="1"/>
-        <v>-72238</v>
+        <v>73966</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R30" s="26"/>
     </row>
@@ -12889,28 +12887,37 @@
       <c r="E31" s="24">
         <v>44499</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="25">
+        <v>68798</v>
+      </c>
       <c r="G31" s="26"/>
       <c r="H31" s="32">
         <v>44499</v>
       </c>
       <c r="I31" s="28">
-        <v>0</v>
-      </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="72"/>
+        <v>35</v>
+      </c>
+      <c r="J31" s="67">
+        <v>44499</v>
+      </c>
+      <c r="K31" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="L31" s="72">
+        <v>11707</v>
+      </c>
       <c r="M31" s="138">
-        <v>0</v>
+        <f>30000+23056</f>
+        <v>53056</v>
       </c>
       <c r="N31" s="30">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="P31" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="211">
+        <v>68798</v>
+      </c>
+      <c r="Q31" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12928,7 +12935,10 @@
       <c r="E32" s="24">
         <v>44500</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="25">
+        <f>77638+3511</f>
+        <v>81149</v>
+      </c>
       <c r="G32" s="26"/>
       <c r="H32" s="32">
         <v>44500</v>
@@ -12940,14 +12950,15 @@
       <c r="K32" s="68"/>
       <c r="L32" s="69"/>
       <c r="M32" s="138">
-        <v>0</v>
+        <f>60000+20883</f>
+        <v>80883</v>
       </c>
       <c r="N32" s="30">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="P32" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81149</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="1"/>
@@ -13152,21 +13163,21 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="220">
+      <c r="M39" s="239">
         <f>SUM(M5:M38)</f>
-        <v>1326018.5</v>
-      </c>
-      <c r="N39" s="222">
+        <v>1569020.5</v>
+      </c>
+      <c r="N39" s="241">
         <f>SUM(N5:N38)</f>
-        <v>44052</v>
+        <v>48318</v>
       </c>
       <c r="P39" s="83">
         <f>SUM(P5:P38)</f>
-        <v>1440068.5</v>
+        <v>1699078.5</v>
       </c>
       <c r="Q39" s="9">
         <f>SUM(Q5:Q38)</f>
-        <v>-103342.5</v>
+        <v>5720.5</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13182,8 +13193,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="221"/>
-      <c r="N40" s="223"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="242"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13364,7 +13375,7 @@
       </c>
       <c r="F50" s="96">
         <f>SUM(F5:F49)</f>
-        <v>1543411</v>
+        <v>1693358</v>
       </c>
       <c r="G50" s="94"/>
       <c r="H50" s="97" t="s">
@@ -13372,7 +13383,7 @@
       </c>
       <c r="I50" s="98">
         <f>SUM(I5:I49)</f>
-        <v>1457.5</v>
+        <v>1492.5</v>
       </c>
       <c r="J50" s="99"/>
       <c r="K50" s="100" t="s">
@@ -13380,7 +13391,7 @@
       </c>
       <c r="L50" s="101">
         <f>SUM(L5:L49)</f>
-        <v>41240</v>
+        <v>52947</v>
       </c>
       <c r="M50" s="102"/>
       <c r="N50" s="102"/>
@@ -13398,32 +13409,32 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="244" t="s">
+      <c r="H52" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="245"/>
+      <c r="I52" s="228"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="246">
+      <c r="K52" s="229">
         <f>I50+L50</f>
-        <v>42697.5</v>
-      </c>
-      <c r="L52" s="247"/>
-      <c r="M52" s="235">
+        <v>54439.5</v>
+      </c>
+      <c r="L52" s="230"/>
+      <c r="M52" s="218">
         <f>N39+M39</f>
-        <v>1370070.5</v>
-      </c>
-      <c r="N52" s="236"/>
+        <v>1617338.5</v>
+      </c>
+      <c r="N52" s="219"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="248" t="s">
+      <c r="D53" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="248"/>
+      <c r="E53" s="231"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
-        <v>1473413</v>
+        <v>1611618</v>
       </c>
       <c r="I53" s="108"/>
       <c r="J53" s="109"/>
@@ -13431,22 +13442,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="249" t="s">
+      <c r="D54" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="249"/>
+      <c r="E54" s="232"/>
       <c r="F54" s="102">
         <v>0</v>
       </c>
-      <c r="I54" s="250" t="s">
+      <c r="I54" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="251"/>
-      <c r="K54" s="252">
+      <c r="J54" s="234"/>
+      <c r="K54" s="235">
         <f>F56+F57+F58</f>
-        <v>1473413</v>
-      </c>
-      <c r="L54" s="253"/>
+        <v>1611618</v>
+      </c>
+      <c r="L54" s="236"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13470,18 +13481,18 @@
       </c>
       <c r="F56" s="102">
         <f>SUM(F53:F55)</f>
-        <v>1473413</v>
+        <v>1611618</v>
       </c>
       <c r="H56" s="20"/>
       <c r="I56" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="237">
+      <c r="K56" s="220">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L56" s="238"/>
+      <c r="L56" s="221"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -13498,22 +13509,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="239" t="s">
+      <c r="D58" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="240"/>
+      <c r="E58" s="223"/>
       <c r="F58" s="121">
         <v>0</v>
       </c>
-      <c r="I58" s="241" t="s">
+      <c r="I58" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="242"/>
-      <c r="K58" s="243">
+      <c r="J58" s="225"/>
+      <c r="K58" s="226">
         <f>K54+K56</f>
-        <v>1338564.1099999999</v>
-      </c>
-      <c r="L58" s="243"/>
+        <v>1476769.1099999999</v>
+      </c>
+      <c r="L58" s="226"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -13657,6 +13668,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13671,12 +13688,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.16" top="0.3" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15019,10 +15030,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A23:K53"/>
+  <dimension ref="A23:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D31:D32"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15040,78 +15051,39 @@
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="163"/>
-      <c r="B43" s="257" t="s">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="163"/>
+      <c r="B45" s="257" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="258"/>
-      <c r="D43" s="258"/>
-      <c r="E43" s="259"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="168">
-        <v>44498</v>
-      </c>
-      <c r="B44" s="169" t="s">
+      <c r="C45" s="258"/>
+      <c r="D45" s="258"/>
+      <c r="E45" s="259"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="168">
+        <v>44499</v>
+      </c>
+      <c r="B46" s="169" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="170">
-        <v>1276.8</v>
-      </c>
-      <c r="D44" s="171" t="s">
+      <c r="C46" s="170">
+        <v>75</v>
+      </c>
+      <c r="D46" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="172" t="s">
+      <c r="E46" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="F44" s="107">
-        <v>790</v>
-      </c>
-      <c r="G44" s="209"/>
-    </row>
-    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168">
-        <v>44498</v>
-      </c>
-      <c r="B45" s="169" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="170">
-        <v>233.76</v>
-      </c>
-      <c r="D45" s="173" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="172" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" s="107">
-        <v>198</v>
-      </c>
-      <c r="G45" s="208"/>
-    </row>
-    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="168"/>
-      <c r="B46" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="170">
-        <v>0</v>
-      </c>
-      <c r="D46" s="173" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="172" t="s">
-        <v>33</v>
-      </c>
       <c r="F46" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G46" s="209"/>
+    </row>
+    <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
       <c r="B47" s="169" t="s">
         <v>201</v>
@@ -15128,16 +15100,17 @@
       <c r="F47" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="164"/>
+      <c r="G47" s="208"/>
+    </row>
+    <row r="48" spans="1:7" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="168"/>
       <c r="B48" s="169" t="s">
         <v>201</v>
       </c>
       <c r="C48" s="170">
         <v>0</v>
       </c>
-      <c r="D48" s="165" t="s">
+      <c r="D48" s="173" t="s">
         <v>32</v>
       </c>
       <c r="E48" s="172" t="s">
@@ -15147,15 +15120,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
+    <row r="49" spans="1:6" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="168"/>
       <c r="B49" s="169" t="s">
         <v>201</v>
       </c>
       <c r="C49" s="170">
         <v>0</v>
       </c>
-      <c r="D49" s="165" t="s">
+      <c r="D49" s="173" t="s">
         <v>32</v>
       </c>
       <c r="E49" s="172" t="s">
@@ -15165,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="164"/>
       <c r="B50" s="169" t="s">
         <v>201</v>
@@ -15183,15 +15156,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="166"/>
+    <row r="51" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="164"/>
       <c r="B51" s="169" t="s">
         <v>201</v>
       </c>
       <c r="C51" s="170">
         <v>0</v>
       </c>
-      <c r="D51" s="167" t="s">
+      <c r="D51" s="165" t="s">
         <v>32</v>
       </c>
       <c r="E51" s="172" t="s">
@@ -15201,22 +15174,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K53" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="52" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="164"/>
+      <c r="B52" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="170">
+        <v>0</v>
+      </c>
+      <c r="D52" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="166"/>
+      <c r="B53" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="170">
+        <v>0</v>
+      </c>
+      <c r="D53" s="167" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A46:F47">
     <sortCondition ref="B46:B47"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B45:E45"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.13" top="0.75" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="A G O S T O    2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="243">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -813,13 +813,127 @@
     <t xml:space="preserve"># </t>
   </si>
   <si>
-    <t># 7532</t>
-  </si>
-  <si>
-    <t>#  7533</t>
-  </si>
-  <si>
     <t>NOMINA # 44</t>
+  </si>
+  <si>
+    <t># 7966</t>
+  </si>
+  <si>
+    <t>#  7967</t>
+  </si>
+  <si>
+    <t>NOMINA # 45</t>
+  </si>
+  <si>
+    <t>22165 B</t>
+  </si>
+  <si>
+    <t>22166 B</t>
+  </si>
+  <si>
+    <t>22214 B</t>
+  </si>
+  <si>
+    <t>22335 B</t>
+  </si>
+  <si>
+    <t>22461 B</t>
+  </si>
+  <si>
+    <t>22462 B</t>
+  </si>
+  <si>
+    <t>22550 B</t>
+  </si>
+  <si>
+    <t>22650 B</t>
+  </si>
+  <si>
+    <t>22621 B</t>
+  </si>
+  <si>
+    <t>22716 B</t>
+  </si>
+  <si>
+    <t>22762 B</t>
+  </si>
+  <si>
+    <t>22875 B</t>
+  </si>
+  <si>
+    <t>23025 B</t>
+  </si>
+  <si>
+    <t>23031 B</t>
+  </si>
+  <si>
+    <t>23189 B</t>
+  </si>
+  <si>
+    <t>23273 B</t>
+  </si>
+  <si>
+    <t>23383 B</t>
+  </si>
+  <si>
+    <t>23385 B</t>
+  </si>
+  <si>
+    <t>23389 B</t>
+  </si>
+  <si>
+    <t>23528 B</t>
+  </si>
+  <si>
+    <t>23646 B</t>
+  </si>
+  <si>
+    <t>23798 B</t>
+  </si>
+  <si>
+    <t>23932 B</t>
+  </si>
+  <si>
+    <t>23933 B</t>
+  </si>
+  <si>
+    <t>23934 B</t>
+  </si>
+  <si>
+    <t>23935 B</t>
+  </si>
+  <si>
+    <t>24009 B</t>
+  </si>
+  <si>
+    <t>24043 B</t>
+  </si>
+  <si>
+    <t>24059 B</t>
+  </si>
+  <si>
+    <t>24060 B</t>
+  </si>
+  <si>
+    <t>24101 B</t>
+  </si>
+  <si>
+    <t>24266 B</t>
+  </si>
+  <si>
+    <t>24426 B</t>
+  </si>
+  <si>
+    <t>24599 B</t>
+  </si>
+  <si>
+    <t>24626 B</t>
+  </si>
+  <si>
+    <t>24661 B</t>
+  </si>
+  <si>
+    <t>24713 B</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1968,12 +2082,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -2386,6 +2511,57 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2443,57 +2619,6 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2511,6 +2636,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3396,13 +3527,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3449,13 +3580,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3502,13 +3633,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3555,13 +3686,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3608,13 +3739,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3669,7 +3800,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -3764,13 +3895,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4107,23 +4238,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="243"/>
-      <c r="C1" s="252" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="244"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4133,17 +4264,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="245" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="246"/>
+      <c r="B3" s="226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="227"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="247" t="s">
+      <c r="H3" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="247"/>
+      <c r="I3" s="228"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4159,14 +4290,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="H4" s="250" t="s">
+      <c r="F4" s="230"/>
+      <c r="H4" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="251"/>
+      <c r="I4" s="232"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4176,10 +4307,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="237" t="s">
+      <c r="P4" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="238"/>
+      <c r="Q4" s="219"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5674,11 +5805,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="239">
+      <c r="M39" s="220">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="241">
+      <c r="N39" s="222">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -5710,8 +5841,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="240"/>
-      <c r="N40" s="242"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="223"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -5944,29 +6075,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="227" t="s">
+      <c r="H52" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="228"/>
+      <c r="I52" s="245"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="229">
+      <c r="K52" s="246">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="230"/>
-      <c r="M52" s="218">
+      <c r="L52" s="247"/>
+      <c r="M52" s="235">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="219"/>
+      <c r="N52" s="236"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="231" t="s">
+      <c r="D53" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="231"/>
+      <c r="E53" s="248"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -5977,22 +6108,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="232" t="s">
+      <c r="D54" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="232"/>
+      <c r="E54" s="249"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="233" t="s">
+      <c r="I54" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="234"/>
-      <c r="K54" s="235">
+      <c r="J54" s="251"/>
+      <c r="K54" s="252">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="236"/>
+      <c r="L54" s="253"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6023,10 +6154,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="220">
-        <v>0</v>
-      </c>
-      <c r="L56" s="221"/>
+      <c r="K56" s="237">
+        <v>0</v>
+      </c>
+      <c r="L56" s="238"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6043,22 +6174,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="222" t="s">
+      <c r="D58" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="223"/>
+      <c r="E58" s="240"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="224" t="s">
+      <c r="I58" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="225"/>
-      <c r="K58" s="226">
+      <c r="J58" s="242"/>
+      <c r="K58" s="243">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="226"/>
+      <c r="L58" s="243"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6202,15 +6333,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:M1"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
@@ -6222,6 +6344,15 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7912,7 +8043,7 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -7935,23 +8066,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="243"/>
-      <c r="C1" s="252" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="244"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -7961,17 +8092,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="245" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="246"/>
+      <c r="B3" s="226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="227"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="247" t="s">
+      <c r="H3" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="247"/>
+      <c r="I3" s="228"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -7987,14 +8118,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="H4" s="250" t="s">
+      <c r="F4" s="230"/>
+      <c r="H4" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="251"/>
+      <c r="I4" s="232"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8004,10 +8135,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="237" t="s">
+      <c r="P4" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="238"/>
+      <c r="Q4" s="219"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9497,11 +9628,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="239">
+      <c r="M39" s="220">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="241">
+      <c r="N39" s="222">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -9527,8 +9658,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="240"/>
-      <c r="N40" s="242"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="223"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9743,29 +9874,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="227" t="s">
+      <c r="H52" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="228"/>
+      <c r="I52" s="245"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="229">
+      <c r="K52" s="246">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="230"/>
-      <c r="M52" s="218">
+      <c r="L52" s="247"/>
+      <c r="M52" s="235">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="219"/>
+      <c r="N52" s="236"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="231" t="s">
+      <c r="D53" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="231"/>
+      <c r="E53" s="248"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -9776,22 +9907,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="232" t="s">
+      <c r="D54" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="232"/>
+      <c r="E54" s="249"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="233" t="s">
+      <c r="I54" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="234"/>
-      <c r="K54" s="235">
+      <c r="J54" s="251"/>
+      <c r="K54" s="252">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="236"/>
+      <c r="L54" s="253"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9822,11 +9953,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="220">
+      <c r="K56" s="237">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="221"/>
+      <c r="L56" s="238"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -9843,22 +9974,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="222" t="s">
+      <c r="D58" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="223"/>
+      <c r="E58" s="240"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="224" t="s">
+      <c r="I58" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="225"/>
-      <c r="K58" s="226">
+      <c r="J58" s="242"/>
+      <c r="K58" s="243">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="226"/>
+      <c r="L58" s="243"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -10002,12 +10133,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10022,6 +10147,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10037,8 +10168,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10806,11 +10937,15 @@
       <c r="C44" s="186">
         <v>1725</v>
       </c>
-      <c r="D44" s="144"/>
-      <c r="E44" s="79"/>
+      <c r="D44" s="144">
+        <v>44477</v>
+      </c>
+      <c r="E44" s="79">
+        <v>337455.15</v>
+      </c>
       <c r="F44" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10821,7 +10956,7 @@
       <c r="E45" s="79"/>
       <c r="F45" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10832,7 +10967,7 @@
       <c r="E46" s="79"/>
       <c r="F46" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10843,7 +10978,7 @@
       <c r="E47" s="79"/>
       <c r="F47" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10854,7 +10989,7 @@
       <c r="E48" s="79"/>
       <c r="F48" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10865,7 +11000,7 @@
       <c r="E49" s="79"/>
       <c r="F49" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10876,7 +11011,7 @@
       <c r="E50" s="79"/>
       <c r="F50" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10887,7 +11022,7 @@
       <c r="E51" s="79"/>
       <c r="F51" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10898,7 +11033,7 @@
       <c r="E52" s="79"/>
       <c r="F52" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10909,7 +11044,7 @@
       <c r="E53" s="79"/>
       <c r="F53" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10920,7 +11055,7 @@
       <c r="E54" s="79"/>
       <c r="F54" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10931,7 +11066,7 @@
       <c r="E55" s="79"/>
       <c r="F55" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10942,7 +11077,7 @@
       <c r="E56" s="79"/>
       <c r="F56" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10953,7 +11088,7 @@
       <c r="E57" s="79"/>
       <c r="F57" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10964,7 +11099,7 @@
       <c r="E58" s="79"/>
       <c r="F58" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10975,7 +11110,7 @@
       <c r="E59" s="79"/>
       <c r="F59" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10986,7 +11121,7 @@
       <c r="E60" s="79"/>
       <c r="F60" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -10997,7 +11132,7 @@
       <c r="E61" s="79"/>
       <c r="F61" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -11008,7 +11143,7 @@
       <c r="E62" s="79"/>
       <c r="F62" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11019,7 +11154,7 @@
       <c r="E63" s="79"/>
       <c r="F63" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11030,7 +11165,7 @@
       <c r="E64" s="79"/>
       <c r="F64" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11041,7 +11176,7 @@
       <c r="E65" s="79"/>
       <c r="F65" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11052,7 +11187,7 @@
       <c r="E66" s="79"/>
       <c r="F66" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11063,7 +11198,7 @@
       <c r="E67" s="79"/>
       <c r="F67" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11074,7 +11209,7 @@
       <c r="E68" s="79"/>
       <c r="F68" s="145">
         <f t="shared" si="0"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11085,7 +11220,7 @@
       <c r="E69" s="79"/>
       <c r="F69" s="145">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11096,7 +11231,7 @@
       <c r="E70" s="79"/>
       <c r="F70" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11107,7 +11242,7 @@
       <c r="E71" s="79"/>
       <c r="F71" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11118,7 +11253,7 @@
       <c r="E72" s="79"/>
       <c r="F72" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11129,7 +11264,7 @@
       <c r="E73" s="79"/>
       <c r="F73" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11140,7 +11275,7 @@
       <c r="E74" s="79"/>
       <c r="F74" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11151,7 +11286,7 @@
       <c r="E75" s="79"/>
       <c r="F75" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11162,7 +11297,7 @@
       <c r="E76" s="79"/>
       <c r="F76" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11173,7 +11308,7 @@
       <c r="E77" s="79"/>
       <c r="F77" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11184,7 +11319,7 @@
       <c r="E78" s="79"/>
       <c r="F78" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11195,7 +11330,7 @@
       <c r="E79" s="79"/>
       <c r="F79" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11206,7 +11341,7 @@
       <c r="E80" s="79"/>
       <c r="F80" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11217,7 +11352,7 @@
       <c r="E81" s="83"/>
       <c r="F81" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11228,7 +11363,7 @@
       <c r="E82" s="83"/>
       <c r="F82" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11239,7 +11374,7 @@
       <c r="E83" s="83"/>
       <c r="F83" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11250,7 +11385,7 @@
       <c r="E84" s="83"/>
       <c r="F84" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11261,7 +11396,7 @@
       <c r="E85" s="83"/>
       <c r="F85" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11272,7 +11407,7 @@
       <c r="E86" s="83"/>
       <c r="F86" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11283,7 +11418,7 @@
       <c r="E87" s="79"/>
       <c r="F87" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11294,7 +11429,7 @@
       <c r="E88" s="79"/>
       <c r="F88" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11305,7 +11440,7 @@
       <c r="E89" s="79"/>
       <c r="F89" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11316,7 +11451,7 @@
       <c r="E90" s="79"/>
       <c r="F90" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11327,7 +11462,7 @@
       <c r="E91" s="79"/>
       <c r="F91" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11338,7 +11473,7 @@
       <c r="E92" s="79"/>
       <c r="F92" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11349,7 +11484,7 @@
       <c r="E93" s="79"/>
       <c r="F93" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11360,7 +11495,7 @@
       <c r="E94" s="79"/>
       <c r="F94" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11371,7 +11506,7 @@
       <c r="E95" s="79"/>
       <c r="F95" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11382,7 +11517,7 @@
       <c r="E96" s="79"/>
       <c r="F96" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11395,7 +11530,7 @@
       <c r="E97" s="151"/>
       <c r="F97" s="145">
         <f t="shared" si="1"/>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -11407,11 +11542,11 @@
       <c r="D98" s="103"/>
       <c r="E98" s="3">
         <f>SUM(E3:E97)</f>
-        <v>1086878.8</v>
+        <v>1424333.9500000002</v>
       </c>
       <c r="F98" s="153">
         <f>F97</f>
-        <v>337455.15000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -11616,10 +11751,10 @@
   <sheetPr>
     <tabColor rgb="FFFF6600"/>
   </sheetPr>
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11641,23 +11776,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="243"/>
-      <c r="C1" s="252" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="244"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -11667,17 +11802,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="245" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="246"/>
+      <c r="B3" s="226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="227"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="247" t="s">
+      <c r="H3" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="247"/>
+      <c r="I3" s="228"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -11693,14 +11828,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="H4" s="250" t="s">
+      <c r="F4" s="230"/>
+      <c r="H4" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="251"/>
+      <c r="I4" s="232"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -11710,10 +11845,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="237" t="s">
+      <c r="P4" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="238"/>
+      <c r="Q4" s="219"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -11800,11 +11935,11 @@
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="83">
-        <f t="shared" ref="P6:P32" si="0">N6+M6+L6+I6+C6</f>
+        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
         <v>42961</v>
       </c>
       <c r="Q6" s="216">
-        <f t="shared" ref="Q6:Q38" si="1">P6-F6</f>
+        <f t="shared" ref="Q6:Q39" si="1">P6-F6</f>
         <v>3244</v>
       </c>
       <c r="R6" s="26"/>
@@ -12901,7 +13036,7 @@
         <v>44499</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L31" s="72">
         <v>11707</v>
@@ -12968,25 +13103,43 @@
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="21">
+        <v>44501</v>
+      </c>
       <c r="C33" s="22"/>
       <c r="D33" s="74"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
+      <c r="E33" s="24">
+        <v>44501</v>
+      </c>
+      <c r="F33" s="25">
+        <v>67587</v>
+      </c>
       <c r="G33" s="26"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="75"/>
+      <c r="H33" s="32">
+        <v>44501</v>
+      </c>
+      <c r="I33" s="28">
+        <v>30</v>
+      </c>
+      <c r="J33" s="67">
+        <v>44501</v>
+      </c>
+      <c r="K33" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="L33" s="75">
+        <v>2082</v>
+      </c>
       <c r="M33" s="138">
-        <v>0</v>
+        <f>30000+33788</f>
+        <v>63788</v>
       </c>
       <c r="N33" s="30">
-        <v>0</v>
+        <v>1687</v>
       </c>
       <c r="P33" s="83">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>67587</v>
       </c>
       <c r="Q33" s="9">
         <f t="shared" si="1"/>
@@ -12996,31 +13149,39 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="21">
+        <v>44502</v>
+      </c>
       <c r="C34" s="22">
         <v>0</v>
       </c>
       <c r="D34" s="73"/>
-      <c r="E34" s="24"/>
+      <c r="E34" s="24">
+        <v>44502</v>
+      </c>
       <c r="F34" s="25">
-        <v>0</v>
+        <v>36382</v>
       </c>
       <c r="G34" s="26"/>
-      <c r="H34" s="32"/>
+      <c r="H34" s="32">
+        <v>44502</v>
+      </c>
       <c r="I34" s="28">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J34" s="67"/>
       <c r="K34" s="215"/>
       <c r="L34" s="76"/>
       <c r="M34" s="138">
-        <v>0</v>
+        <f>25417+10000</f>
+        <v>35417</v>
       </c>
       <c r="N34" s="30">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="P34" s="83">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>36382</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="1"/>
@@ -13030,31 +13191,41 @@
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="21">
+        <v>44503</v>
+      </c>
       <c r="C35" s="22">
-        <v>0</v>
-      </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="24"/>
+        <v>3220</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="24">
+        <v>44503</v>
+      </c>
       <c r="F35" s="25">
-        <v>0</v>
+        <v>50413</v>
       </c>
       <c r="G35" s="26"/>
-      <c r="H35" s="32"/>
+      <c r="H35" s="32">
+        <v>44503</v>
+      </c>
       <c r="I35" s="28">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J35" s="67"/>
       <c r="K35" s="71"/>
       <c r="L35" s="75"/>
       <c r="M35" s="138">
-        <v>0</v>
+        <f>20000+26083</f>
+        <v>46083</v>
       </c>
       <c r="N35" s="30">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="P35" s="83">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>50413</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="1"/>
@@ -13064,27 +13235,39 @@
     </row>
     <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="21">
+        <v>44504</v>
+      </c>
       <c r="C36" s="22">
         <v>0</v>
       </c>
       <c r="D36" s="70"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="24">
+        <v>44504</v>
+      </c>
       <c r="F36" s="25">
-        <v>0</v>
+        <v>54630</v>
       </c>
       <c r="G36" s="26"/>
-      <c r="H36" s="32"/>
+      <c r="H36" s="32">
+        <v>44504</v>
+      </c>
       <c r="I36" s="28">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J36" s="67"/>
       <c r="K36" s="78"/>
       <c r="L36" s="76"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="30"/>
+      <c r="M36" s="138">
+        <f>20000+34573</f>
+        <v>54573</v>
+      </c>
+      <c r="N36" s="30">
+        <v>0</v>
+      </c>
       <c r="P36" s="83">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>54630</v>
       </c>
       <c r="Q36" s="9">
         <f t="shared" si="1"/>
@@ -13094,27 +13277,39 @@
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="21">
+        <v>44505</v>
+      </c>
       <c r="C37" s="22">
         <v>0</v>
       </c>
       <c r="D37" s="73"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="24">
+        <v>44505</v>
+      </c>
       <c r="F37" s="25">
-        <v>0</v>
+        <v>67914</v>
       </c>
       <c r="G37" s="26"/>
-      <c r="H37" s="32"/>
+      <c r="H37" s="32">
+        <v>44505</v>
+      </c>
       <c r="I37" s="28">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J37" s="67"/>
       <c r="K37" s="184"/>
       <c r="L37" s="76"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="30"/>
+      <c r="M37" s="138">
+        <f>30000+36687</f>
+        <v>66687</v>
+      </c>
+      <c r="N37" s="30">
+        <v>1182</v>
+      </c>
       <c r="P37" s="83">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>67914</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="1"/>
@@ -13123,64 +13318,93 @@
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="21">
+        <v>44506</v>
+      </c>
       <c r="C38" s="22">
         <v>0</v>
       </c>
       <c r="D38" s="74"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="24">
+        <v>44506</v>
+      </c>
       <c r="F38" s="25">
-        <v>0</v>
+        <v>68932</v>
       </c>
       <c r="G38" s="26"/>
-      <c r="H38" s="32"/>
+      <c r="H38" s="32">
+        <v>44506</v>
+      </c>
       <c r="I38" s="28">
-        <v>0</v>
-      </c>
-      <c r="J38" s="67"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="J38" s="67">
+        <v>44506</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" s="75">
+        <v>12521.31</v>
+      </c>
+      <c r="M38" s="138">
+        <f>35000+16076</f>
+        <v>51076</v>
+      </c>
+      <c r="N38" s="30">
+        <v>5320</v>
+      </c>
       <c r="P38" s="83">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>68932.31</v>
       </c>
       <c r="Q38" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.30999999999767169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="80"/>
+      <c r="B39" s="21">
+        <v>44507</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="24">
+        <v>44507</v>
+      </c>
+      <c r="F39" s="260">
+        <v>100049</v>
+      </c>
       <c r="G39" s="26"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="81"/>
+      <c r="H39" s="32">
+        <v>44507</v>
+      </c>
+      <c r="I39" s="28">
+        <v>0</v>
+      </c>
       <c r="J39" s="67"/>
-      <c r="K39" s="82"/>
+      <c r="K39" s="71"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="239">
-        <f>SUM(M5:M38)</f>
-        <v>1569020.5</v>
-      </c>
-      <c r="N39" s="241">
-        <f>SUM(N5:N38)</f>
-        <v>48318</v>
+      <c r="M39" s="261">
+        <f>80000+16300</f>
+        <v>96300</v>
+      </c>
+      <c r="N39" s="262">
+        <v>3755</v>
       </c>
       <c r="P39" s="83">
-        <f>SUM(P5:P38)</f>
-        <v>1699078.5</v>
+        <f t="shared" si="0"/>
+        <v>100055</v>
       </c>
       <c r="Q39" s="9">
-        <f>SUM(Q5:Q38)</f>
-        <v>5720.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="79"/>
@@ -13191,28 +13415,40 @@
       <c r="H40" s="32"/>
       <c r="I40" s="81"/>
       <c r="J40" s="67"/>
-      <c r="K40" s="71"/>
+      <c r="K40" s="82"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="240"/>
-      <c r="N40" s="242"/>
-      <c r="P40" s="83"/>
-      <c r="Q40" s="9"/>
+      <c r="M40" s="220">
+        <f>SUM(M5:M38)</f>
+        <v>1886644.5</v>
+      </c>
+      <c r="N40" s="222">
+        <f>SUM(N5:N39)</f>
+        <v>62048</v>
+      </c>
+      <c r="P40" s="83">
+        <f>SUM(P5:P38)</f>
+        <v>2044936.81</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>SUM(Q5:Q38)</f>
+        <v>5720.8099999999977</v>
+      </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="196"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="80"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="85"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="81"/>
       <c r="J41" s="67"/>
       <c r="K41" s="71"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="199"/>
-      <c r="N41" s="198"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="223"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13270,7 +13506,7 @@
       <c r="P44" s="83"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="84"/>
@@ -13342,219 +13578,230 @@
       <c r="P48" s="83"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="22">
-        <v>0</v>
-      </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="84"/>
-      <c r="H49" s="91"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="197"/>
       <c r="I49" s="85"/>
-      <c r="J49" s="200"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="30"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="199"/>
+      <c r="N49" s="198"/>
       <c r="P49" s="83"/>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="93">
-        <f>SUM(C5:C49)</f>
-        <v>27300.5</v>
-      </c>
-      <c r="D50" s="94"/>
-      <c r="E50" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="96">
-        <f>SUM(F5:F49)</f>
-        <v>1693358</v>
-      </c>
-      <c r="G50" s="94"/>
-      <c r="H50" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="98">
-        <f>SUM(I5:I49)</f>
-        <v>1492.5</v>
-      </c>
-      <c r="J50" s="99"/>
-      <c r="K50" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" s="101">
-        <f>SUM(L5:L49)</f>
-        <v>52947</v>
-      </c>
-      <c r="M50" s="102"/>
-      <c r="N50" s="102"/>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="22">
+        <v>0</v>
+      </c>
+      <c r="D50" s="89"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="84"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="30"/>
       <c r="P50" s="83"/>
       <c r="Q50" s="9"/>
     </row>
-    <row r="51" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="93">
+        <f>SUM(C5:C50)</f>
+        <v>30520.5</v>
+      </c>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="96">
+        <f>SUM(F5:F50)</f>
+        <v>2139265</v>
+      </c>
+      <c r="G51" s="94"/>
+      <c r="H51" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="98">
+        <f>SUM(I5:I50)</f>
+        <v>1928.5</v>
+      </c>
+      <c r="J51" s="99"/>
+      <c r="K51" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="101">
+        <f>SUM(L5:L50)</f>
+        <v>67550.31</v>
+      </c>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
       <c r="P51" s="83"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="104"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="3"/>
-      <c r="H52" s="227" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="228"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="229">
-        <f>I50+L50</f>
-        <v>54439.5</v>
-      </c>
-      <c r="L52" s="230"/>
-      <c r="M52" s="218">
-        <f>N39+M39</f>
-        <v>1617338.5</v>
-      </c>
-      <c r="N52" s="219"/>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="231" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="231"/>
-      <c r="F53" s="107">
-        <f>F50-K52-C50</f>
-        <v>1611618</v>
-      </c>
-      <c r="I53" s="108"/>
-      <c r="J53" s="109"/>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="104"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="3"/>
+      <c r="H53" s="244" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="245"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="246">
+        <f>I51+L51</f>
+        <v>69478.81</v>
+      </c>
+      <c r="L53" s="247"/>
+      <c r="M53" s="235">
+        <f>N40+M40</f>
+        <v>1948692.5</v>
+      </c>
+      <c r="N53" s="236"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="232" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="232"/>
-      <c r="F54" s="102">
-        <v>0</v>
-      </c>
-      <c r="I54" s="233" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="234"/>
-      <c r="K54" s="235">
-        <f>F56+F57+F58</f>
-        <v>1611618</v>
-      </c>
-      <c r="L54" s="236"/>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="248" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="248"/>
+      <c r="F54" s="107">
+        <f>F51-K53-C51</f>
+        <v>2039265.69</v>
+      </c>
+      <c r="I54" s="108"/>
+      <c r="J54" s="109"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
-    <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="110"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="111">
-        <v>0</v>
-      </c>
-      <c r="I55" s="112"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="114"/>
-      <c r="L55" s="115"/>
-    </row>
-    <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="5" t="s">
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="249" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="249"/>
+      <c r="F55" s="102">
+        <v>0</v>
+      </c>
+      <c r="I55" s="250" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="251"/>
+      <c r="K55" s="252">
+        <f>F57+F58+F59</f>
+        <v>2047235.69</v>
+      </c>
+      <c r="L55" s="253"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="110"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="111">
+        <v>0</v>
+      </c>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="114"/>
+      <c r="L56" s="115"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="104" t="s">
+      <c r="E57" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="102">
-        <f>SUM(F53:F55)</f>
-        <v>1611618</v>
-      </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="116" t="s">
+      <c r="F57" s="102">
+        <f>SUM(F54:F56)</f>
+        <v>2039265.69</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="117"/>
-      <c r="K56" s="220">
+      <c r="J57" s="117"/>
+      <c r="K57" s="237">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L56" s="221"/>
-    </row>
-    <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="118" t="s">
+      <c r="L57" s="238"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="104" t="s">
+      <c r="E58" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="120">
-        <v>44472</v>
-      </c>
-      <c r="D58" s="222" t="s">
+      <c r="F58" s="119">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="120">
+        <v>44507</v>
+      </c>
+      <c r="D59" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="223"/>
-      <c r="F58" s="121">
-        <v>0</v>
-      </c>
-      <c r="I58" s="224" t="s">
+      <c r="E59" s="240"/>
+      <c r="F59" s="121">
+        <v>0</v>
+      </c>
+      <c r="I59" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="225"/>
-      <c r="K58" s="226">
-        <f>K54+K56</f>
-        <v>1476769.1099999999</v>
-      </c>
-      <c r="L58" s="226"/>
-    </row>
-    <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C59" s="122"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="125"/>
-      <c r="J59" s="126"/>
-    </row>
-    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="192"/>
-      <c r="J60" s="192"/>
-      <c r="K60" s="193"/>
-      <c r="L60" s="193"/>
-    </row>
-    <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="127"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="83"/>
+      <c r="J59" s="242"/>
+      <c r="K59" s="243">
+        <f>K55+K57</f>
+        <v>1912386.7999999998</v>
+      </c>
+      <c r="L59" s="243"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="122"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="125"/>
+      <c r="J60" s="126"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="193"/>
       <c r="L61" s="193"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="104"/>
-    </row>
-    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="127"/>
-      <c r="C62" s="130"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="129"/>
       <c r="E62" s="83"/>
+      <c r="I62" s="192"/>
+      <c r="J62" s="192"/>
+      <c r="K62" s="193"/>
+      <c r="L62" s="193"/>
       <c r="M62" s="1"/>
       <c r="N62" s="104"/>
     </row>
@@ -13562,28 +13809,29 @@
       <c r="B63" s="127"/>
       <c r="C63" s="130"/>
       <c r="E63" s="83"/>
-      <c r="F63" s="131"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="3"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="104"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="127"/>
       <c r="C64" s="130"/>
       <c r="E64" s="83"/>
+      <c r="F64" s="131"/>
+      <c r="L64" s="132"/>
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="127"/>
       <c r="C65" s="130"/>
-      <c r="D65" s="133"/>
       <c r="E65" s="83"/>
-      <c r="F65" s="134"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="127"/>
+      <c r="C66" s="130"/>
       <c r="D66" s="133"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="134"/>
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -13650,11 +13898,12 @@
       <c r="D77" s="133"/>
       <c r="E77" s="135"/>
       <c r="F77" s="83"/>
+      <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D78" s="133"/>
-      <c r="E78" s="133"/>
-      <c r="F78" s="134"/>
+      <c r="E78" s="135"/>
+      <c r="F78" s="83"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" s="133"/>
@@ -13666,28 +13915,33 @@
       <c r="E80" s="133"/>
       <c r="F80" s="134"/>
     </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="133"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="134"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.16" top="0.3" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13703,8 +13957,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13750,411 +14004,649 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="141">
+        <v>44473</v>
+      </c>
+      <c r="B3" s="179" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="79">
+        <v>50651.9</v>
+      </c>
       <c r="D3" s="203"/>
       <c r="E3" s="79"/>
       <c r="F3" s="143">
         <f>C3-E3</f>
-        <v>0</v>
+        <v>50651.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="79"/>
+      <c r="A4" s="141">
+        <v>44473</v>
+      </c>
+      <c r="B4" s="179" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="79">
+        <v>2150</v>
+      </c>
       <c r="D4" s="203"/>
       <c r="E4" s="79"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
-        <v>0</v>
+        <v>52801.9</v>
       </c>
       <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="141"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="79"/>
+      <c r="A5" s="141">
+        <v>44474</v>
+      </c>
+      <c r="B5" s="179" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="79">
+        <v>46347</v>
+      </c>
+      <c r="D5" s="263">
+        <v>44477</v>
+      </c>
+      <c r="E5" s="79">
+        <v>99148.9</v>
+      </c>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="141"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="79"/>
+      <c r="A6" s="141">
+        <v>44475</v>
+      </c>
+      <c r="B6" s="179" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="79">
+        <v>54073</v>
+      </c>
       <c r="D6" s="203"/>
       <c r="E6" s="79"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54073</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="141"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="79"/>
+      <c r="A7" s="141">
+        <v>44476</v>
+      </c>
+      <c r="B7" s="179" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="79">
+        <v>86045.04</v>
+      </c>
       <c r="D7" s="203"/>
       <c r="E7" s="79"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140118.03999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="141">
+        <v>44476</v>
+      </c>
+      <c r="B8" s="179" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="79">
+        <v>1402</v>
+      </c>
       <c r="D8" s="203"/>
       <c r="E8" s="79"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141520.03999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="79"/>
+      <c r="A9" s="141">
+        <v>44477</v>
+      </c>
+      <c r="B9" s="179" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="79">
+        <v>61000.3</v>
+      </c>
       <c r="D9" s="203"/>
       <c r="E9" s="79"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>202520.33999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="141"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="141">
+        <v>44477</v>
+      </c>
+      <c r="B10" s="179" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="79">
+        <v>8808.7999999999993</v>
+      </c>
       <c r="D10" s="203"/>
       <c r="E10" s="79"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>211329.13999999996</v>
       </c>
       <c r="G10" s="146"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="141"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="79"/>
+      <c r="A11" s="141">
+        <v>44477</v>
+      </c>
+      <c r="B11" s="142" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="79">
+        <v>7339.8</v>
+      </c>
       <c r="D11" s="144"/>
       <c r="E11" s="79"/>
       <c r="F11" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>218668.93999999994</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="144">
+        <v>44478</v>
+      </c>
+      <c r="B12" s="142" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="79">
+        <v>67018.02</v>
+      </c>
       <c r="D12" s="144"/>
       <c r="E12" s="79"/>
       <c r="F12" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>285686.95999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="79"/>
+      <c r="A13" s="144">
+        <v>44478</v>
+      </c>
+      <c r="B13" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="79">
+        <v>1500</v>
+      </c>
       <c r="D13" s="144"/>
       <c r="E13" s="79"/>
       <c r="F13" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>287186.95999999996</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="79"/>
+      <c r="A14" s="144">
+        <v>44480</v>
+      </c>
+      <c r="B14" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="79">
+        <v>22710.65</v>
+      </c>
       <c r="D14" s="144"/>
       <c r="E14" s="79"/>
       <c r="F14" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>309897.61</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="79"/>
+      <c r="A15" s="144">
+        <v>44481</v>
+      </c>
+      <c r="B15" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="79">
+        <v>55325.3</v>
+      </c>
       <c r="D15" s="144"/>
       <c r="E15" s="79"/>
       <c r="F15" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>365222.91</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="79"/>
+      <c r="A16" s="144">
+        <v>44481</v>
+      </c>
+      <c r="B16" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="79">
+        <v>13416.8</v>
+      </c>
+      <c r="D16" s="144">
+        <v>44484</v>
+      </c>
+      <c r="E16" s="79">
+        <v>378639.71</v>
+      </c>
       <c r="F16" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="79"/>
+      <c r="A17" s="144">
+        <v>44483</v>
+      </c>
+      <c r="B17" s="142" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="79">
+        <v>82451</v>
+      </c>
       <c r="D17" s="144"/>
       <c r="E17" s="79"/>
       <c r="F17" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82451</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="79"/>
+      <c r="A18" s="144">
+        <v>44483</v>
+      </c>
+      <c r="B18" s="142" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="79">
+        <v>20148.8</v>
+      </c>
       <c r="D18" s="144"/>
       <c r="E18" s="79"/>
       <c r="F18" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102599.8</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="144">
+        <v>44484</v>
+      </c>
+      <c r="B19" s="142" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="79">
+        <v>77495.8</v>
+      </c>
       <c r="D19" s="144"/>
       <c r="E19" s="79"/>
       <c r="F19" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180095.6</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="79"/>
+      <c r="A20" s="144">
+        <v>44484</v>
+      </c>
+      <c r="B20" s="142" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="79">
+        <v>7988.6</v>
+      </c>
       <c r="D20" s="144"/>
       <c r="E20" s="79"/>
       <c r="F20" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>188084.2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="144"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="144">
+        <v>44484</v>
+      </c>
+      <c r="B21" s="142" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="79">
+        <v>9648.2000000000007</v>
+      </c>
       <c r="D21" s="144"/>
       <c r="E21" s="79"/>
       <c r="F21" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>197732.40000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="79"/>
+      <c r="A22" s="144">
+        <v>44485</v>
+      </c>
+      <c r="B22" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="79">
+        <v>51666.2</v>
+      </c>
       <c r="D22" s="144"/>
       <c r="E22" s="79"/>
       <c r="F22" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>249398.60000000003</v>
       </c>
       <c r="G22" s="146"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="144"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="79"/>
+      <c r="A23" s="144">
+        <v>44487</v>
+      </c>
+      <c r="B23" s="142" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="79">
+        <v>79833.2</v>
+      </c>
       <c r="D23" s="144"/>
       <c r="E23" s="79"/>
       <c r="F23" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>329231.80000000005</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="144"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="79"/>
+      <c r="A24" s="144">
+        <v>44488</v>
+      </c>
+      <c r="B24" s="142" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="79">
+        <v>64076</v>
+      </c>
       <c r="D24" s="144"/>
       <c r="E24" s="79"/>
       <c r="F24" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>393307.80000000005</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="144"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="79"/>
+      <c r="A25" s="144">
+        <v>44489</v>
+      </c>
+      <c r="B25" s="142" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="79">
+        <v>31164.799999999999</v>
+      </c>
       <c r="D25" s="144"/>
       <c r="E25" s="79"/>
       <c r="F25" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>424472.60000000003</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="144"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="79"/>
+      <c r="A26" s="144">
+        <v>44489</v>
+      </c>
+      <c r="B26" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="79">
+        <v>5946.6</v>
+      </c>
+      <c r="D26" s="144">
+        <v>44491</v>
+      </c>
+      <c r="E26" s="79">
+        <v>430419.20000000001</v>
+      </c>
       <c r="F26" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="144"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="79"/>
+      <c r="A27" s="144">
+        <v>44489</v>
+      </c>
+      <c r="B27" s="142" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="79">
+        <v>3243.6</v>
+      </c>
       <c r="D27" s="144"/>
       <c r="E27" s="79"/>
       <c r="F27" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3243.6</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="144"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="79"/>
+      <c r="A28" s="144">
+        <v>44489</v>
+      </c>
+      <c r="B28" s="142" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="79">
+        <v>3376.1</v>
+      </c>
       <c r="D28" s="144"/>
       <c r="E28" s="79"/>
       <c r="F28" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6619.7</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="144"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="79"/>
+      <c r="A29" s="144">
+        <v>44490</v>
+      </c>
+      <c r="B29" s="142" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="79">
+        <v>8052</v>
+      </c>
       <c r="D29" s="144"/>
       <c r="E29" s="79"/>
       <c r="F29" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14671.7</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="144"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="79"/>
+      <c r="A30" s="144">
+        <v>44490</v>
+      </c>
+      <c r="B30" s="142" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="79">
+        <v>1760</v>
+      </c>
       <c r="D30" s="144"/>
       <c r="E30" s="79"/>
       <c r="F30" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16431.7</v>
       </c>
       <c r="G30" s="146"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="144"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="79"/>
+      <c r="A31" s="144">
+        <v>44490</v>
+      </c>
+      <c r="B31" s="142" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="79">
+        <v>81570.8</v>
+      </c>
       <c r="D31" s="144"/>
       <c r="E31" s="79"/>
       <c r="F31" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98002.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="144"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="79"/>
+      <c r="A32" s="144">
+        <v>44490</v>
+      </c>
+      <c r="B32" s="142" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="79">
+        <v>7662.2</v>
+      </c>
       <c r="D32" s="144"/>
       <c r="E32" s="79"/>
       <c r="F32" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105664.7</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="144"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="79"/>
+      <c r="A33" s="144">
+        <v>44491</v>
+      </c>
+      <c r="B33" s="142" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="79">
+        <v>90125.7</v>
+      </c>
       <c r="D33" s="144"/>
       <c r="E33" s="79"/>
       <c r="F33" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>195790.4</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="144"/>
-      <c r="B34" s="142"/>
-      <c r="C34" s="79"/>
+      <c r="A34" s="144">
+        <v>44492</v>
+      </c>
+      <c r="B34" s="142" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="79">
+        <v>53388.5</v>
+      </c>
       <c r="D34" s="144"/>
       <c r="E34" s="79"/>
       <c r="F34" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>249178.9</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="144"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="79"/>
+      <c r="A35" s="144">
+        <v>44494</v>
+      </c>
+      <c r="B35" s="142" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="79">
+        <v>42608.7</v>
+      </c>
       <c r="D35" s="144"/>
       <c r="E35" s="79"/>
       <c r="F35" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>291787.59999999998</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="144"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="79"/>
+      <c r="A36" s="144">
+        <v>44495</v>
+      </c>
+      <c r="B36" s="142" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="79">
+        <v>30691.21</v>
+      </c>
       <c r="D36" s="144"/>
       <c r="E36" s="79"/>
       <c r="F36" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>322478.81</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="144"/>
-      <c r="B37" s="142"/>
-      <c r="C37" s="79"/>
+      <c r="A37" s="144">
+        <v>44496</v>
+      </c>
+      <c r="B37" s="142" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="79">
+        <v>47177.54</v>
+      </c>
       <c r="D37" s="144"/>
       <c r="E37" s="79"/>
       <c r="F37" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>369656.35</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="144"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="79"/>
+      <c r="A38" s="144">
+        <v>44496</v>
+      </c>
+      <c r="B38" s="142" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="79">
+        <v>2020.8</v>
+      </c>
       <c r="D38" s="144"/>
       <c r="E38" s="79"/>
       <c r="F38" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>371677.14999999997</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="144"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="79"/>
+      <c r="A39" s="144">
+        <v>44496</v>
+      </c>
+      <c r="B39" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="79">
+        <v>30822.799999999999</v>
+      </c>
+      <c r="D39" s="144">
+        <v>44498</v>
+      </c>
+      <c r="E39" s="79">
+        <v>402499.95</v>
+      </c>
       <c r="F39" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14804,12 +15296,12 @@
       <c r="B98" s="104"/>
       <c r="C98" s="3">
         <f>SUM(C3:C97)</f>
-        <v>0</v>
+        <v>1310707.76</v>
       </c>
       <c r="D98" s="103"/>
       <c r="E98" s="3">
         <f>SUM(E3:E97)</f>
-        <v>0</v>
+        <v>1310707.76</v>
       </c>
       <c r="F98" s="153">
         <f>F97</f>
@@ -15033,7 +15525,7 @@
   <dimension ref="A23:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15064,22 +15556,22 @@
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="168">
-        <v>44499</v>
+        <v>44504</v>
       </c>
       <c r="B46" s="169" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C46" s="170">
-        <v>75</v>
+        <v>9981.4500000000007</v>
       </c>
       <c r="D46" s="171" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="172" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F46" s="107">
-        <v>56</v>
+        <v>2781</v>
       </c>
       <c r="G46" s="209"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/BALANCE  HERRADURA  OCTUBRE   2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="A G O S T O    2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="266">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -934,6 +934,75 @@
   </si>
   <si>
     <t>24713 B</t>
+  </si>
+  <si>
+    <t>24756 B</t>
+  </si>
+  <si>
+    <t>24761 B</t>
+  </si>
+  <si>
+    <t>24762 B</t>
+  </si>
+  <si>
+    <t>24801 B</t>
+  </si>
+  <si>
+    <t>00067 C</t>
+  </si>
+  <si>
+    <t>00070 C</t>
+  </si>
+  <si>
+    <t>00224 C</t>
+  </si>
+  <si>
+    <t>00225 C</t>
+  </si>
+  <si>
+    <t>00279 C</t>
+  </si>
+  <si>
+    <t>00301 C</t>
+  </si>
+  <si>
+    <t>00461 C</t>
+  </si>
+  <si>
+    <t>00464 C</t>
+  </si>
+  <si>
+    <t>00504 C</t>
+  </si>
+  <si>
+    <t>00507 C</t>
+  </si>
+  <si>
+    <t>00512 C</t>
+  </si>
+  <si>
+    <t>00638 C</t>
+  </si>
+  <si>
+    <t>00708 C</t>
+  </si>
+  <si>
+    <t>00804 C</t>
+  </si>
+  <si>
+    <t>00814 C</t>
+  </si>
+  <si>
+    <t>00895 C</t>
+  </si>
+  <si>
+    <t>COMISION ??</t>
+  </si>
+  <si>
+    <t>OCTUBRE.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMISION P.V. </t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -2511,56 +2580,11 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2619,6 +2643,57 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2637,11 +2712,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4238,23 +4311,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="224"/>
-      <c r="C1" s="233" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="225"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -4264,17 +4337,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="227"/>
+      <c r="B3" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="250"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="228" t="s">
+      <c r="H3" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="228"/>
+      <c r="I3" s="251"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -4290,14 +4363,14 @@
       <c r="D4" s="16">
         <v>44410</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="H4" s="231" t="s">
+      <c r="F4" s="253"/>
+      <c r="H4" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="232"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -4307,10 +4380,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="218" t="s">
+      <c r="P4" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="219"/>
+      <c r="Q4" s="242"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -5805,11 +5878,11 @@
       <c r="L39" s="69">
         <v>454.62</v>
       </c>
-      <c r="M39" s="220">
+      <c r="M39" s="243">
         <f>SUM(M5:M38)</f>
         <v>1393675.5</v>
       </c>
-      <c r="N39" s="222">
+      <c r="N39" s="245">
         <f>SUM(N5:N38)</f>
         <v>28399.97</v>
       </c>
@@ -5841,8 +5914,8 @@
       <c r="L40" s="69">
         <v>1195.67</v>
       </c>
-      <c r="M40" s="221"/>
-      <c r="N40" s="223"/>
+      <c r="M40" s="244"/>
+      <c r="N40" s="246"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -6075,29 +6148,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="244" t="s">
+      <c r="H52" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="245"/>
+      <c r="I52" s="232"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="246">
+      <c r="K52" s="233">
         <f>I50+L50</f>
         <v>80916.84</v>
       </c>
-      <c r="L52" s="247"/>
-      <c r="M52" s="235">
+      <c r="L52" s="234"/>
+      <c r="M52" s="222">
         <f>N39+M39</f>
         <v>1422075.47</v>
       </c>
-      <c r="N52" s="236"/>
+      <c r="N52" s="223"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="248" t="s">
+      <c r="D53" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="248"/>
+      <c r="E53" s="235"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1396181.44</v>
@@ -6108,22 +6181,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="249" t="s">
+      <c r="D54" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="249"/>
+      <c r="E54" s="236"/>
       <c r="F54" s="102">
         <v>-1523111</v>
       </c>
-      <c r="I54" s="250" t="s">
+      <c r="I54" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="251"/>
-      <c r="K54" s="252">
+      <c r="J54" s="238"/>
+      <c r="K54" s="239">
         <f>F56+F57+F58</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L54" s="253"/>
+      <c r="L54" s="240"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -6154,10 +6227,10 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="237">
-        <v>0</v>
-      </c>
-      <c r="L56" s="238"/>
+      <c r="K56" s="224">
+        <v>0</v>
+      </c>
+      <c r="L56" s="225"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -6174,22 +6247,22 @@
       <c r="C58" s="120">
         <v>44444</v>
       </c>
-      <c r="D58" s="239" t="s">
+      <c r="D58" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="240"/>
+      <c r="E58" s="227"/>
       <c r="F58" s="121">
         <v>136234.76999999999</v>
       </c>
-      <c r="I58" s="241" t="s">
+      <c r="I58" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="242"/>
-      <c r="K58" s="243">
+      <c r="J58" s="229"/>
+      <c r="K58" s="230">
         <f>K54+K56</f>
         <v>9305.2099999999336</v>
       </c>
-      <c r="L58" s="243"/>
+      <c r="L58" s="230"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -6333,6 +6406,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:M1"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:E58"/>
@@ -6344,15 +6426,6 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6424,7 +6497,7 @@
       <c r="C3" s="35">
         <v>3015.96</v>
       </c>
-      <c r="D3" s="254" t="s">
+      <c r="D3" s="258" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="9"/>
@@ -6443,7 +6516,7 @@
       <c r="C4" s="35">
         <v>10281</v>
       </c>
-      <c r="D4" s="255"/>
+      <c r="D4" s="259"/>
       <c r="E4" s="180"/>
       <c r="F4" s="145">
         <f>F3+C4-E4</f>
@@ -6461,7 +6534,7 @@
       <c r="C5" s="35">
         <v>12746.2</v>
       </c>
-      <c r="D5" s="255"/>
+      <c r="D5" s="259"/>
       <c r="E5" s="180"/>
       <c r="F5" s="145">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
@@ -6478,7 +6551,7 @@
       <c r="C6" s="35">
         <v>28974.78</v>
       </c>
-      <c r="D6" s="255"/>
+      <c r="D6" s="259"/>
       <c r="E6" s="180"/>
       <c r="F6" s="145">
         <f t="shared" si="0"/>
@@ -6495,7 +6568,7 @@
       <c r="C7" s="35">
         <v>44758.6</v>
       </c>
-      <c r="D7" s="255"/>
+      <c r="D7" s="259"/>
       <c r="E7" s="180"/>
       <c r="F7" s="145">
         <f t="shared" si="0"/>
@@ -6512,7 +6585,7 @@
       <c r="C8" s="35">
         <v>12841.78</v>
       </c>
-      <c r="D8" s="255"/>
+      <c r="D8" s="259"/>
       <c r="E8" s="180"/>
       <c r="F8" s="145">
         <f t="shared" si="0"/>
@@ -6529,7 +6602,7 @@
       <c r="C9" s="35">
         <v>3898.05</v>
       </c>
-      <c r="D9" s="255"/>
+      <c r="D9" s="259"/>
       <c r="E9" s="180"/>
       <c r="F9" s="145">
         <f t="shared" si="0"/>
@@ -6546,7 +6619,7 @@
       <c r="C10" s="35">
         <v>1429</v>
       </c>
-      <c r="D10" s="256"/>
+      <c r="D10" s="260"/>
       <c r="E10" s="180"/>
       <c r="F10" s="145">
         <f t="shared" si="0"/>
@@ -8043,7 +8116,7 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -8066,23 +8139,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="224"/>
-      <c r="C1" s="233" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="225"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -8092,17 +8165,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="227"/>
+      <c r="B3" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="250"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="228" t="s">
+      <c r="H3" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="228"/>
+      <c r="I3" s="251"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -8118,14 +8191,14 @@
       <c r="D4" s="16">
         <v>44444</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="H4" s="231" t="s">
+      <c r="F4" s="253"/>
+      <c r="H4" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="232"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8135,10 +8208,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="218" t="s">
+      <c r="P4" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="219"/>
+      <c r="Q4" s="242"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -9628,11 +9701,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="82"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="220">
+      <c r="M39" s="243">
         <f>SUM(M5:M38)</f>
         <v>1464441</v>
       </c>
-      <c r="N39" s="222">
+      <c r="N39" s="245">
         <f>SUM(N5:N38)</f>
         <v>53494</v>
       </c>
@@ -9658,8 +9731,8 @@
       <c r="J40" s="67"/>
       <c r="K40" s="71"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="221"/>
-      <c r="N40" s="223"/>
+      <c r="M40" s="244"/>
+      <c r="N40" s="246"/>
       <c r="P40" s="83"/>
       <c r="Q40" s="9"/>
     </row>
@@ -9874,29 +9947,29 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="3"/>
-      <c r="H52" s="244" t="s">
+      <c r="H52" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="245"/>
+      <c r="I52" s="232"/>
       <c r="J52" s="106"/>
-      <c r="K52" s="246">
+      <c r="K52" s="233">
         <f>I50+L50</f>
         <v>69642.26999999999</v>
       </c>
-      <c r="L52" s="247"/>
-      <c r="M52" s="235">
+      <c r="L52" s="234"/>
+      <c r="M52" s="222">
         <f>N39+M39</f>
         <v>1517935</v>
       </c>
-      <c r="N52" s="236"/>
+      <c r="N52" s="223"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="248" t="s">
+      <c r="D53" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="248"/>
+      <c r="E53" s="235"/>
       <c r="F53" s="107">
         <f>F50-K52-C50</f>
         <v>1505921.23</v>
@@ -9907,22 +9980,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="249" t="s">
+      <c r="D54" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="249"/>
+      <c r="E54" s="236"/>
       <c r="F54" s="102">
         <v>-1424333.95</v>
       </c>
-      <c r="I54" s="250" t="s">
+      <c r="I54" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="251"/>
-      <c r="K54" s="252">
+      <c r="J54" s="238"/>
+      <c r="K54" s="239">
         <f>F56+F57+F58</f>
         <v>222140.17000000004</v>
       </c>
-      <c r="L54" s="253"/>
+      <c r="L54" s="240"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="9"/>
     </row>
@@ -9953,11 +10026,11 @@
         <v>13</v>
       </c>
       <c r="J56" s="117"/>
-      <c r="K56" s="237">
+      <c r="K56" s="224">
         <f>-C4</f>
         <v>-136234.76999999999</v>
       </c>
-      <c r="L56" s="238"/>
+      <c r="L56" s="225"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="118" t="s">
@@ -9974,22 +10047,22 @@
       <c r="C58" s="120">
         <v>44472</v>
       </c>
-      <c r="D58" s="239" t="s">
+      <c r="D58" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="240"/>
+      <c r="E58" s="227"/>
       <c r="F58" s="121">
         <v>134848.89000000001</v>
       </c>
-      <c r="I58" s="241" t="s">
+      <c r="I58" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="242"/>
-      <c r="K58" s="243">
+      <c r="J58" s="229"/>
+      <c r="K58" s="230">
         <f>K54+K56</f>
         <v>85905.400000000052</v>
       </c>
-      <c r="L58" s="243"/>
+      <c r="L58" s="230"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="122"/>
@@ -10133,6 +10206,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -10147,12 +10226,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10168,7 +10241,7 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -11753,8 +11826,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11776,23 +11849,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="224"/>
-      <c r="C1" s="233" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="256" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="225"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="2"/>
@@ -11802,17 +11875,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="227"/>
+      <c r="B3" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="250"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="228" t="s">
+      <c r="H3" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="228"/>
+      <c r="I3" s="251"/>
       <c r="K3" s="136"/>
       <c r="L3" s="136"/>
       <c r="M3" s="137"/>
@@ -11828,14 +11901,14 @@
       <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="H4" s="231" t="s">
+      <c r="F4" s="253"/>
+      <c r="H4" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="232"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -11845,10 +11918,10 @@
       <c r="N4" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="218" t="s">
+      <c r="P4" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="219"/>
+      <c r="Q4" s="242"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -11952,7 +12025,7 @@
       <c r="C7" s="22">
         <v>1148</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="38" t="s">
         <v>187</v>
       </c>
       <c r="E7" s="24">
@@ -12083,7 +12156,7 @@
       <c r="C10" s="22">
         <v>4462</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="31" t="s">
         <v>188</v>
       </c>
       <c r="E10" s="24">
@@ -13375,7 +13448,7 @@
       <c r="E39" s="24">
         <v>44507</v>
       </c>
-      <c r="F39" s="260">
+      <c r="F39" s="218">
         <v>100049</v>
       </c>
       <c r="G39" s="26"/>
@@ -13388,11 +13461,11 @@
       <c r="J39" s="67"/>
       <c r="K39" s="71"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="261">
+      <c r="M39" s="219">
         <f>80000+16300</f>
         <v>96300</v>
       </c>
-      <c r="N39" s="262">
+      <c r="N39" s="220">
         <v>3755</v>
       </c>
       <c r="P39" s="83">
@@ -13414,22 +13487,28 @@
       <c r="G40" s="26"/>
       <c r="H40" s="32"/>
       <c r="I40" s="81"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="220">
-        <f>SUM(M5:M38)</f>
-        <v>1886644.5</v>
-      </c>
-      <c r="N40" s="222">
+      <c r="J40" s="67">
+        <v>44476</v>
+      </c>
+      <c r="K40" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="L40" s="69">
+        <v>1195.68</v>
+      </c>
+      <c r="M40" s="243">
+        <f>SUM(M5:M39)</f>
+        <v>1982944.5</v>
+      </c>
+      <c r="N40" s="245">
         <f>SUM(N5:N39)</f>
         <v>62048</v>
       </c>
       <c r="P40" s="83">
-        <f>SUM(P5:P38)</f>
-        <v>2044936.81</v>
-      </c>
-      <c r="Q40" s="9">
+        <f>SUM(P5:P39)</f>
+        <v>2144991.81</v>
+      </c>
+      <c r="Q40" s="264">
         <f>SUM(Q5:Q38)</f>
         <v>5720.8099999999977</v>
       </c>
@@ -13444,11 +13523,17 @@
       <c r="G41" s="26"/>
       <c r="H41" s="32"/>
       <c r="I41" s="81"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="221"/>
-      <c r="N41" s="223"/>
+      <c r="J41" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="L41" s="69">
+        <v>738.22</v>
+      </c>
+      <c r="M41" s="244"/>
+      <c r="N41" s="246"/>
       <c r="P41" s="83"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13462,9 +13547,15 @@
       <c r="G42" s="26"/>
       <c r="H42" s="197"/>
       <c r="I42" s="85"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="75"/>
+      <c r="J42" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="L42" s="75">
+        <v>1392</v>
+      </c>
       <c r="M42" s="199"/>
       <c r="N42" s="198"/>
       <c r="P42" s="83"/>
@@ -13480,9 +13571,15 @@
       <c r="G43" s="26"/>
       <c r="H43" s="197"/>
       <c r="I43" s="85"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="75"/>
+      <c r="J43" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="K43" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" s="75">
+        <v>836.84</v>
+      </c>
       <c r="M43" s="199"/>
       <c r="N43" s="198"/>
       <c r="P43" s="83"/>
@@ -13498,9 +13595,15 @@
       <c r="G44" s="26"/>
       <c r="H44" s="197"/>
       <c r="I44" s="85"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="75"/>
+      <c r="J44" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="K44" s="265" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" s="75">
+        <v>30293</v>
+      </c>
       <c r="M44" s="199"/>
       <c r="N44" s="198"/>
       <c r="P44" s="83"/>
@@ -13645,7 +13748,7 @@
       </c>
       <c r="L51" s="101">
         <f>SUM(L5:L50)</f>
-        <v>67550.31</v>
+        <v>102006.04999999999</v>
       </c>
       <c r="M51" s="102"/>
       <c r="N51" s="102"/>
@@ -13663,32 +13766,32 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="3"/>
-      <c r="H53" s="244" t="s">
+      <c r="H53" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="245"/>
+      <c r="I53" s="232"/>
       <c r="J53" s="106"/>
-      <c r="K53" s="246">
+      <c r="K53" s="233">
         <f>I51+L51</f>
-        <v>69478.81</v>
-      </c>
-      <c r="L53" s="247"/>
-      <c r="M53" s="235">
+        <v>103934.54999999999</v>
+      </c>
+      <c r="L53" s="234"/>
+      <c r="M53" s="222">
         <f>N40+M40</f>
-        <v>1948692.5</v>
-      </c>
-      <c r="N53" s="236"/>
+        <v>2044992.5</v>
+      </c>
+      <c r="N53" s="223"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="248" t="s">
+      <c r="D54" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="248"/>
+      <c r="E54" s="235"/>
       <c r="F54" s="107">
         <f>F51-K53-C51</f>
-        <v>2039265.69</v>
+        <v>2004809.95</v>
       </c>
       <c r="I54" s="108"/>
       <c r="J54" s="109"/>
@@ -13696,22 +13799,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="249" t="s">
+      <c r="D55" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="249"/>
+      <c r="E55" s="236"/>
       <c r="F55" s="102">
-        <v>0</v>
-      </c>
-      <c r="I55" s="250" t="s">
+        <v>-2026393.17</v>
+      </c>
+      <c r="I55" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="251"/>
-      <c r="K55" s="252">
+      <c r="J55" s="238"/>
+      <c r="K55" s="239">
         <f>F57+F58+F59</f>
-        <v>2047235.69</v>
-      </c>
-      <c r="L55" s="253"/>
+        <v>178916.18000000002</v>
+      </c>
+      <c r="L55" s="240"/>
       <c r="P55" s="83"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13735,18 +13838,18 @@
       </c>
       <c r="F57" s="102">
         <f>SUM(F54:F56)</f>
-        <v>2039265.69</v>
+        <v>-21583.219999999972</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="116" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="237">
+      <c r="K57" s="224">
         <f>-C4</f>
         <v>-134848.89000000001</v>
       </c>
-      <c r="L57" s="238"/>
+      <c r="L57" s="225"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="118" t="s">
@@ -13763,22 +13866,22 @@
       <c r="C59" s="120">
         <v>44507</v>
       </c>
-      <c r="D59" s="239" t="s">
+      <c r="D59" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="240"/>
+      <c r="E59" s="227"/>
       <c r="F59" s="121">
-        <v>0</v>
-      </c>
-      <c r="I59" s="241" t="s">
+        <v>192529.4</v>
+      </c>
+      <c r="I59" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="242"/>
-      <c r="K59" s="243">
+      <c r="J59" s="229"/>
+      <c r="K59" s="230">
         <f>K55+K57</f>
-        <v>1912386.7999999998</v>
-      </c>
-      <c r="L59" s="243"/>
+        <v>44067.290000000008</v>
+      </c>
+      <c r="L59" s="230"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="122"/>
@@ -13922,6 +14025,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
@@ -13936,15 +14045,9 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <pageMargins left="0.17" right="0.16" top="0.3" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -13957,8 +14060,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14048,7 +14151,7 @@
       <c r="C5" s="79">
         <v>46347</v>
       </c>
-      <c r="D5" s="263">
+      <c r="D5" s="221">
         <v>44477</v>
       </c>
       <c r="E5" s="79">
@@ -14653,223 +14756,347 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="144"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="79"/>
+      <c r="A40" s="144">
+        <v>44497</v>
+      </c>
+      <c r="B40" s="142" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="79">
+        <v>50703.199999999997</v>
+      </c>
       <c r="D40" s="144"/>
       <c r="E40" s="79"/>
       <c r="F40" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50703.199999999997</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="144"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="79"/>
+      <c r="A41" s="144">
+        <v>44497</v>
+      </c>
+      <c r="B41" s="142" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="79">
+        <v>4844</v>
+      </c>
       <c r="D41" s="144"/>
       <c r="E41" s="79"/>
       <c r="F41" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55547.199999999997</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="144"/>
-      <c r="B42" s="142"/>
-      <c r="C42" s="79"/>
+      <c r="A42" s="144">
+        <v>44497</v>
+      </c>
+      <c r="B42" s="142" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="79">
+        <v>6003.8</v>
+      </c>
       <c r="D42" s="144"/>
       <c r="E42" s="79"/>
       <c r="F42" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61551</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="144"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="79"/>
+      <c r="A43" s="144">
+        <v>44497</v>
+      </c>
+      <c r="B43" s="142" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="79">
+        <v>92738</v>
+      </c>
       <c r="D43" s="144"/>
       <c r="E43" s="79"/>
       <c r="F43" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154289</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="144"/>
-      <c r="B44" s="142"/>
-      <c r="C44" s="79"/>
+      <c r="A44" s="144">
+        <v>44499</v>
+      </c>
+      <c r="B44" s="142" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="79">
+        <v>139699.70000000001</v>
+      </c>
       <c r="D44" s="144"/>
       <c r="E44" s="79"/>
       <c r="F44" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293988.7</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="144"/>
-      <c r="B45" s="142"/>
-      <c r="C45" s="79"/>
+      <c r="A45" s="144">
+        <v>44499</v>
+      </c>
+      <c r="B45" s="142" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="79">
+        <v>4552.51</v>
+      </c>
       <c r="D45" s="144"/>
       <c r="E45" s="79"/>
       <c r="F45" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>298541.21000000002</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="144"/>
-      <c r="B46" s="142"/>
-      <c r="C46" s="79"/>
+      <c r="A46" s="144">
+        <v>44501</v>
+      </c>
+      <c r="B46" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="79">
+        <v>6162.7</v>
+      </c>
       <c r="D46" s="144"/>
       <c r="E46" s="79"/>
       <c r="F46" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>304703.91000000003</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="144"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="79"/>
+      <c r="A47" s="144">
+        <v>44501</v>
+      </c>
+      <c r="B47" s="142" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="79">
+        <v>9660</v>
+      </c>
       <c r="D47" s="144"/>
       <c r="E47" s="79"/>
       <c r="F47" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>314363.91000000003</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="144"/>
-      <c r="B48" s="142"/>
-      <c r="C48" s="79"/>
+      <c r="A48" s="144">
+        <v>44501</v>
+      </c>
+      <c r="B48" s="142" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="79">
+        <v>9619.5</v>
+      </c>
       <c r="D48" s="144"/>
       <c r="E48" s="79"/>
       <c r="F48" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>323983.41000000003</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="144"/>
-      <c r="B49" s="142"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="79"/>
+      <c r="A49" s="144">
+        <v>44502</v>
+      </c>
+      <c r="B49" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="79">
+        <v>79346.8</v>
+      </c>
+      <c r="D49" s="144">
+        <v>44505</v>
+      </c>
+      <c r="E49" s="79">
+        <v>403330.21</v>
+      </c>
       <c r="F49" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="144"/>
-      <c r="B50" s="142"/>
-      <c r="C50" s="79"/>
+      <c r="A50" s="187">
+        <v>44503</v>
+      </c>
+      <c r="B50" s="185" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="186">
+        <v>76941.100000000006</v>
+      </c>
       <c r="D50" s="144"/>
       <c r="E50" s="79"/>
       <c r="F50" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76941.100000000006</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="144"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="79"/>
+      <c r="A51" s="187">
+        <v>44503</v>
+      </c>
+      <c r="B51" s="185" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="186">
+        <v>13212</v>
+      </c>
       <c r="D51" s="144"/>
       <c r="E51" s="79"/>
       <c r="F51" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90153.1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="144"/>
-      <c r="B52" s="142"/>
-      <c r="C52" s="79"/>
+      <c r="A52" s="187">
+        <v>44504</v>
+      </c>
+      <c r="B52" s="185" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="186">
+        <v>5106</v>
+      </c>
       <c r="D52" s="144"/>
       <c r="E52" s="79"/>
       <c r="F52" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95259.1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="144"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="79"/>
+      <c r="A53" s="187">
+        <v>44504</v>
+      </c>
+      <c r="B53" s="185" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="186">
+        <v>2750</v>
+      </c>
       <c r="D53" s="144"/>
       <c r="E53" s="79"/>
       <c r="F53" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98009.1</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="141"/>
-      <c r="B54" s="142"/>
-      <c r="C54" s="79"/>
+      <c r="A54" s="188">
+        <v>44504</v>
+      </c>
+      <c r="B54" s="185" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="186">
+        <v>5694</v>
+      </c>
       <c r="D54" s="144"/>
       <c r="E54" s="79"/>
       <c r="F54" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103703.1</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="141"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="79"/>
+      <c r="A55" s="188">
+        <v>44505</v>
+      </c>
+      <c r="B55" s="185" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="186">
+        <v>97618</v>
+      </c>
       <c r="D55" s="144"/>
       <c r="E55" s="79"/>
       <c r="F55" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>201321.1</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="141"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="79"/>
+      <c r="A56" s="188">
+        <v>44505</v>
+      </c>
+      <c r="B56" s="185" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="186">
+        <v>6914</v>
+      </c>
       <c r="D56" s="144"/>
       <c r="E56" s="79"/>
       <c r="F56" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>208235.1</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="144"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="79"/>
+      <c r="A57" s="187">
+        <v>44506</v>
+      </c>
+      <c r="B57" s="185" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57" s="186">
+        <v>96936.9</v>
+      </c>
       <c r="D57" s="144"/>
       <c r="E57" s="79"/>
       <c r="F57" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>305172</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="144"/>
-      <c r="B58" s="142"/>
-      <c r="C58" s="79"/>
+      <c r="A58" s="144">
+        <v>44506</v>
+      </c>
+      <c r="B58" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="79">
+        <v>6577.2</v>
+      </c>
       <c r="D58" s="144"/>
       <c r="E58" s="79"/>
       <c r="F58" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>311749.2</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="144"/>
-      <c r="B59" s="142"/>
-      <c r="C59" s="79"/>
+      <c r="A59" s="144">
+        <v>44507</v>
+      </c>
+      <c r="B59" s="142" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="79">
+        <v>606</v>
+      </c>
       <c r="D59" s="144"/>
       <c r="E59" s="79"/>
       <c r="F59" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14880,7 +15107,7 @@
       <c r="E60" s="79"/>
       <c r="F60" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14891,7 +15118,7 @@
       <c r="E61" s="79"/>
       <c r="F61" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -14902,7 +15129,7 @@
       <c r="E62" s="79"/>
       <c r="F62" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14913,7 +15140,7 @@
       <c r="E63" s="79"/>
       <c r="F63" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14924,7 +15151,7 @@
       <c r="E64" s="79"/>
       <c r="F64" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14935,7 +15162,7 @@
       <c r="E65" s="79"/>
       <c r="F65" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14946,7 +15173,7 @@
       <c r="E66" s="79"/>
       <c r="F66" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14957,7 +15184,7 @@
       <c r="E67" s="79"/>
       <c r="F67" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14968,7 +15195,7 @@
       <c r="E68" s="79"/>
       <c r="F68" s="145">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14979,7 +15206,7 @@
       <c r="E69" s="79"/>
       <c r="F69" s="145">
         <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14990,7 +15217,7 @@
       <c r="E70" s="79"/>
       <c r="F70" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15001,7 +15228,7 @@
       <c r="E71" s="79"/>
       <c r="F71" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15012,7 +15239,7 @@
       <c r="E72" s="79"/>
       <c r="F72" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15023,7 +15250,7 @@
       <c r="E73" s="79"/>
       <c r="F73" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15034,7 +15261,7 @@
       <c r="E74" s="79"/>
       <c r="F74" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15045,7 +15272,7 @@
       <c r="E75" s="79"/>
       <c r="F75" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15056,7 +15283,7 @@
       <c r="E76" s="79"/>
       <c r="F76" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15067,7 +15294,7 @@
       <c r="E77" s="79"/>
       <c r="F77" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15078,7 +15305,7 @@
       <c r="E78" s="79"/>
       <c r="F78" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15089,7 +15316,7 @@
       <c r="E79" s="79"/>
       <c r="F79" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15100,7 +15327,7 @@
       <c r="E80" s="79"/>
       <c r="F80" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15111,7 +15338,7 @@
       <c r="E81" s="83"/>
       <c r="F81" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15122,7 +15349,7 @@
       <c r="E82" s="83"/>
       <c r="F82" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15133,7 +15360,7 @@
       <c r="E83" s="83"/>
       <c r="F83" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15144,7 +15371,7 @@
       <c r="E84" s="83"/>
       <c r="F84" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15155,7 +15382,7 @@
       <c r="E85" s="83"/>
       <c r="F85" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15166,7 +15393,7 @@
       <c r="E86" s="83"/>
       <c r="F86" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15177,7 +15404,7 @@
       <c r="E87" s="79"/>
       <c r="F87" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15188,7 +15415,7 @@
       <c r="E88" s="79"/>
       <c r="F88" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15199,7 +15426,7 @@
       <c r="E89" s="79"/>
       <c r="F89" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15210,7 +15437,7 @@
       <c r="E90" s="79"/>
       <c r="F90" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15221,7 +15448,7 @@
       <c r="E91" s="79"/>
       <c r="F91" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15232,7 +15459,7 @@
       <c r="E92" s="79"/>
       <c r="F92" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15243,7 +15470,7 @@
       <c r="E93" s="79"/>
       <c r="F93" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15254,7 +15481,7 @@
       <c r="E94" s="79"/>
       <c r="F94" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15265,7 +15492,7 @@
       <c r="E95" s="79"/>
       <c r="F95" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -15276,7 +15503,7 @@
       <c r="E96" s="79"/>
       <c r="F96" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15289,23 +15516,23 @@
       <c r="E97" s="151"/>
       <c r="F97" s="145">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="104"/>
       <c r="C98" s="3">
         <f>SUM(C3:C97)</f>
-        <v>1310707.76</v>
+        <v>2026393.17</v>
       </c>
       <c r="D98" s="103"/>
       <c r="E98" s="3">
         <f>SUM(E3:E97)</f>
-        <v>1310707.76</v>
+        <v>1714037.97</v>
       </c>
       <c r="F98" s="153">
         <f>F97</f>
-        <v>0</v>
+        <v>312355.20000000001</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -15546,12 +15773,12 @@
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="163"/>
-      <c r="B45" s="257" t="s">
+      <c r="B45" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="258"/>
-      <c r="D45" s="258"/>
-      <c r="E45" s="259"/>
+      <c r="C45" s="262"/>
+      <c r="D45" s="262"/>
+      <c r="E45" s="263"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
